--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="177">
   <si>
     <t>Doi</t>
   </si>
@@ -654,6 +654,72 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,   Jingkang%Zhu%NULL%1,   Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%2,     F.%Santilli%null%1,     M. T.%Guagnano%null%1,     M.%Bucci%null%1,     F.%Cipollone%null%1,  D.%D’Ardes%null%0,  F.%Santilli%null%1,  M. T.%Guagnano%null%1,  M.%Bucci%null%1,  F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,    Feng%Wang%NULL%0,    Peng%Chen%NULL%1,    Jiangang%Jiang%NULL%0,    Guanglin%Cui%NULL%1,    Ning%Zhou%NULL%0,    Francesco%Moroni%NULL%1,    Javid J.%Moslehi%NULL%0,    Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,    Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,    Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,    Maria Livia%Burzo%NULL%2,    Maria Livia%Burzo%NULL%0,    Michele%Santoro%NULL%1,    Mariella%Fuorlo%NULL%1,    Luca%Sabia%NULL%1,    Claudio%Sandroni%NULL%1,    Antonio%Gasbarrini%NULL%0,    Francesco%Franceschi%NULL%1,    Giovanni%Gambassi%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,    C%Nardin%NULL%1,    G L%Di Tanna%NULL%1,    U%Grossi%NULL%1,    E%Bernardi%NULL%1,    L%Scaldaferri%NULL%1,    M%Romagnoli%NULL%1,    L%Tonon%NULL%1,    P%Cavasin%NULL%1,    S%Novello%NULL%1,    R%Scarpa%NULL%1,    A%Farnia%NULL%1,    E%De Menis%NULL%1,    R%Rigoli%NULL%1,    F%Cinetto%NULL%1,    P%Pauletto%NULL%1,    C%Agostini%NULL%1,    M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,    Jiatian%Cao%NULL%1,    Yumeng%Yao%NULL%1,    Xuejuan%Jin%NULL%1,    Zhe%Luo%NULL%1,    Yuan%Xue%NULL%1,    Chouwen%Zhu%NULL%1,    Yanan%Song%NULL%1,    Ying%Wang%NULL%0,    Yunzeng%Zou%NULL%1,    Juying%Qian%NULL%1,    Kaihuan%Yu%NULL%1,    Hui%Gong%NULL%1,    Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,    Kenneth W%Chow%NULL%1,    Jonathan%Vo%NULL%1,    Wei%Hou%NULL%0,    Haifang%Li%NULL%0,    Paul S%Richman%NULL%1,    Sandeep K%Mallipattu%NULL%1,    Hal A%Skopicki%NULL%1,    Adam J%Singer%NULL%1,    Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,    Yi%Liu%NULL%0,    Keliang%Chen%NULL%1,    Suying%Yan%NULL%1,    Xiangrong%Bai%NULL%1,    Juan%Li%947281063@qq.com%0,    Dong%Liu%ld2069@outlook.com%0,    Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,     Hisao%Ogawa%null%1,     Kazuo%Kimura%null%1,     Masaaki%Konishi%null%1,     Jin%Kirigaya%null%1,     Kazuki%Fukui%null%1,     Kengo%Tsukahara%null%1,     Hiroyuki%Shimizu%null%0,     Keisuke%Iwabuchi%null%0,     Yu%Yamada%null%1,     Kenichiro%Saka%null%1,     Ichiro%Takeuchi%null%0,     Toshio%Hirano%null%1,     Kouichi%Tamura%null%1,  Yasushi%Matsuzawa%null%0,  Hisao%Ogawa%null%1,  Kazuo%Kimura%null%1,  Masaaki%Konishi%null%1,  Jin%Kirigaya%null%1,  Kazuki%Fukui%null%1,  Kengo%Tsukahara%null%1,  Hiroyuki%Shimizu%null%1,  Keisuke%Iwabuchi%null%1,  Yu%Yamada%null%1,  Kenichiro%Saka%null%1,  Ichiro%Takeuchi%null%1,  Toshio%Hirano%null%1,  Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,    Guohui%Xiao%NULL%1,    Juanjuan%Zhang%NULL%1,    Xing%He%NULL%1,    Min%Ou%NULL%1,    Jing%Bi%NULL%1,    Rongqing%Yang%NULL%1,    Wencheng%Di%NULL%1,    Zhaoqin%Wang%NULL%0,    Zigang%Li%NULL%1,    Hong%Gao%NULL%0,    Lei%Liu%NULL%0,    Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%2,     Yanchen%Guo%null%1,     Zhengrong%Lin%null%1,     Zhe%Shi%null%1,     Tianyuan%Bian%null%1,     Lin%Qi%null%1,     Long%Meng%null%1,     Anthony A.%Grace%null%1,     Hairong%Zheng%null%1,     Ti-Fei%Yuan%null%1,  Lili%Niu%null%0,  Yanchen%Guo%null%1,  Zhengrong%Lin%null%1,  Zhe%Shi%null%1,  Tianyuan%Bian%null%1,  Lin%Qi%null%1,  Long%Meng%null%1,  Anthony A.%Grace%null%1,  Hairong%Zheng%null%1,  Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,    Paolo%Maggi%NULL%2,    Paolo%Maggi%NULL%0,    Vincenzo%Messina%NULL%1,    Pasquale%Iuliano%NULL%2,    Pasquale%Iuliano%NULL%0,    Antonio%Sardu%NULL%1,    Vincenzo%Iovinella%NULL%1,    Giuseppe%Paolisso%NULL%1,    Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,   Li%J%coreGivesNoEmail%1,   Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,    Rasimcan%Meral%NULL%1,    Alpay%Medetalibeyoğlu%NULL%1,    Hilal%Konyaoğlu%NULL%1,    Murat%Köse%NULL%1,    Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,    Dewei%Zhang%NULL%1,    Shengming%Wang%NULL%1,    Yanhua%Jin%NULL%1,    Jianbo%Huan%NULL%1,    Yue%Wu%NULL%0,    Cheng%Xia%NULL%1,    Zhe%Li%NULL%0,    Xingshun%Qi%NULL%1,    Duanzhen%Zhang%NULL%1,    Xiumin%Han%NULL%1,    Xianyang%Zhu%NULL%1,    Ying%Qu%NULL%1,    Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,    Songmei%Wang%NULL%1,    Lorenz%von Seidlein%NULL%1,    Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,    Dan%Liu%NULL%0,    Shaoqing%Zeng%NULL%1,    Siyuan%Wang%NULL%1,    Sen%Xu%NULL%0,    Ya%Wang%NULL%0,    Ruidi%Yu%NULL%1,    Yue%Gao%NULL%0,    Huayi%Li%NULL%1,    Xinxia%Feng%NULL%1,    Ning%Zhou%NULL%0,    Chunxia%Zhao%NULL%1,    Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,    Lihua%Zhu%NULL%0,    Jingjing%Cai%NULL%0,    Fang%Lei%NULL%0,    Juan-Juan%Qin%NULL%0,    Jing%Xie%NULL%2,    Ye-Mao%Liu%NULL%0,    Yan-Ci%Zhao%NULL%1,    Xuewei%Huang%NULL%0,    Lijin%Lin%NULL%0,    Meng%Xia%NULL%0,    Ming-Ming%Chen%NULL%0,    Xu%Cheng%NULL%1,    Xiao%Zhang%NULL%0,    Deliang%Guo%NULL%1,    Yuanyuan%Peng%NULL%1,    Yan-Xiao%Ji%NULL%0,    Jing%Chen%NULL%0,    Zhi-Gang%She%NULL%0,    Yibin%Wang%NULL%0,    Qingbo%Xu%NULL%0,    Renfu%Tan%NULL%1,    Haitao%Wang%NULL%1,    Jun%Lin%NULL%2,    Pengcheng%Luo%NULL%1,    Shouzhi%Fu%NULL%0,    Hongbin%Cai%NULL%1,    Ping%Ye%NULL%0,    Bing%Xiao%NULL%1,    Weiming%Mao%NULL%0,    Liming%Liu%NULL%1,    Youqin%Yan%NULL%2,    Mingyu%Liu%NULL%1,    Manhua%Chen%NULL%1,    Xiao-Jing%Zhang%NULL%0,    Xinghuan%Wang%NULL%0,    Rhian M.%Touyz%NULL%1,    Jiahong%Xia%NULL%0,    Bing-Hong%Zhang%NULL%0,    Xiaodong%Huang%NULL%0,    Yufeng%Yuan%NULL%0,    Rohit%Loomba%NULL%1,    Peter P.%Liu%NULL%1,    Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,    Jingkang%Zhu%NULL%1,    Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -969,6 +1035,9 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -984,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -994,6 +1063,9 @@
       </c>
       <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1010,7 +1082,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1020,6 +1092,9 @@
       </c>
       <c r="H3" t="s">
         <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4">
@@ -1036,7 +1111,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1046,6 +1121,9 @@
       </c>
       <c r="H4" t="s">
         <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5">
@@ -1062,7 +1140,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1072,6 +1150,9 @@
       </c>
       <c r="H5" t="s">
         <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1169,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1098,6 +1179,9 @@
       </c>
       <c r="H6" t="s">
         <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -1114,7 +1198,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1124,6 +1208,9 @@
       </c>
       <c r="H7" t="s">
         <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -1140,7 +1227,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1150,6 +1237,9 @@
       </c>
       <c r="H8" t="s">
         <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1256,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1176,6 +1266,9 @@
       </c>
       <c r="H9" t="s">
         <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1192,7 +1285,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1202,6 +1295,9 @@
       </c>
       <c r="H10" t="s">
         <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -1218,7 +1314,7 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1228,6 +1324,9 @@
       </c>
       <c r="H11" t="s">
         <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -1255,6 +1354,9 @@
       <c r="H12" t="s">
         <v>44</v>
       </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1270,7 +1372,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1280,6 +1382,9 @@
       </c>
       <c r="H13" t="s">
         <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14">
@@ -1296,16 +1401,19 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1322,7 +1430,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1332,6 +1440,9 @@
       </c>
       <c r="H15" t="s">
         <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1359,6 +1470,9 @@
       <c r="H16" t="s">
         <v>44</v>
       </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1374,7 +1488,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1384,6 +1498,9 @@
       </c>
       <c r="H17" t="s">
         <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -1400,7 +1517,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -1410,6 +1527,9 @@
       </c>
       <c r="H18" t="s">
         <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -1437,6 +1557,9 @@
       <c r="H19" t="s">
         <v>44</v>
       </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1452,7 +1575,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1462,6 +1585,9 @@
       </c>
       <c r="H20" t="s">
         <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -1478,7 +1604,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -1488,6 +1614,9 @@
       </c>
       <c r="H21" t="s">
         <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22">
@@ -1504,7 +1633,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -1514,6 +1643,9 @@
       </c>
       <c r="H22" t="s">
         <v>116</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="231">
   <si>
     <t>Doi</t>
   </si>
@@ -720,6 +720,168 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,    Jingkang%Zhu%NULL%1,    Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,      F.%Santilli%null%1,      M. T.%Guagnano%null%1,      M.%Bucci%null%1,      F.%Cipollone%null%1,   D.%D’Ardes%null%1,   F.%Santilli%null%1,   M. T.%Guagnano%null%1,   M.%Bucci%null%1,   F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,     Feng%Wang%NULL%0,     Peng%Chen%NULL%1,     Jiangang%Jiang%NULL%0,     Guanglin%Cui%NULL%1,     Ning%Zhou%NULL%0,     Francesco%Moroni%NULL%1,     Javid J.%Moslehi%NULL%0,     Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,     Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,     Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,     Maria Livia%Burzo%NULL%2,     Maria Livia%Burzo%NULL%0,     Michele%Santoro%NULL%1,     Mariella%Fuorlo%NULL%1,     Luca%Sabia%NULL%1,     Claudio%Sandroni%NULL%1,     Antonio%Gasbarrini%NULL%0,     Francesco%Franceschi%NULL%1,     Giovanni%Gambassi%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,     C%Nardin%NULL%1,     G L%Di Tanna%NULL%1,     U%Grossi%NULL%1,     E%Bernardi%NULL%1,     L%Scaldaferri%NULL%1,     M%Romagnoli%NULL%1,     L%Tonon%NULL%1,     P%Cavasin%NULL%1,     S%Novello%NULL%1,     R%Scarpa%NULL%1,     A%Farnia%NULL%1,     E%De Menis%NULL%1,     R%Rigoli%NULL%1,     F%Cinetto%NULL%1,     P%Pauletto%NULL%1,     C%Agostini%NULL%1,     M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,     Jiatian%Cao%NULL%1,     Yumeng%Yao%NULL%1,     Xuejuan%Jin%NULL%1,     Zhe%Luo%NULL%1,     Yuan%Xue%NULL%1,     Chouwen%Zhu%NULL%1,     Yanan%Song%NULL%1,     Ying%Wang%NULL%0,     Yunzeng%Zou%NULL%1,     Juying%Qian%NULL%1,     Kaihuan%Yu%NULL%1,     Hui%Gong%NULL%1,     Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,     Kenneth W%Chow%NULL%1,     Jonathan%Vo%NULL%1,     Wei%Hou%NULL%0,     Haifang%Li%NULL%0,     Paul S%Richman%NULL%1,     Sandeep K%Mallipattu%NULL%1,     Hal A%Skopicki%NULL%1,     Adam J%Singer%NULL%1,     Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,     Yi%Liu%NULL%0,     Keliang%Chen%NULL%1,     Suying%Yan%NULL%1,     Xiangrong%Bai%NULL%1,     Juan%Li%947281063@qq.com%0,     Dong%Liu%ld2069@outlook.com%0,     Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,      Hisao%Ogawa%null%0,      Kazuo%Kimura%null%1,      Masaaki%Konishi%null%1,      Jin%Kirigaya%null%1,      Kazuki%Fukui%null%1,      Kengo%Tsukahara%null%1,      Hiroyuki%Shimizu%null%1,      Keisuke%Iwabuchi%null%1,      Yu%Yamada%null%1,      Kenichiro%Saka%null%1,      Ichiro%Takeuchi%null%1,      Toshio%Hirano%null%1,      Kouichi%Tamura%null%1,   Yasushi%Matsuzawa%null%1,   Hisao%Ogawa%null%0,   Kazuo%Kimura%null%1,   Masaaki%Konishi%null%1,   Jin%Kirigaya%null%1,   Kazuki%Fukui%null%1,   Kengo%Tsukahara%null%1,   Hiroyuki%Shimizu%null%1,   Keisuke%Iwabuchi%null%1,   Yu%Yamada%null%1,   Kenichiro%Saka%null%1,   Ichiro%Takeuchi%null%1,   Toshio%Hirano%null%1,   Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,     Guohui%Xiao%NULL%1,     Juanjuan%Zhang%NULL%1,     Xing%He%NULL%1,     Min%Ou%NULL%1,     Jing%Bi%NULL%1,     Rongqing%Yang%NULL%1,     Wencheng%Di%NULL%1,     Zhaoqin%Wang%NULL%0,     Zigang%Li%NULL%1,     Hong%Gao%NULL%0,     Lei%Liu%NULL%0,     Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,      Yanchen%Guo%null%1,      Zhengrong%Lin%null%1,      Zhe%Shi%null%1,      Tianyuan%Bian%null%1,      Lin%Qi%null%1,      Long%Meng%null%1,      Anthony A.%Grace%null%1,      Hairong%Zheng%null%1,      Ti-Fei%Yuan%null%1,   Lili%Niu%null%1,   Yanchen%Guo%null%1,   Zhengrong%Lin%null%1,   Zhe%Shi%null%1,   Tianyuan%Bian%null%1,   Lin%Qi%null%1,   Long%Meng%null%1,   Anthony A.%Grace%null%1,   Hairong%Zheng%null%1,   Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,     Paolo%Maggi%NULL%2,     Paolo%Maggi%NULL%0,     Vincenzo%Messina%NULL%1,     Pasquale%Iuliano%NULL%2,     Pasquale%Iuliano%NULL%0,     Antonio%Sardu%NULL%1,     Vincenzo%Iovinella%NULL%1,     Giuseppe%Paolisso%NULL%1,     Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,    Li%J%coreGivesNoEmail%1,    Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,     Rasimcan%Meral%NULL%1,     Alpay%Medetalibeyoğlu%NULL%1,     Hilal%Konyaoğlu%NULL%1,     Murat%Köse%NULL%1,     Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,     Dewei%Zhang%NULL%1,     Shengming%Wang%NULL%1,     Yanhua%Jin%NULL%1,     Jianbo%Huan%NULL%1,     Yue%Wu%NULL%0,     Cheng%Xia%NULL%1,     Zhe%Li%NULL%1,     Xingshun%Qi%NULL%1,     Duanzhen%Zhang%NULL%1,     Xiumin%Han%NULL%1,     Xianyang%Zhu%NULL%1,     Ying%Qu%NULL%1,     Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,     Songmei%Wang%NULL%1,     Lorenz%von Seidlein%NULL%1,     Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,     Dan%Liu%NULL%0,     Shaoqing%Zeng%NULL%1,     Siyuan%Wang%NULL%1,     Sen%Xu%NULL%0,     Ya%Wang%NULL%0,     Ruidi%Yu%NULL%1,     Yue%Gao%NULL%1,     Huayi%Li%NULL%1,     Xinxia%Feng%NULL%1,     Ning%Zhou%NULL%0,     Chunxia%Zhao%NULL%1,     Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,     Lihua%Zhu%NULL%0,     Jingjing%Cai%NULL%0,     Fang%Lei%NULL%0,     Juan-Juan%Qin%NULL%0,     Jing%Xie%NULL%2,     Ye-Mao%Liu%NULL%0,     Yan-Ci%Zhao%NULL%1,     Xuewei%Huang%NULL%0,     Lijin%Lin%NULL%0,     Meng%Xia%NULL%0,     Ming-Ming%Chen%NULL%0,     Xu%Cheng%NULL%1,     Xiao%Zhang%NULL%0,     Deliang%Guo%NULL%1,     Yuanyuan%Peng%NULL%1,     Yan-Xiao%Ji%NULL%0,     Jing%Chen%NULL%1,     Zhi-Gang%She%NULL%0,     Yibin%Wang%NULL%0,     Qingbo%Xu%NULL%0,     Renfu%Tan%NULL%1,     Haitao%Wang%NULL%1,     Jun%Lin%NULL%2,     Pengcheng%Luo%NULL%1,     Shouzhi%Fu%NULL%0,     Hongbin%Cai%NULL%1,     Ping%Ye%NULL%0,     Bing%Xiao%NULL%1,     Weiming%Mao%NULL%0,     Liming%Liu%NULL%1,     Youqin%Yan%NULL%2,     Mingyu%Liu%NULL%1,     Manhua%Chen%NULL%1,     Xiao-Jing%Zhang%NULL%0,     Xinghuan%Wang%NULL%0,     Rhian M.%Touyz%NULL%1,     Jiahong%Xia%NULL%0,     Bing-Hong%Zhang%NULL%0,     Xiaodong%Huang%NULL%0,     Yufeng%Yuan%NULL%0,     Rohit%Loomba%NULL%1,     Peter P.%Liu%NULL%1,     Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,     Jingkang%Zhu%NULL%1,     Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,       F.%Santilli%null%1,       M. T.%Guagnano%null%1,       M.%Bucci%null%1,       F.%Cipollone%null%1,    D.%D’Ardes%null%1,    F.%Santilli%null%1,    M. T.%Guagnano%null%1,    M.%Bucci%null%1,    F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,      Feng%Wang%NULL%0,      Peng%Chen%NULL%1,      Jiangang%Jiang%NULL%0,      Guanglin%Cui%NULL%1,      Ning%Zhou%NULL%0,      Francesco%Moroni%NULL%1,      Javid J.%Moslehi%NULL%0,      Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,      Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,      Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,      Maria Livia%Burzo%NULL%2,      Maria Livia%Burzo%NULL%0,      Michele%Santoro%NULL%1,      Mariella%Fuorlo%NULL%1,      Luca%Sabia%NULL%1,      Claudio%Sandroni%NULL%1,      Antonio%Gasbarrini%NULL%0,      Francesco%Franceschi%NULL%1,      Giovanni%Gambassi%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,      C%Nardin%NULL%1,      G L%Di Tanna%NULL%1,      U%Grossi%NULL%1,      E%Bernardi%NULL%1,      L%Scaldaferri%NULL%1,      M%Romagnoli%NULL%1,      L%Tonon%NULL%1,      P%Cavasin%NULL%1,      S%Novello%NULL%1,      R%Scarpa%NULL%1,      A%Farnia%NULL%1,      E%De Menis%NULL%1,      R%Rigoli%NULL%1,      F%Cinetto%NULL%1,      P%Pauletto%NULL%1,      C%Agostini%NULL%1,      M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,      Jiatian%Cao%NULL%1,      Yumeng%Yao%NULL%1,      Xuejuan%Jin%NULL%1,      Zhe%Luo%NULL%1,      Yuan%Xue%NULL%1,      Chouwen%Zhu%NULL%1,      Yanan%Song%NULL%1,      Ying%Wang%NULL%0,      Yunzeng%Zou%NULL%1,      Juying%Qian%NULL%1,      Kaihuan%Yu%NULL%1,      Hui%Gong%NULL%1,      Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,      Kenneth W%Chow%NULL%1,      Jonathan%Vo%NULL%1,      Wei%Hou%NULL%0,      Haifang%Li%NULL%0,      Paul S%Richman%NULL%1,      Sandeep K%Mallipattu%NULL%1,      Hal A%Skopicki%NULL%1,      Adam J%Singer%NULL%1,      Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,      Yi%Liu%NULL%0,      Keliang%Chen%NULL%1,      Suying%Yan%NULL%1,      Xiangrong%Bai%NULL%1,      Juan%Li%947281063@qq.com%0,      Dong%Liu%ld2069@outlook.com%0,      Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,       Hisao%Ogawa%null%0,       Kazuo%Kimura%null%1,       Masaaki%Konishi%null%1,       Jin%Kirigaya%null%1,       Kazuki%Fukui%null%1,       Kengo%Tsukahara%null%1,       Hiroyuki%Shimizu%null%1,       Keisuke%Iwabuchi%null%1,       Yu%Yamada%null%1,       Kenichiro%Saka%null%1,       Ichiro%Takeuchi%null%1,       Toshio%Hirano%null%1,       Kouichi%Tamura%null%1,    Yasushi%Matsuzawa%null%1,    Hisao%Ogawa%null%0,    Kazuo%Kimura%null%1,    Masaaki%Konishi%null%1,    Jin%Kirigaya%null%1,    Kazuki%Fukui%null%1,    Kengo%Tsukahara%null%1,    Hiroyuki%Shimizu%null%1,    Keisuke%Iwabuchi%null%1,    Yu%Yamada%null%1,    Kenichiro%Saka%null%1,    Ichiro%Takeuchi%null%1,    Toshio%Hirano%null%1,    Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,      Guohui%Xiao%NULL%1,      Juanjuan%Zhang%NULL%1,      Xing%He%NULL%1,      Min%Ou%NULL%1,      Jing%Bi%NULL%1,      Rongqing%Yang%NULL%1,      Wencheng%Di%NULL%1,      Zhaoqin%Wang%NULL%0,      Zigang%Li%NULL%1,      Hong%Gao%NULL%0,      Lei%Liu%NULL%0,      Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,       Yanchen%Guo%null%1,       Zhengrong%Lin%null%1,       Zhe%Shi%null%1,       Tianyuan%Bian%null%1,       Lin%Qi%null%1,       Long%Meng%null%1,       Anthony A.%Grace%null%1,       Hairong%Zheng%null%1,       Ti-Fei%Yuan%null%1,    Lili%Niu%null%1,    Yanchen%Guo%null%1,    Zhengrong%Lin%null%1,    Zhe%Shi%null%1,    Tianyuan%Bian%null%1,    Lin%Qi%null%1,    Long%Meng%null%1,    Anthony A.%Grace%null%1,    Hairong%Zheng%null%1,    Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,      Paolo%Maggi%NULL%2,      Paolo%Maggi%NULL%0,      Vincenzo%Messina%NULL%1,      Pasquale%Iuliano%NULL%2,      Pasquale%Iuliano%NULL%0,      Antonio%Sardu%NULL%1,      Vincenzo%Iovinella%NULL%1,      Giuseppe%Paolisso%NULL%1,      Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,     Li%J%coreGivesNoEmail%1,     Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,      Rasimcan%Meral%NULL%1,      Alpay%Medetalibeyoğlu%NULL%1,      Hilal%Konyaoğlu%NULL%1,      Murat%Köse%NULL%1,      Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,      Dewei%Zhang%NULL%1,      Shengming%Wang%NULL%1,      Yanhua%Jin%NULL%1,      Jianbo%Huan%NULL%1,      Yue%Wu%NULL%0,      Cheng%Xia%NULL%1,      Zhe%Li%NULL%1,      Xingshun%Qi%NULL%1,      Duanzhen%Zhang%NULL%1,      Xiumin%Han%NULL%1,      Xianyang%Zhu%NULL%1,      Ying%Qu%NULL%1,      Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,      Songmei%Wang%NULL%1,      Lorenz%von Seidlein%NULL%1,      Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,      Dan%Liu%NULL%0,      Shaoqing%Zeng%NULL%1,      Siyuan%Wang%NULL%1,      Sen%Xu%NULL%0,      Ya%Wang%NULL%0,      Ruidi%Yu%NULL%1,      Yue%Gao%NULL%1,      Huayi%Li%NULL%1,      Xinxia%Feng%NULL%1,      Ning%Zhou%NULL%0,      Chunxia%Zhao%NULL%1,      Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,      Lihua%Zhu%NULL%0,      Jingjing%Cai%NULL%0,      Fang%Lei%NULL%0,      Juan-Juan%Qin%NULL%0,      Jing%Xie%NULL%2,      Ye-Mao%Liu%NULL%0,      Yan-Ci%Zhao%NULL%1,      Xuewei%Huang%NULL%0,      Lijin%Lin%NULL%0,      Meng%Xia%NULL%0,      Ming-Ming%Chen%NULL%0,      Xu%Cheng%NULL%1,      Xiao%Zhang%NULL%0,      Deliang%Guo%NULL%1,      Yuanyuan%Peng%NULL%1,      Yan-Xiao%Ji%NULL%0,      Jing%Chen%NULL%1,      Zhi-Gang%She%NULL%0,      Yibin%Wang%NULL%0,      Qingbo%Xu%NULL%0,      Renfu%Tan%NULL%1,      Haitao%Wang%NULL%1,      Jun%Lin%NULL%2,      Pengcheng%Luo%NULL%1,      Shouzhi%Fu%NULL%0,      Hongbin%Cai%NULL%1,      Ping%Ye%NULL%0,      Bing%Xiao%NULL%1,      Weiming%Mao%NULL%0,      Liming%Liu%NULL%1,      Youqin%Yan%NULL%2,      Mingyu%Liu%NULL%1,      Manhua%Chen%NULL%1,      Xiao-Jing%Zhang%NULL%0,      Xinghuan%Wang%NULL%0,      Rhian M.%Touyz%NULL%1,      Jiahong%Xia%NULL%0,      Bing-Hong%Zhang%NULL%0,      Xiaodong%Huang%NULL%0,      Yufeng%Yuan%NULL%0,      Rohit%Loomba%NULL%1,      Peter P.%Liu%NULL%1,      Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,      Jingkang%Zhu%NULL%1,      Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,        F.%Santilli%null%1,        M. T.%Guagnano%null%1,        M.%Bucci%null%1,        F.%Cipollone%null%1,     D.%D’Ardes%null%1,     F.%Santilli%null%1,     M. T.%Guagnano%null%1,     M.%Bucci%null%1,     F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,       Feng%Wang%NULL%0,       Peng%Chen%NULL%1,       Jiangang%Jiang%NULL%0,       Guanglin%Cui%NULL%1,       Ning%Zhou%NULL%0,       Francesco%Moroni%NULL%1,       Javid J.%Moslehi%NULL%0,       Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,       Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,       Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,       Maria Livia%Burzo%NULL%2,       Maria Livia%Burzo%NULL%0,       Michele%Santoro%NULL%1,       Mariella%Fuorlo%NULL%1,       Luca%Sabia%NULL%1,       Claudio%Sandroni%NULL%1,       Antonio%Gasbarrini%NULL%0,       Francesco%Franceschi%NULL%1,       Giovanni%Gambassi%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,       C%Nardin%NULL%1,       G L%Di Tanna%NULL%1,       U%Grossi%NULL%1,       E%Bernardi%NULL%1,       L%Scaldaferri%NULL%1,       M%Romagnoli%NULL%1,       L%Tonon%NULL%1,       P%Cavasin%NULL%1,       S%Novello%NULL%1,       R%Scarpa%NULL%1,       A%Farnia%NULL%1,       E%De Menis%NULL%1,       R%Rigoli%NULL%1,       F%Cinetto%NULL%1,       P%Pauletto%NULL%1,       C%Agostini%NULL%1,       M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,       Jiatian%Cao%NULL%1,       Yumeng%Yao%NULL%1,       Xuejuan%Jin%NULL%1,       Zhe%Luo%NULL%1,       Yuan%Xue%NULL%1,       Chouwen%Zhu%NULL%1,       Yanan%Song%NULL%1,       Ying%Wang%NULL%0,       Yunzeng%Zou%NULL%1,       Juying%Qian%NULL%1,       Kaihuan%Yu%NULL%1,       Hui%Gong%NULL%1,       Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,       Kenneth W%Chow%NULL%1,       Jonathan%Vo%NULL%1,       Wei%Hou%NULL%0,       Haifang%Li%NULL%0,       Paul S%Richman%NULL%1,       Sandeep K%Mallipattu%NULL%1,       Hal A%Skopicki%NULL%1,       Adam J%Singer%NULL%1,       Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,       Yi%Liu%NULL%0,       Keliang%Chen%NULL%1,       Suying%Yan%NULL%1,       Xiangrong%Bai%NULL%1,       Juan%Li%947281063@qq.com%0,       Dong%Liu%ld2069@outlook.com%0,       Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,        Hisao%Ogawa%null%0,        Kazuo%Kimura%null%1,        Masaaki%Konishi%null%1,        Jin%Kirigaya%null%1,        Kazuki%Fukui%null%1,        Kengo%Tsukahara%null%1,        Hiroyuki%Shimizu%null%1,        Keisuke%Iwabuchi%null%1,        Yu%Yamada%null%1,        Kenichiro%Saka%null%1,        Ichiro%Takeuchi%null%1,        Toshio%Hirano%null%1,        Kouichi%Tamura%null%1,     Yasushi%Matsuzawa%null%1,     Hisao%Ogawa%null%0,     Kazuo%Kimura%null%1,     Masaaki%Konishi%null%1,     Jin%Kirigaya%null%1,     Kazuki%Fukui%null%1,     Kengo%Tsukahara%null%1,     Hiroyuki%Shimizu%null%1,     Keisuke%Iwabuchi%null%1,     Yu%Yamada%null%1,     Kenichiro%Saka%null%1,     Ichiro%Takeuchi%null%1,     Toshio%Hirano%null%1,     Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,       Guohui%Xiao%NULL%1,       Juanjuan%Zhang%NULL%1,       Xing%He%NULL%1,       Min%Ou%NULL%1,       Jing%Bi%NULL%1,       Rongqing%Yang%NULL%1,       Wencheng%Di%NULL%1,       Zhaoqin%Wang%NULL%0,       Zigang%Li%NULL%1,       Hong%Gao%NULL%0,       Lei%Liu%NULL%0,       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,        Yanchen%Guo%null%1,        Zhengrong%Lin%null%1,        Zhe%Shi%null%1,        Tianyuan%Bian%null%1,        Lin%Qi%null%1,        Long%Meng%null%1,        Anthony A.%Grace%null%1,        Hairong%Zheng%null%1,        Ti-Fei%Yuan%null%1,     Lili%Niu%null%1,     Yanchen%Guo%null%1,     Zhengrong%Lin%null%1,     Zhe%Shi%null%1,     Tianyuan%Bian%null%1,     Lin%Qi%null%1,     Long%Meng%null%1,     Anthony A.%Grace%null%1,     Hairong%Zheng%null%1,     Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,       Paolo%Maggi%NULL%2,       Paolo%Maggi%NULL%0,       Vincenzo%Messina%NULL%1,       Pasquale%Iuliano%NULL%2,       Pasquale%Iuliano%NULL%0,       Antonio%Sardu%NULL%1,       Vincenzo%Iovinella%NULL%1,       Giuseppe%Paolisso%NULL%1,       Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,      Li%J%coreGivesNoEmail%1,      Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,       Rasimcan%Meral%NULL%1,       Alpay%Medetalibeyoğlu%NULL%1,       Hilal%Konyaoğlu%NULL%1,       Murat%Köse%NULL%1,       Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,       Dewei%Zhang%NULL%1,       Shengming%Wang%NULL%1,       Yanhua%Jin%NULL%1,       Jianbo%Huan%NULL%1,       Yue%Wu%NULL%0,       Cheng%Xia%NULL%1,       Zhe%Li%NULL%1,       Xingshun%Qi%NULL%1,       Duanzhen%Zhang%NULL%1,       Xiumin%Han%NULL%1,       Xianyang%Zhu%NULL%1,       Ying%Qu%NULL%1,       Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,       Songmei%Wang%NULL%1,       Lorenz%von Seidlein%NULL%1,       Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,       Dan%Liu%NULL%0,       Shaoqing%Zeng%NULL%1,       Siyuan%Wang%NULL%1,       Sen%Xu%NULL%0,       Ya%Wang%NULL%0,       Ruidi%Yu%NULL%1,       Yue%Gao%NULL%1,       Huayi%Li%NULL%1,       Xinxia%Feng%NULL%1,       Ning%Zhou%NULL%0,       Chunxia%Zhao%NULL%1,       Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,       Lihua%Zhu%NULL%0,       Jingjing%Cai%NULL%0,       Fang%Lei%NULL%0,       Juan-Juan%Qin%NULL%0,       Jing%Xie%NULL%2,       Ye-Mao%Liu%NULL%0,       Yan-Ci%Zhao%NULL%1,       Xuewei%Huang%NULL%0,       Lijin%Lin%NULL%0,       Meng%Xia%NULL%0,       Ming-Ming%Chen%NULL%0,       Xu%Cheng%NULL%1,       Xiao%Zhang%NULL%0,       Deliang%Guo%NULL%1,       Yuanyuan%Peng%NULL%1,       Yan-Xiao%Ji%NULL%0,       Jing%Chen%NULL%1,       Zhi-Gang%She%NULL%0,       Yibin%Wang%NULL%0,       Qingbo%Xu%NULL%0,       Renfu%Tan%NULL%1,       Haitao%Wang%NULL%1,       Jun%Lin%NULL%2,       Pengcheng%Luo%NULL%1,       Shouzhi%Fu%NULL%0,       Hongbin%Cai%NULL%1,       Ping%Ye%NULL%0,       Bing%Xiao%NULL%1,       Weiming%Mao%NULL%0,       Liming%Liu%NULL%1,       Youqin%Yan%NULL%2,       Mingyu%Liu%NULL%1,       Manhua%Chen%NULL%1,       Xiao-Jing%Zhang%NULL%0,       Xinghuan%Wang%NULL%0,       Rhian M.%Touyz%NULL%1,       Jiahong%Xia%NULL%0,       Bing-Hong%Zhang%NULL%0,       Xiaodong%Huang%NULL%0,       Yufeng%Yuan%NULL%0,       Rohit%Loomba%NULL%1,       Peter P.%Liu%NULL%1,       Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,       Jingkang%Zhu%NULL%1,       Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1082,7 +1244,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1111,7 +1273,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1140,7 +1302,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1169,7 +1331,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1198,7 +1360,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1227,7 +1389,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1256,7 +1418,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1285,7 +1447,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1314,7 +1476,7 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1372,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1401,13 +1563,13 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -1430,7 +1592,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1488,7 +1650,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1517,7 +1679,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -1575,7 +1737,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1604,7 +1766,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -1633,7 +1795,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
   <si>
     <t>Doi</t>
   </si>
@@ -882,6 +882,187 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,       Jingkang%Zhu%NULL%1,       Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,         F.%Santilli%null%1,         M. T.%Guagnano%null%1,         M.%Bucci%null%1,         F.%Cipollone%null%1,      D.%D’Ardes%null%1,      F.%Santilli%null%1,      M. T.%Guagnano%null%1,      M.%Bucci%null%1,      F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,        Feng%Wang%NULL%0,        Peng%Chen%NULL%1,        Jiangang%Jiang%NULL%0,        Guanglin%Cui%NULL%1,        Ning%Zhou%NULL%0,        Francesco%Moroni%NULL%1,        Javid J.%Moslehi%NULL%0,        Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,        Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,        Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,        Maria Livia%Burzo%NULL%2,        Maria Livia%Burzo%NULL%0,        Michele%Santoro%NULL%1,        Mariella%Fuorlo%NULL%1,        Luca%Sabia%NULL%1,        Claudio%Sandroni%NULL%1,        Antonio%Gasbarrini%NULL%0,        Francesco%Franceschi%NULL%1,        Giovanni%Gambassi%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,        C%Nardin%NULL%1,        G L%Di Tanna%NULL%1,        U%Grossi%NULL%1,        E%Bernardi%NULL%1,        L%Scaldaferri%NULL%1,        M%Romagnoli%NULL%1,        L%Tonon%NULL%1,        P%Cavasin%NULL%1,        S%Novello%NULL%1,        R%Scarpa%NULL%1,        A%Farnia%NULL%1,        E%De Menis%NULL%1,        R%Rigoli%NULL%1,        F%Cinetto%NULL%1,        P%Pauletto%NULL%1,        C%Agostini%NULL%1,        M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,        Jiatian%Cao%NULL%1,        Yumeng%Yao%NULL%1,        Xuejuan%Jin%NULL%1,        Zhe%Luo%NULL%1,        Yuan%Xue%NULL%1,        Chouwen%Zhu%NULL%1,        Yanan%Song%NULL%1,        Ying%Wang%NULL%0,        Yunzeng%Zou%NULL%1,        Juying%Qian%NULL%1,        Kaihuan%Yu%NULL%1,        Hui%Gong%NULL%1,        Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,        Kenneth W%Chow%NULL%1,        Jonathan%Vo%NULL%1,        Wei%Hou%NULL%0,        Haifang%Li%NULL%0,        Paul S%Richman%NULL%1,        Sandeep K%Mallipattu%NULL%1,        Hal A%Skopicki%NULL%1,        Adam J%Singer%NULL%1,        Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,        Yi%Liu%NULL%0,        Keliang%Chen%NULL%1,        Suying%Yan%NULL%1,        Xiangrong%Bai%NULL%1,        Juan%Li%947281063@qq.com%0,        Dong%Liu%ld2069@outlook.com%0,        Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,         Hisao%Ogawa%null%0,         Kazuo%Kimura%null%1,         Masaaki%Konishi%null%1,         Jin%Kirigaya%null%1,         Kazuki%Fukui%null%1,         Kengo%Tsukahara%null%1,         Hiroyuki%Shimizu%null%1,         Keisuke%Iwabuchi%null%1,         Yu%Yamada%null%1,         Kenichiro%Saka%null%1,         Ichiro%Takeuchi%null%1,         Toshio%Hirano%null%1,         Kouichi%Tamura%null%1,      Yasushi%Matsuzawa%null%1,      Hisao%Ogawa%null%0,      Kazuo%Kimura%null%1,      Masaaki%Konishi%null%1,      Jin%Kirigaya%null%1,      Kazuki%Fukui%null%1,      Kengo%Tsukahara%null%1,      Hiroyuki%Shimizu%null%1,      Keisuke%Iwabuchi%null%1,      Yu%Yamada%null%1,      Kenichiro%Saka%null%1,      Ichiro%Takeuchi%null%1,      Toshio%Hirano%null%1,      Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,        Guohui%Xiao%NULL%1,        Juanjuan%Zhang%NULL%1,        Xing%He%NULL%1,        Min%Ou%NULL%1,        Jing%Bi%NULL%1,        Rongqing%Yang%NULL%1,        Wencheng%Di%NULL%1,        Zhaoqin%Wang%NULL%1,        Zigang%Li%NULL%1,        Hong%Gao%NULL%0,        Lei%Liu%NULL%0,        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,         Yanchen%Guo%null%1,         Zhengrong%Lin%null%1,         Zhe%Shi%null%1,         Tianyuan%Bian%null%1,         Lin%Qi%null%1,         Long%Meng%null%1,         Anthony A.%Grace%null%1,         Hairong%Zheng%null%1,         Ti-Fei%Yuan%null%1,      Lili%Niu%null%1,      Yanchen%Guo%null%1,      Zhengrong%Lin%null%1,      Zhe%Shi%null%1,      Tianyuan%Bian%null%1,      Lin%Qi%null%1,      Long%Meng%null%1,      Anthony A.%Grace%null%1,      Hairong%Zheng%null%1,      Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>"Clinical Features of COVID-19 in Patients With Essential Hypertension and the Impacts of Renin-angiotensin-aldosterone System Inhibitors on the Prognosis of COVID-19 Patients"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            Hypertension is one of the most common comorbidities in patients with coronavirus disease 2019 (COVID-19).
+ This study aimed to clarify the impact of hypertension on COVID-19 and investigate whether the prior use of renin-angiotensin-aldosterone system (RAAS) inhibitors affects the prognosis of COVID-19. A total of 996 patients with COVID-19 were enrolled, including 282 patients with hypertension and 714 patients without hypertension.
+ Propensity score-matched analysis (1:1 matching) was used to adjust the imbalanced baseline variables between the 2 groups.
+ Patients with hypertension were further divided into the RAAS inhibitor group (n=41) and non-RAAS inhibitor group (n=241) according to their medication history.
+ The results showed that COVID-19 patients with hypertension had more severe secondary infections, cardiac and renal dysfunction, and depletion of CD8\n            +\n            cells on admission.
+ Patients with hypertension were more likely to have comorbidities and complications and were more likely to be classified as critically ill than those without hypertension.
+ Cox regression analysis revealed that hypertension (hazard ratio, 95% CI, unmatched cohort [1.80, 1.20\u20132.70]; matched cohort [2.24, 1.36\u20133.70]) was independently associated with all-cause mortality in patients with COVID-19. In addition, hypertensive patients with a history of RAAS inhibitor treatment had lower levels of C-reactive protein and higher levels of CD4\n            +\n            cells.
+ The mortality of patients in the RAAS inhibitor group (9.8% versus 26.1%) was significantly lower than that of patients in the non-RAAS inhibitor group.
+ In conclusion, hypertension may be an independent risk factor for all-cause mortality in patients with COVID-19. Patients who previously used RAAS inhibitors may have a better prognosis.
+\n          </t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0, Jishou%Zhang%xref no email%0, Menglong%Wang%xref no email%0, Jing%Ye%xref no email%0, Yao%Xu%xref no email%0, Bo%Shen%xref no email%0, Hua%He%xref no email%0, Zhen%Wang%xref no email%0, Di%Ye%xref no email%0, Mengmeng%Zhao%xref no email%0, Zhen%Luo%xref no email%0, Mingxiao%Liu%xref no email%0, Pingan%Zhang%xref no email%0, Jian%Gu%xref no email%0, Menglin%Liu%xref no email%0, Dan%Li%xref no email%0, Jianfang%Liu%xref no email%0, Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,        Paolo%Maggi%NULL%2,        Paolo%Maggi%NULL%0,        Vincenzo%Messina%NULL%1,        Pasquale%Iuliano%NULL%2,        Pasquale%Iuliano%NULL%0,        Antonio%Sardu%NULL%1,        Vincenzo%Iovinella%NULL%1,        Giuseppe%Paolisso%NULL%1,        Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,       Li%J%coreGivesNoEmail%1,       Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,        Rasimcan%Meral%NULL%1,        Alpay%Medetalibeyoğlu%NULL%1,        Hilal%Konyaoğlu%NULL%1,        Murat%Köse%NULL%1,        Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Association Between Renin-Angiotensin-Aldosterone System Inhibitors and COVID-19 Infection in South Korea"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            The severe acute respiratory syndrome coronavirus 2 is known to infect host cells by interacting with ACE2 (angiotensin-converting enzyme 2) expressed in the respiratory epithelium.
+ There have been concerns on whether alterations of ACE2 expression by renin-angiotensin-aldosterone system (RAAS) inhibitors would contribute to the infectivity and severity of coronavirus disease 2019 (COVID-19).
+ We performed a case-control study to investigate the association between RAAS inhibitors and risk and severity of COVID-19 infection in South Korea using the population-based data provided by the Korean National Health Insurance System.
+ Of 16 281 subjects with hypertension, there were 950 (5.8%) confirmed COVID-19 cases.
+ After case-control matching, multivariable-adjusted conditional logistic regression analysis was performed.
+ The adjusted odds ratio and 95% CIs for COVID-19 infection and long-term hospitalization comparing exposure to RAAS inhibitors and nonexposure to RAAS inhibitors was 1.161 (0.958\u20131.407) and 0.863 (0.533\u20131.397), respectively.
+ When comparing exposure to RAAS inhibitors and nonexposure to RAAS inhibitors for intensive care unit admission, high-flow oxygen therapy, and death, the adjusted odds ratios (95% CIs) were 1.515 (0.402\u20135.701), 0.663 (0.272\u20131.619), and 1.363 (0.513\u20133.662), respectively.
+ In all analyses,\n            P\n            values were not significant (\n            P\n            &amp;gt;0.05).
+ The present study demonstrates the absence of an identifiable association between the exposure to RAAS inhibitors and risk and severity of COVID-19 infection, supporting the current medical guidelines and recommendations that patients should not discontinue RAAS inhibitors out of a concern that they are at increased risk for infection or severe illness of COVID-19.\n          </t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1, Jeongkuk%Seo%xref no email%1, Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,        Dewei%Zhang%NULL%1,        Shengming%Wang%NULL%1,        Yanhua%Jin%NULL%1,        Jianbo%Huan%NULL%1,        Yue%Wu%NULL%0,        Cheng%Xia%NULL%1,        Zhe%Li%NULL%1,        Xingshun%Qi%NULL%1,        Duanzhen%Zhang%NULL%1,        Xiumin%Han%NULL%1,        Xianyang%Zhu%NULL%1,        Ying%Qu%NULL%1,        Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,        Songmei%Wang%NULL%1,        Lorenz%von Seidlein%NULL%1,        Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"Effects of Angiotensin II Receptor Blockers and ACE (Angiotensin-Converting Enzyme) Inhibitors on Virus Infection, Inflammatory Status, and Clinical Outcomes in Patients With COVID-19 and Hypertension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            With the capability of inducing elevated expression of ACE2 (angiotensin-converting enzyme 2), the cellular receptor for severe acute respiratory syndrome coronavirus 2, angiotensin II receptor blockers (ARBs) or ACE inhibitors treatment may have a controversial role in both facilitating virus infection and reducing pathogenic inflammation.
+ We aimed to evaluate the effects of ARBs\/ACE inhibitors on coronavirus disease 2019 (COVID-19) in a retrospective, single-center study.
+ One hundred twenty-six patients with COVID-19 and preexisting hypertension at Hubei Provincial Hospital of Traditional Chinese Medicine in Wuhan from January 5 to February 22, 2020, were retrospectively allocated to ARBs\/ACE inhibitors group (n=43) and non-ARBs\/ACE inhibitors group (n=83) according to their antihypertensive medication.
+ One hundred twenty-five age- and sex-matched patients with COVID-19 without hypertension were randomly selected as nonhypertension controls.
+ In addition, the medication history of 1942 patients with hypertension that were admitted to Hubei Provincial Hospital of Traditional Chinese Medicine from November 1 to December 31, 2019, before the COVID-19 outbreak were also reviewed for external comparison.
+ Epidemiological, demographic, clinical, and laboratory data were collected, analyzed, and compared between these groups.
+ The frequency of ARBs\/ACE inhibitors usage in patients with hypertension with or without COVID-19 were comparable.
+ Among patients with COVID-19 and hypertension, those received either ARBs\/ACE inhibitors or non-ARBs\/ACE inhibitors had comparable blood pressure.
+ However, ARBs\/ACE inhibitors group had significantly lower concentrations of hs-CRP (high-sensitivity C-reactive protein;\n            P\n            =0.049) and PCT (procalcitonin,\n            P\n            =0.008).
+ Furthermore, a lower proportion of critical patients (9.3% versus 22.9%;\n            P\n            =0.061) and a lower death rate (4.7% versus 13.3%;\n            P\n            =0.216) were observed in ARBs\/ACE inhibitors group than non-ARBs\/ACE inhibitors group, although these differences failed to reach statistical significance.
+ Our findings thus support the use of ARBs\/ACE inhibitors in patients with COVID-19 and preexisting hypertension.
+\n          </t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0, Zihu%Tan%xref no email%0, Ling%Zhou%xref no email%0, Min%Yang%xref no email%0, Lang%Peng%xref no email%0, Jinjin%Liu%xref no email%0, Jingling%Cai%xref no email%0, Ru%Yang%xref no email%0, Junyan%Han%xref no email%0, Yafei%Huang%xref no email%0, Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,        Dan%Liu%NULL%0,        Shaoqing%Zeng%NULL%1,        Siyuan%Wang%NULL%1,        Sen%Xu%NULL%0,        Ya%Wang%NULL%0,        Ruidi%Yu%NULL%1,        Yue%Gao%NULL%0,        Huayi%Li%NULL%1,        Xinxia%Feng%NULL%1,        Ning%Zhou%NULL%0,        Chunxia%Zhao%NULL%1,        Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,        Lihua%Zhu%NULL%0,        Jingjing%Cai%NULL%0,        Fang%Lei%NULL%0,        Juan-Juan%Qin%NULL%0,        Jing%Xie%NULL%2,        Ye-Mao%Liu%NULL%0,        Yan-Ci%Zhao%NULL%1,        Xuewei%Huang%NULL%0,        Lijin%Lin%NULL%0,        Meng%Xia%NULL%0,        Ming-Ming%Chen%NULL%0,        Xu%Cheng%NULL%1,        Xiao%Zhang%NULL%0,        Deliang%Guo%NULL%1,        Yuanyuan%Peng%NULL%1,        Yan-Xiao%Ji%NULL%0,        Jing%Chen%NULL%0,        Zhi-Gang%She%NULL%0,        Yibin%Wang%NULL%0,        Qingbo%Xu%NULL%0,        Renfu%Tan%NULL%1,        Haitao%Wang%NULL%1,        Jun%Lin%NULL%2,        Pengcheng%Luo%NULL%1,        Shouzhi%Fu%NULL%0,        Hongbin%Cai%NULL%1,        Ping%Ye%NULL%0,        Bing%Xiao%NULL%1,        Weiming%Mao%NULL%0,        Liming%Liu%NULL%1,        Youqin%Yan%NULL%2,        Mingyu%Liu%NULL%1,        Manhua%Chen%NULL%1,        Xiao-Jing%Zhang%NULL%0,        Xinghuan%Wang%NULL%0,        Rhian M.%Touyz%NULL%1,        Jiahong%Xia%NULL%0,        Bing-Hong%Zhang%NULL%0,        Xiaodong%Huang%NULL%0,        Yufeng%Yuan%NULL%0,        Rohit%Loomba%NULL%1,        Peter P.%Liu%NULL%1,        Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,        Jingkang%Zhu%NULL%1,        Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,          F.%Santilli%null%1,          M. T.%Guagnano%null%1,          M.%Bucci%null%1,          F.%Cipollone%null%1,       D.%D’Ardes%null%1,       F.%Santilli%null%1,       M. T.%Guagnano%null%1,       M.%Bucci%null%1,       F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,         Feng%Wang%NULL%0,         Peng%Chen%NULL%1,         Jiangang%Jiang%NULL%0,         Guanglin%Cui%NULL%1,         Ning%Zhou%NULL%0,         Francesco%Moroni%NULL%1,         Javid J.%Moslehi%NULL%0,         Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,         Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,         Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,         Maria Livia%Burzo%NULL%2,         Maria Livia%Burzo%NULL%0,         Michele%Santoro%NULL%1,         Mariella%Fuorlo%NULL%1,         Luca%Sabia%NULL%1,         Claudio%Sandroni%NULL%1,         Antonio%Gasbarrini%NULL%0,         Francesco%Franceschi%NULL%1,         Giovanni%Gambassi%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,         C%Nardin%NULL%1,         G L%Di Tanna%NULL%1,         U%Grossi%NULL%1,         E%Bernardi%NULL%1,         L%Scaldaferri%NULL%1,         M%Romagnoli%NULL%1,         L%Tonon%NULL%1,         P%Cavasin%NULL%1,         S%Novello%NULL%1,         R%Scarpa%NULL%1,         A%Farnia%NULL%1,         E%De Menis%NULL%1,         R%Rigoli%NULL%1,         F%Cinetto%NULL%1,         P%Pauletto%NULL%1,         C%Agostini%NULL%1,         M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,         Jiatian%Cao%NULL%1,         Yumeng%Yao%NULL%1,         Xuejuan%Jin%NULL%1,         Zhe%Luo%NULL%1,         Yuan%Xue%NULL%1,         Chouwen%Zhu%NULL%1,         Yanan%Song%NULL%1,         Ying%Wang%NULL%0,         Yunzeng%Zou%NULL%1,         Juying%Qian%NULL%1,         Kaihuan%Yu%NULL%1,         Hui%Gong%NULL%1,         Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,         Kenneth W%Chow%NULL%1,         Jonathan%Vo%NULL%1,         Wei%Hou%NULL%0,         Haifang%Li%NULL%0,         Paul S%Richman%NULL%1,         Sandeep K%Mallipattu%NULL%1,         Hal A%Skopicki%NULL%1,         Adam J%Singer%NULL%1,         Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,         Yi%Liu%NULL%0,         Keliang%Chen%NULL%1,         Suying%Yan%NULL%1,         Xiangrong%Bai%NULL%1,         Juan%Li%947281063@qq.com%0,         Dong%Liu%ld2069@outlook.com%0,         Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,          Hisao%Ogawa%null%0,          Kazuo%Kimura%null%1,          Masaaki%Konishi%null%1,          Jin%Kirigaya%null%1,          Kazuki%Fukui%null%1,          Kengo%Tsukahara%null%1,          Hiroyuki%Shimizu%null%1,          Keisuke%Iwabuchi%null%1,          Yu%Yamada%null%1,          Kenichiro%Saka%null%1,          Ichiro%Takeuchi%null%1,          Toshio%Hirano%null%1,          Kouichi%Tamura%null%1,       Yasushi%Matsuzawa%null%1,       Hisao%Ogawa%null%0,       Kazuo%Kimura%null%1,       Masaaki%Konishi%null%1,       Jin%Kirigaya%null%1,       Kazuki%Fukui%null%1,       Kengo%Tsukahara%null%1,       Hiroyuki%Shimizu%null%1,       Keisuke%Iwabuchi%null%1,       Yu%Yamada%null%1,       Kenichiro%Saka%null%1,       Ichiro%Takeuchi%null%1,       Toshio%Hirano%null%1,       Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,         Guohui%Xiao%NULL%1,         Juanjuan%Zhang%NULL%1,         Xing%He%NULL%1,         Min%Ou%NULL%1,         Jing%Bi%NULL%1,         Rongqing%Yang%NULL%1,         Wencheng%Di%NULL%1,         Zhaoqin%Wang%NULL%1,         Zigang%Li%NULL%1,         Hong%Gao%NULL%0,         Lei%Liu%NULL%0,         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,          Yanchen%Guo%null%1,          Zhengrong%Lin%null%1,          Zhe%Shi%null%1,          Tianyuan%Bian%null%1,          Lin%Qi%null%1,          Long%Meng%null%1,          Anthony A.%Grace%null%1,          Hairong%Zheng%null%1,          Ti-Fei%Yuan%null%1,       Lili%Niu%null%1,       Yanchen%Guo%null%1,       Zhengrong%Lin%null%1,       Zhe%Shi%null%1,       Tianyuan%Bian%null%1,       Lin%Qi%null%1,       Long%Meng%null%1,       Anthony A.%Grace%null%1,       Hairong%Zheng%null%1,       Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,  Jishou%Zhang%xref no email%0,  Menglong%Wang%xref no email%0,  Jing%Ye%xref no email%0,  Yao%Xu%xref no email%0,  Bo%Shen%xref no email%0,  Hua%He%xref no email%0,  Zhen%Wang%xref no email%0,  Di%Ye%xref no email%0,  Mengmeng%Zhao%xref no email%0,  Zhen%Luo%xref no email%0,  Mingxiao%Liu%xref no email%0,  Pingan%Zhang%xref no email%0,  Jian%Gu%xref no email%0,  Menglin%Liu%xref no email%0,  Dan%Li%xref no email%0,  Jianfang%Liu%xref no email%0,  Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,         Paolo%Maggi%NULL%2,         Paolo%Maggi%NULL%0,         Vincenzo%Messina%NULL%1,         Pasquale%Iuliano%NULL%2,         Pasquale%Iuliano%NULL%0,         Antonio%Sardu%NULL%1,         Vincenzo%Iovinella%NULL%1,         Giuseppe%Paolisso%NULL%1,         Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,        Li%J%coreGivesNoEmail%1,        Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,         Rasimcan%Meral%NULL%1,         Alpay%Medetalibeyoğlu%NULL%1,         Hilal%Konyaoğlu%NULL%1,         Murat%Köse%NULL%1,         Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,  Jeongkuk%Seo%xref no email%1,  Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,         Dewei%Zhang%NULL%1,         Shengming%Wang%NULL%1,         Yanhua%Jin%NULL%1,         Jianbo%Huan%NULL%1,         Yue%Wu%NULL%0,         Cheng%Xia%NULL%1,         Zhe%Li%NULL%1,         Xingshun%Qi%NULL%1,         Duanzhen%Zhang%NULL%1,         Xiumin%Han%NULL%1,         Xianyang%Zhu%NULL%1,         Ying%Qu%NULL%1,         Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,         Songmei%Wang%NULL%1,         Lorenz%von Seidlein%NULL%1,         Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,  Zihu%Tan%xref no email%0,  Ling%Zhou%xref no email%0,  Min%Yang%xref no email%0,  Lang%Peng%xref no email%0,  Jinjin%Liu%xref no email%0,  Jingling%Cai%xref no email%0,  Ru%Yang%xref no email%0,  Junyan%Han%xref no email%0,  Yafei%Huang%xref no email%0,  Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,         Dan%Liu%NULL%0,         Shaoqing%Zeng%NULL%1,         Siyuan%Wang%NULL%1,         Sen%Xu%NULL%0,         Ya%Wang%NULL%0,         Ruidi%Yu%NULL%1,         Yue%Gao%NULL%0,         Huayi%Li%NULL%1,         Xinxia%Feng%NULL%1,         Ning%Zhou%NULL%0,         Chunxia%Zhao%NULL%1,         Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,         Lihua%Zhu%NULL%0,         Jingjing%Cai%NULL%0,         Fang%Lei%NULL%0,         Juan-Juan%Qin%NULL%0,         Jing%Xie%NULL%2,         Ye-Mao%Liu%NULL%0,         Yan-Ci%Zhao%NULL%1,         Xuewei%Huang%NULL%0,         Lijin%Lin%NULL%0,         Meng%Xia%NULL%0,         Ming-Ming%Chen%NULL%0,         Xu%Cheng%NULL%1,         Xiao%Zhang%NULL%0,         Deliang%Guo%NULL%1,         Yuanyuan%Peng%NULL%1,         Yan-Xiao%Ji%NULL%0,         Jing%Chen%NULL%0,         Zhi-Gang%She%NULL%0,         Yibin%Wang%NULL%0,         Qingbo%Xu%NULL%0,         Renfu%Tan%NULL%1,         Haitao%Wang%NULL%1,         Jun%Lin%NULL%2,         Pengcheng%Luo%NULL%1,         Shouzhi%Fu%NULL%0,         Hongbin%Cai%NULL%1,         Ping%Ye%NULL%0,         Bing%Xiao%NULL%1,         Weiming%Mao%NULL%0,         Liming%Liu%NULL%1,         Youqin%Yan%NULL%2,         Mingyu%Liu%NULL%1,         Manhua%Chen%NULL%1,         Xiao-Jing%Zhang%NULL%0,         Xinghuan%Wang%NULL%0,         Rhian M.%Touyz%NULL%1,         Jiahong%Xia%NULL%0,         Bing-Hong%Zhang%NULL%0,         Xiaodong%Huang%NULL%0,         Yufeng%Yuan%NULL%0,         Rohit%Loomba%NULL%1,         Peter P.%Liu%NULL%1,         Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,         Jingkang%Zhu%NULL%1,         Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1244,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1273,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1302,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1331,7 +1512,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1360,7 +1541,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1389,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1418,7 +1599,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1447,7 +1628,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1476,7 +1657,7 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1499,22 +1680,22 @@
         <v>44075.0</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="I12" t="s">
         <v>103</v>
@@ -1534,7 +1715,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1563,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1592,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1615,22 +1796,22 @@
         <v>44075.0</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="I16" t="s">
         <v>103</v>
@@ -1650,7 +1831,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1679,7 +1860,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -1702,22 +1883,22 @@
         <v>44013.0</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="I19" t="s">
         <v>103</v>
@@ -1737,7 +1918,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1766,7 +1947,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -1795,7 +1976,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="327">
   <si>
     <t>Doi</t>
   </si>
@@ -1063,6 +1063,164 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,         Jingkang%Zhu%NULL%1,         Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,           F.%Santilli%null%1,           M. T.%Guagnano%null%1,           M.%Bucci%null%1,           F.%Cipollone%null%1,        D.%D’Ardes%null%1,        F.%Santilli%null%1,        M. T.%Guagnano%null%1,        M.%Bucci%null%1,        F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,          Feng%Wang%NULL%0,          Peng%Chen%NULL%1,          Jiangang%Jiang%NULL%0,          Guanglin%Cui%NULL%1,          Ning%Zhou%NULL%0,          Francesco%Moroni%NULL%1,          Javid J.%Moslehi%NULL%0,          Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,          Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,          Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,          Maria Livia%Burzo%NULL%2,          Maria Livia%Burzo%NULL%0,          Michele%Santoro%NULL%1,          Mariella%Fuorlo%NULL%1,          Luca%Sabia%NULL%1,          Claudio%Sandroni%NULL%1,          Antonio%Gasbarrini%NULL%0,          Francesco%Franceschi%NULL%1,          Giovanni%Gambassi%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,          C%Nardin%NULL%1,          G L%Di Tanna%NULL%1,          U%Grossi%NULL%1,          E%Bernardi%NULL%1,          L%Scaldaferri%NULL%1,          M%Romagnoli%NULL%1,          L%Tonon%NULL%1,          P%Cavasin%NULL%1,          S%Novello%NULL%1,          R%Scarpa%NULL%1,          A%Farnia%NULL%1,          E%De Menis%NULL%1,          R%Rigoli%NULL%1,          F%Cinetto%NULL%1,          P%Pauletto%NULL%1,          C%Agostini%NULL%1,          M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,          Jiatian%Cao%NULL%1,          Yumeng%Yao%NULL%1,          Xuejuan%Jin%NULL%1,          Zhe%Luo%NULL%1,          Yuan%Xue%NULL%1,          Chouwen%Zhu%NULL%1,          Yanan%Song%NULL%1,          Ying%Wang%NULL%0,          Yunzeng%Zou%NULL%1,          Juying%Qian%NULL%1,          Kaihuan%Yu%NULL%1,          Hui%Gong%NULL%1,          Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,          Kenneth W%Chow%NULL%1,          Jonathan%Vo%NULL%1,          Wei%Hou%NULL%0,          Haifang%Li%NULL%0,          Paul S%Richman%NULL%1,          Sandeep K%Mallipattu%NULL%1,          Hal A%Skopicki%NULL%1,          Adam J%Singer%NULL%1,          Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,          Yi%Liu%NULL%0,          Keliang%Chen%NULL%1,          Suying%Yan%NULL%1,          Xiangrong%Bai%NULL%1,          Juan%Li%947281063@qq.com%0,          Dong%Liu%ld2069@outlook.com%0,          Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,           Hisao%Ogawa%null%0,           Kazuo%Kimura%null%1,           Masaaki%Konishi%null%1,           Jin%Kirigaya%null%1,           Kazuki%Fukui%null%1,           Kengo%Tsukahara%null%1,           Hiroyuki%Shimizu%null%1,           Keisuke%Iwabuchi%null%1,           Yu%Yamada%null%1,           Kenichiro%Saka%null%1,           Ichiro%Takeuchi%null%1,           Toshio%Hirano%null%1,           Kouichi%Tamura%null%1,        Yasushi%Matsuzawa%null%1,        Hisao%Ogawa%null%0,        Kazuo%Kimura%null%1,        Masaaki%Konishi%null%1,        Jin%Kirigaya%null%1,        Kazuki%Fukui%null%1,        Kengo%Tsukahara%null%1,        Hiroyuki%Shimizu%null%1,        Keisuke%Iwabuchi%null%1,        Yu%Yamada%null%1,        Kenichiro%Saka%null%1,        Ichiro%Takeuchi%null%1,        Toshio%Hirano%null%1,        Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,          Guohui%Xiao%NULL%1,          Juanjuan%Zhang%NULL%1,          Xing%He%NULL%1,          Min%Ou%NULL%1,          Jing%Bi%NULL%1,          Rongqing%Yang%NULL%1,          Wencheng%Di%NULL%1,          Zhaoqin%Wang%NULL%1,          Zigang%Li%NULL%1,          Hong%Gao%NULL%0,          Lei%Liu%NULL%0,          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,           Yanchen%Guo%null%1,           Zhengrong%Lin%null%1,           Zhe%Shi%null%1,           Tianyuan%Bian%null%1,           Lin%Qi%null%1,           Long%Meng%null%1,           Anthony A.%Grace%null%1,           Hairong%Zheng%null%1,           Ti-Fei%Yuan%null%1,        Lili%Niu%null%1,        Yanchen%Guo%null%1,        Zhengrong%Lin%null%1,        Zhe%Shi%null%1,        Tianyuan%Bian%null%1,        Lin%Qi%null%1,        Long%Meng%null%1,        Anthony A.%Grace%null%1,        Hairong%Zheng%null%1,        Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,   Jishou%Zhang%xref no email%0,   Menglong%Wang%xref no email%0,   Jing%Ye%xref no email%0,   Yao%Xu%xref no email%0,   Bo%Shen%xref no email%0,   Hua%He%xref no email%0,   Zhen%Wang%xref no email%0,   Di%Ye%xref no email%0,   Mengmeng%Zhao%xref no email%0,   Zhen%Luo%xref no email%0,   Mingxiao%Liu%xref no email%0,   Pingan%Zhang%xref no email%0,   Jian%Gu%xref no email%0,   Menglin%Liu%xref no email%0,   Dan%Li%xref no email%0,   Jianfang%Liu%xref no email%0,   Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,          Paolo%Maggi%NULL%2,          Paolo%Maggi%NULL%0,          Vincenzo%Messina%NULL%1,          Pasquale%Iuliano%NULL%2,          Pasquale%Iuliano%NULL%0,          Antonio%Sardu%NULL%1,          Vincenzo%Iovinella%NULL%1,          Giuseppe%Paolisso%NULL%1,          Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,         Li%J%coreGivesNoEmail%1,         Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,          Rasimcan%Meral%NULL%1,          Alpay%Medetalibeyoğlu%NULL%1,          Hilal%Konyaoğlu%NULL%1,          Murat%Köse%NULL%1,          Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,   Jeongkuk%Seo%xref no email%1,   Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,          Dewei%Zhang%NULL%1,          Shengming%Wang%NULL%1,          Yanhua%Jin%NULL%1,          Jianbo%Huan%NULL%1,          Yue%Wu%NULL%0,          Cheng%Xia%NULL%1,          Zhe%Li%NULL%1,          Xingshun%Qi%NULL%1,          Duanzhen%Zhang%NULL%1,          Xiumin%Han%NULL%1,          Xianyang%Zhu%NULL%1,          Ying%Qu%NULL%1,          Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,          Songmei%Wang%NULL%1,          Lorenz%von Seidlein%NULL%1,          Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,   Zihu%Tan%xref no email%0,   Ling%Zhou%xref no email%0,   Min%Yang%xref no email%0,   Lang%Peng%xref no email%0,   Jinjin%Liu%xref no email%0,   Jingling%Cai%xref no email%0,   Ru%Yang%xref no email%0,   Junyan%Han%xref no email%0,   Yafei%Huang%xref no email%0,   Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,          Dan%Liu%NULL%0,          Shaoqing%Zeng%NULL%1,          Siyuan%Wang%NULL%1,          Sen%Xu%NULL%0,          Ya%Wang%NULL%0,          Ruidi%Yu%NULL%1,          Yue%Gao%NULL%0,          Huayi%Li%NULL%1,          Xinxia%Feng%NULL%1,          Ning%Zhou%NULL%0,          Chunxia%Zhao%NULL%1,          Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,          Lihua%Zhu%NULL%0,          Jingjing%Cai%NULL%0,          Fang%Lei%NULL%0,          Juan-Juan%Qin%NULL%0,          Jing%Xie%NULL%2,          Ye-Mao%Liu%NULL%0,          Yan-Ci%Zhao%NULL%1,          Xuewei%Huang%NULL%0,          Lijin%Lin%NULL%0,          Meng%Xia%NULL%0,          Ming-Ming%Chen%NULL%0,          Xu%Cheng%NULL%1,          Xiao%Zhang%NULL%0,          Deliang%Guo%NULL%1,          Yuanyuan%Peng%NULL%1,          Yan-Xiao%Ji%NULL%0,          Jing%Chen%NULL%0,          Zhi-Gang%She%NULL%0,          Yibin%Wang%NULL%0,          Qingbo%Xu%NULL%0,          Renfu%Tan%NULL%1,          Haitao%Wang%NULL%1,          Jun%Lin%NULL%2,          Pengcheng%Luo%NULL%1,          Shouzhi%Fu%NULL%0,          Hongbin%Cai%NULL%1,          Ping%Ye%NULL%0,          Bing%Xiao%NULL%1,          Weiming%Mao%NULL%0,          Liming%Liu%NULL%1,          Youqin%Yan%NULL%2,          Mingyu%Liu%NULL%1,          Manhua%Chen%NULL%1,          Xiao-Jing%Zhang%NULL%0,          Xinghuan%Wang%NULL%0,          Rhian M.%Touyz%NULL%1,          Jiahong%Xia%NULL%0,          Bing-Hong%Zhang%NULL%0,          Xiaodong%Huang%NULL%0,          Yufeng%Yuan%NULL%0,          Rohit%Loomba%NULL%1,          Peter P.%Liu%NULL%1,          Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,          Jingkang%Zhu%NULL%1,          Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lipids and endothelium are pivotal players on the scene of atherosclerosis and their interaction is crucial for the establishment of the pathological processes.
+ The endothelium is not only the border of the arterial wall: it plays a key role in regulating circulating fatty acids and lipoproteins and vice versa it is regulated by these lipidic molecules thereby promoting atherosclerosis.
+ Inflammation is another important element in the relationship between lipids and endothelium.
+ Recently, proprotein convertase subtilisin/kexin type 9 (PCSK9) has been recognized as a fundamental regulator of LDL-C and anti-PCSK9 monoclonal antibodies have been approved for therapeutic use in hypercholesterolemia, with the promise to subvert the natural history of the disease.
+ Moreover, growing experimental and clinical evidence is enlarging our understanding of the mechanisms through which this protein may facilitate the genesis of atherosclerosis, independently of its impact on lipid metabolism.
+ In addition, environmental stimuli may affect the post-transcriptional regulation of genes through micro-RNAs, which in turn play a key role in orchestrating the crosstalk between endothelium and cholesterol.
+ Advances in experimental research, with development of high throughput techniques, have led, over the last century, to a tremendous progress in the understanding and fine tuning of the molecular mechanisms leading to atherosclerosis.
+ Identification of pivotal keystone molecules bridging lipid metabolism, endothelial dysfunction and atherogenesis will provide the mechanistic substrate to test valuable targets for prediction, prevention and treatment of atherosclerosis-related disease.
+</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%0,  F.%Santilli%null%1,  M. T.%Guagnano%null%1,  M.%Bucci%null%1,  F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,           Feng%Wang%NULL%0,           Peng%Chen%NULL%1,           Jiangang%Jiang%NULL%0,           Guanglin%Cui%NULL%1,           Ning%Zhou%NULL%0,           Francesco%Moroni%NULL%1,           Javid J.%Moslehi%NULL%0,           Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,           Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,           Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,           Maria Livia%Burzo%NULL%2,           Maria Livia%Burzo%NULL%0,           Michele%Santoro%NULL%1,           Mariella%Fuorlo%NULL%1,           Luca%Sabia%NULL%1,           Claudio%Sandroni%NULL%1,           Antonio%Gasbarrini%NULL%0,           Francesco%Franceschi%NULL%1,           Giovanni%Gambassi%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,           C%Nardin%NULL%1,           G L%Di Tanna%NULL%1,           U%Grossi%NULL%1,           E%Bernardi%NULL%1,           L%Scaldaferri%NULL%1,           M%Romagnoli%NULL%1,           L%Tonon%NULL%1,           P%Cavasin%NULL%1,           S%Novello%NULL%1,           R%Scarpa%NULL%1,           A%Farnia%NULL%1,           E%De Menis%NULL%1,           R%Rigoli%NULL%1,           F%Cinetto%NULL%1,           P%Pauletto%NULL%1,           C%Agostini%NULL%1,           M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,           Jiatian%Cao%NULL%1,           Yumeng%Yao%NULL%1,           Xuejuan%Jin%NULL%1,           Zhe%Luo%NULL%1,           Yuan%Xue%NULL%1,           Chouwen%Zhu%NULL%1,           Yanan%Song%NULL%1,           Ying%Wang%NULL%0,           Yunzeng%Zou%NULL%1,           Juying%Qian%NULL%1,           Kaihuan%Yu%NULL%1,           Hui%Gong%NULL%1,           Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,           Kenneth W%Chow%NULL%1,           Jonathan%Vo%NULL%1,           Wei%Hou%NULL%0,           Haifang%Li%NULL%0,           Paul S%Richman%NULL%1,           Sandeep K%Mallipattu%NULL%1,           Hal A%Skopicki%NULL%1,           Adam J%Singer%NULL%1,           Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,           Yi%Liu%NULL%0,           Keliang%Chen%NULL%1,           Suying%Yan%NULL%1,           Xiangrong%Bai%NULL%1,           Juan%Li%947281063@qq.com%0,           Dong%Liu%ld2069@outlook.com%0,           Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Since the beginning of the coronavirus disease 2019 (COVID-19) outbreak initiated on the Diamond Princess Cruise Ship at Yokohama harbor in February 2020, we have been doing our best to treat COVID-19 patients.
+ In animal experiments, angiotensin converting enzyme inhibitors (ACEIs) and angiotensin II type-1 receptor blockers (ARBs) are reported to suppress the downregulation of angiotensin converting enzyme 2 (ACE2), and they may inhibit the worsening of pathological conditions.
+ We aimed to examine whether preceding use of ACEIs and ARBs affected the clinical manifestations and prognosis of COVID-19 patients.
+ One hundred fifty-one consecutive patients (mean age 60 ± 19 years) with polymerase-chain-reaction proven severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection who were admitted to six hospitals in Kanagawa Prefecture, Japan, were analyzed in this multicenter retrospective observational study.
+ Among all COVID-19 patients, in the multiple regression analysis, older age (age ≥ 65 years) was significantly associated with the primary composite outcome (odds ratio (OR) 6.63, 95% confidence interval (CI) 2.28–22.78, P &amp;lt; 0.001), which consisted of (i) in-hospital death, (ii) extracorporeal membrane oxygenation, (iii) mechanical ventilation, including invasive and noninvasive methods, and (iv) admission to the intensive care unit.
+ In COVID-19 patients with hypertension, preceding ACEI/ARB use was significantly associated with a lower occurrence of new-onset or worsening mental confusion (OR 0.06, 95% CI 0.002–0.69, P = 0.02), which was defined by the confusion criterion, which included mild disorientation or hallucination with an estimation of medical history of mental status, after adjustment for age, sex, and diabetes.
+ In conclusion, older age was a significant contributor to a worse prognosis in COVID-19 patients, and ACEIs/ARBs could be beneficial for the prevention of confusion in COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,  Hisao%Ogawa%null%0,  Kazuo%Kimura%null%0,  Masaaki%Konishi%null%0,  Jin%Kirigaya%null%0,  Kazuki%Fukui%null%0,  Kengo%Tsukahara%null%0,  Hiroyuki%Shimizu%null%0,  Keisuke%Iwabuchi%null%0,  Yu%Yamada%null%0,  Kenichiro%Saka%null%0,  Ichiro%Takeuchi%null%0,  Toshio%Hirano%null%0,  Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,           Guohui%Xiao%NULL%1,           Juanjuan%Zhang%NULL%1,           Xing%He%NULL%1,           Min%Ou%NULL%1,           Jing%Bi%NULL%1,           Rongqing%Yang%NULL%1,           Wencheng%Di%NULL%1,           Zhaoqin%Wang%NULL%1,           Zigang%Li%NULL%1,           Hong%Gao%NULL%0,           Lei%Liu%NULL%0,           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ultrasound stimulation is an emerging noninvasive option in treating neuropsychiatric disorders.
+ The present study investigates the behavioral alterations resulting from ultrasound stimulation on the nucleus accumbens (NAc) in freely moving mice.
+ Our results show that an acute ultrasound stimulation on the NAc, rather than the visual cortex or auditory cortex, led to a pronounced avoidance behavior, while repeated NAc ultrasound stimulation resulted in an obvious conditioned place aversion with changes in synaptic protein (GluA1/2 subunit) expression.
+ Notably, NAc ultrasound stimulation suppressed the morphine-induced conditioned place preference.
+ The results provide evidence that NAc ultrasound stimulation can be applied as a potential noninvasive therapeutic option in treating psychiatric disorders.
+</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%0,  Yanchen%Guo%null%1,  Zhengrong%Lin%null%1,  Zhe%Shi%null%1,  Tianyuan%Bian%null%1,  Lin%Qi%null%1,  Long%Meng%null%1,  Anthony A.%Grace%null%1,  Hairong%Zheng%null%1,  Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,    Jishou%Zhang%xref no email%0,    Menglong%Wang%xref no email%0,    Jing%Ye%xref no email%0,    Yao%Xu%xref no email%0,    Bo%Shen%xref no email%0,    Hua%He%xref no email%0,    Zhen%Wang%xref no email%0,    Di%Ye%xref no email%0,    Mengmeng%Zhao%xref no email%0,    Zhen%Luo%xref no email%0,    Mingxiao%Liu%xref no email%0,    Pingan%Zhang%xref no email%0,    Jian%Gu%xref no email%0,    Menglin%Liu%xref no email%0,    Dan%Li%xref no email%0,    Jianfang%Liu%xref no email%0,    Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,           Paolo%Maggi%NULL%2,           Paolo%Maggi%NULL%0,           Vincenzo%Messina%NULL%1,           Pasquale%Iuliano%NULL%2,           Pasquale%Iuliano%NULL%0,           Antonio%Sardu%NULL%1,           Vincenzo%Iovinella%NULL%1,           Giuseppe%Paolisso%NULL%1,           Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,          Li%J%coreGivesNoEmail%1,          Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,           Rasimcan%Meral%NULL%1,           Alpay%Medetalibeyoğlu%NULL%1,           Hilal%Konyaoğlu%NULL%1,           Murat%Köse%NULL%1,           Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,    Jeongkuk%Seo%xref no email%1,    Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,           Dewei%Zhang%NULL%1,           Shengming%Wang%NULL%1,           Yanhua%Jin%NULL%1,           Jianbo%Huan%NULL%1,           Yue%Wu%NULL%0,           Cheng%Xia%NULL%1,           Zhe%Li%NULL%1,           Xingshun%Qi%NULL%1,           Duanzhen%Zhang%NULL%1,           Xiumin%Han%NULL%1,           Xianyang%Zhu%NULL%1,           Ying%Qu%NULL%1,           Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,           Songmei%Wang%NULL%1,           Lorenz%von Seidlein%NULL%1,           Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,    Zihu%Tan%xref no email%0,    Ling%Zhou%xref no email%0,    Min%Yang%xref no email%0,    Lang%Peng%xref no email%0,    Jinjin%Liu%xref no email%0,    Jingling%Cai%xref no email%0,    Ru%Yang%xref no email%0,    Junyan%Han%xref no email%0,    Yafei%Huang%xref no email%0,    Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,           Dan%Liu%NULL%0,           Shaoqing%Zeng%NULL%1,           Siyuan%Wang%NULL%1,           Sen%Xu%NULL%0,           Ya%Wang%NULL%0,           Ruidi%Yu%NULL%1,           Yue%Gao%NULL%0,           Huayi%Li%NULL%1,           Xinxia%Feng%NULL%1,           Ning%Zhou%NULL%0,           Chunxia%Zhao%NULL%1,           Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,           Lihua%Zhu%NULL%0,           Jingjing%Cai%NULL%0,           Fang%Lei%NULL%0,           Juan-Juan%Qin%NULL%0,           Jing%Xie%NULL%2,           Ye-Mao%Liu%NULL%0,           Yan-Ci%Zhao%NULL%1,           Xuewei%Huang%NULL%0,           Lijin%Lin%NULL%0,           Meng%Xia%NULL%0,           Ming-Ming%Chen%NULL%0,           Xu%Cheng%NULL%1,           Xiao%Zhang%NULL%0,           Deliang%Guo%NULL%1,           Yuanyuan%Peng%NULL%1,           Yan-Xiao%Ji%NULL%0,           Jing%Chen%NULL%0,           Zhi-Gang%She%NULL%0,           Yibin%Wang%NULL%0,           Qingbo%Xu%NULL%0,           Renfu%Tan%NULL%1,           Haitao%Wang%NULL%1,           Jun%Lin%NULL%2,           Pengcheng%Luo%NULL%1,           Shouzhi%Fu%NULL%0,           Hongbin%Cai%NULL%1,           Ping%Ye%NULL%0,           Bing%Xiao%NULL%1,           Weiming%Mao%NULL%0,           Liming%Liu%NULL%1,           Youqin%Yan%NULL%2,           Mingyu%Liu%NULL%1,           Manhua%Chen%NULL%1,           Xiao-Jing%Zhang%NULL%0,           Xinghuan%Wang%NULL%0,           Rhian M.%Touyz%NULL%1,           Jiahong%Xia%NULL%0,           Bing-Hong%Zhang%NULL%0,           Xiaodong%Huang%NULL%0,           Yufeng%Yuan%NULL%0,           Rohit%Loomba%NULL%1,           Peter P.%Liu%NULL%1,           Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,           Jingkang%Zhu%NULL%1,           Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1551,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1425,7 +1583,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1454,7 +1612,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1483,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1512,7 +1670,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1541,7 +1699,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1570,7 +1728,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1596,10 +1754,10 @@
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1628,7 +1786,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1654,10 +1812,10 @@
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1686,7 +1844,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1715,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1744,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1773,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1802,7 +1960,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1831,7 +1989,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1860,7 +2018,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -1889,7 +2047,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1918,7 +2076,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1947,7 +2105,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -1976,7 +2134,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="365">
   <si>
     <t>Doi</t>
   </si>
@@ -1221,6 +1221,120 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,           Jingkang%Zhu%NULL%1,           Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,            Feng%Wang%NULL%0,            Peng%Chen%NULL%1,            Jiangang%Jiang%NULL%0,            Guanglin%Cui%NULL%1,            Ning%Zhou%NULL%0,            Francesco%Moroni%NULL%1,            Javid J.%Moslehi%NULL%0,            Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,            Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,            Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,            Maria Livia%Burzo%NULL%2,            Maria Livia%Burzo%NULL%0,            Michele%Santoro%NULL%1,            Mariella%Fuorlo%NULL%1,            Luca%Sabia%NULL%1,            Claudio%Sandroni%NULL%1,            Antonio%Gasbarrini%NULL%0,            Francesco%Franceschi%NULL%1,            Giovanni%Gambassi%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,            C%Nardin%NULL%1,            G L%Di Tanna%NULL%1,            U%Grossi%NULL%1,            E%Bernardi%NULL%1,            L%Scaldaferri%NULL%1,            M%Romagnoli%NULL%1,            L%Tonon%NULL%1,            P%Cavasin%NULL%1,            S%Novello%NULL%1,            R%Scarpa%NULL%1,            A%Farnia%NULL%1,            E%De Menis%NULL%1,            R%Rigoli%NULL%1,            F%Cinetto%NULL%1,            P%Pauletto%NULL%1,            C%Agostini%NULL%1,            M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,            Jiatian%Cao%NULL%1,            Yumeng%Yao%NULL%1,            Xuejuan%Jin%NULL%1,            Zhe%Luo%NULL%1,            Yuan%Xue%NULL%1,            Chouwen%Zhu%NULL%1,            Yanan%Song%NULL%1,            Ying%Wang%NULL%0,            Yunzeng%Zou%NULL%1,            Juying%Qian%NULL%1,            Kaihuan%Yu%NULL%1,            Hui%Gong%NULL%1,            Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,            Kenneth W%Chow%NULL%1,            Jonathan%Vo%NULL%1,            Wei%Hou%NULL%0,            Haifang%Li%NULL%0,            Paul S%Richman%NULL%1,            Sandeep K%Mallipattu%NULL%1,            Hal A%Skopicki%NULL%1,            Adam J%Singer%NULL%1,            Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,            Yi%Liu%NULL%0,            Keliang%Chen%NULL%1,            Suying%Yan%NULL%1,            Xiangrong%Bai%NULL%1,            Juan%Li%947281063@qq.com%0,            Dong%Liu%ld2069@outlook.com%0,            Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,   Hisao%Ogawa%null%0,   Kazuo%Kimura%null%0,   Masaaki%Konishi%null%0,   Jin%Kirigaya%null%0,   Kazuki%Fukui%null%0,   Kengo%Tsukahara%null%0,   Hiroyuki%Shimizu%null%0,   Keisuke%Iwabuchi%null%0,   Yu%Yamada%null%0,   Kenichiro%Saka%null%0,   Ichiro%Takeuchi%null%0,   Toshio%Hirano%null%0,   Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,            Guohui%Xiao%NULL%1,            Juanjuan%Zhang%NULL%1,            Xing%He%NULL%1,            Min%Ou%NULL%1,            Jing%Bi%NULL%1,            Rongqing%Yang%NULL%1,            Wencheng%Di%NULL%1,            Zhaoqin%Wang%NULL%1,            Zigang%Li%NULL%1,            Hong%Gao%NULL%0,            Lei%Liu%NULL%0,            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,     Jishou%Zhang%xref no email%0,     Menglong%Wang%xref no email%0,     Jing%Ye%xref no email%0,     Yao%Xu%xref no email%0,     Bo%Shen%xref no email%0,     Hua%He%xref no email%0,     Zhen%Wang%xref no email%0,     Di%Ye%xref no email%0,     Mengmeng%Zhao%xref no email%0,     Zhen%Luo%xref no email%0,     Mingxiao%Liu%xref no email%0,     Pingan%Zhang%xref no email%0,     Jian%Gu%xref no email%0,     Menglin%Liu%xref no email%0,     Dan%Li%xref no email%0,     Jianfang%Liu%xref no email%0,     Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,            Paolo%Maggi%NULL%2,            Paolo%Maggi%NULL%0,            Vincenzo%Messina%NULL%1,            Pasquale%Iuliano%NULL%2,            Pasquale%Iuliano%NULL%0,            Antonio%Sardu%NULL%1,            Vincenzo%Iovinella%NULL%1,            Giuseppe%Paolisso%NULL%1,            Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,           Li%J%coreGivesNoEmail%1,           Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,            Rasimcan%Meral%NULL%1,            Alpay%Medetalibeyoğlu%NULL%1,            Hilal%Konyaoğlu%NULL%1,            Murat%Köse%NULL%1,            Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,     Jeongkuk%Seo%xref no email%1,     Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,            Dewei%Zhang%NULL%1,            Shengming%Wang%NULL%1,            Yanhua%Jin%NULL%1,            Jianbo%Huan%NULL%1,            Yue%Wu%NULL%0,            Cheng%Xia%NULL%1,            Zhe%Li%NULL%1,            Xingshun%Qi%NULL%1,            Duanzhen%Zhang%NULL%1,            Xiumin%Han%NULL%1,            Xianyang%Zhu%NULL%1,            Ying%Qu%NULL%1,            Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,            Songmei%Wang%NULL%1,            Lorenz%von Seidlein%NULL%1,            Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,     Zihu%Tan%xref no email%0,     Ling%Zhou%xref no email%0,     Min%Yang%xref no email%0,     Lang%Peng%xref no email%0,     Jinjin%Liu%xref no email%0,     Jingling%Cai%xref no email%0,     Ru%Yang%xref no email%0,     Junyan%Han%xref no email%0,     Yafei%Huang%xref no email%0,     Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,            Dan%Liu%NULL%0,            Shaoqing%Zeng%NULL%1,            Siyuan%Wang%NULL%1,            Sen%Xu%NULL%0,            Ya%Wang%NULL%0,            Ruidi%Yu%NULL%1,            Yue%Gao%NULL%0,            Huayi%Li%NULL%1,            Xinxia%Feng%NULL%1,            Ning%Zhou%NULL%0,            Chunxia%Zhao%NULL%1,            Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,            Lihua%Zhu%NULL%0,            Jingjing%Cai%NULL%0,            Fang%Lei%NULL%0,            Juan-Juan%Qin%NULL%0,            Jing%Xie%NULL%2,            Ye-Mao%Liu%NULL%0,            Yan-Ci%Zhao%NULL%1,            Xuewei%Huang%NULL%0,            Lijin%Lin%NULL%0,            Meng%Xia%NULL%0,            Ming-Ming%Chen%NULL%0,            Xu%Cheng%NULL%1,            Xiao%Zhang%NULL%0,            Deliang%Guo%NULL%1,            Yuanyuan%Peng%NULL%1,            Yan-Xiao%Ji%NULL%0,            Jing%Chen%NULL%0,            Zhi-Gang%She%NULL%0,            Yibin%Wang%NULL%0,            Qingbo%Xu%NULL%0,            Renfu%Tan%NULL%1,            Haitao%Wang%NULL%1,            Jun%Lin%NULL%2,            Pengcheng%Luo%NULL%1,            Shouzhi%Fu%NULL%0,            Hongbin%Cai%NULL%1,            Ping%Ye%NULL%0,            Bing%Xiao%NULL%1,            Weiming%Mao%NULL%0,            Liming%Liu%NULL%1,            Youqin%Yan%NULL%2,            Mingyu%Liu%NULL%1,            Manhua%Chen%NULL%1,            Xiao-Jing%Zhang%NULL%0,            Xinghuan%Wang%NULL%0,            Rhian M.%Touyz%NULL%1,            Jiahong%Xia%NULL%0,            Bing-Hong%Zhang%NULL%0,            Xiaodong%Huang%NULL%0,            Yufeng%Yuan%NULL%0,            Rohit%Loomba%NULL%1,            Peter P.%Liu%NULL%1,            Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,            Jingkang%Zhu%NULL%1,            Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,             Feng%Wang%NULL%0,             Peng%Chen%NULL%1,             Jiangang%Jiang%NULL%0,             Guanglin%Cui%NULL%1,             Ning%Zhou%NULL%0,             Francesco%Moroni%NULL%1,             Javid J.%Moslehi%NULL%0,             Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,             Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,             Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,             Maria Livia%Burzo%NULL%2,             Maria Livia%Burzo%NULL%0,             Michele%Santoro%NULL%1,             Mariella%Fuorlo%NULL%1,             Luca%Sabia%NULL%1,             Claudio%Sandroni%NULL%1,             Antonio%Gasbarrini%NULL%0,             Francesco%Franceschi%NULL%1,             Giovanni%Gambassi%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,             C%Nardin%NULL%1,             G L%Di Tanna%NULL%1,             U%Grossi%NULL%1,             E%Bernardi%NULL%1,             L%Scaldaferri%NULL%1,             M%Romagnoli%NULL%1,             L%Tonon%NULL%1,             P%Cavasin%NULL%1,             S%Novello%NULL%1,             R%Scarpa%NULL%1,             A%Farnia%NULL%1,             E%De Menis%NULL%1,             R%Rigoli%NULL%1,             F%Cinetto%NULL%1,             P%Pauletto%NULL%1,             C%Agostini%NULL%1,             M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,             Jiatian%Cao%NULL%1,             Yumeng%Yao%NULL%1,             Xuejuan%Jin%NULL%1,             Zhe%Luo%NULL%1,             Yuan%Xue%NULL%1,             Chouwen%Zhu%NULL%1,             Yanan%Song%NULL%1,             Ying%Wang%NULL%0,             Yunzeng%Zou%NULL%1,             Juying%Qian%NULL%1,             Kaihuan%Yu%NULL%1,             Hui%Gong%NULL%1,             Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,             Kenneth W%Chow%NULL%1,             Jonathan%Vo%NULL%1,             Wei%Hou%NULL%0,             Haifang%Li%NULL%0,             Paul S%Richman%NULL%1,             Sandeep K%Mallipattu%NULL%1,             Hal A%Skopicki%NULL%1,             Adam J%Singer%NULL%1,             Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,             Yi%Liu%NULL%0,             Keliang%Chen%NULL%1,             Suying%Yan%NULL%1,             Xiangrong%Bai%NULL%1,             Juan%Li%947281063@qq.com%0,             Dong%Liu%ld2069@outlook.com%0,             Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,    Hisao%Ogawa%null%0,    Kazuo%Kimura%null%0,    Masaaki%Konishi%null%0,    Jin%Kirigaya%null%0,    Kazuki%Fukui%null%0,    Kengo%Tsukahara%null%0,    Hiroyuki%Shimizu%null%0,    Keisuke%Iwabuchi%null%0,    Yu%Yamada%null%0,    Kenichiro%Saka%null%0,    Ichiro%Takeuchi%null%0,    Toshio%Hirano%null%0,    Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,             Guohui%Xiao%NULL%1,             Juanjuan%Zhang%NULL%1,             Xing%He%NULL%1,             Min%Ou%NULL%1,             Jing%Bi%NULL%1,             Rongqing%Yang%NULL%1,             Wencheng%Di%NULL%1,             Zhaoqin%Wang%NULL%1,             Zigang%Li%NULL%1,             Hong%Gao%NULL%0,             Lei%Liu%NULL%0,             Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,      Jishou%Zhang%xref no email%0,      Menglong%Wang%xref no email%0,      Jing%Ye%xref no email%0,      Yao%Xu%xref no email%0,      Bo%Shen%xref no email%0,      Hua%He%xref no email%0,      Zhen%Wang%xref no email%0,      Di%Ye%xref no email%0,      Mengmeng%Zhao%xref no email%0,      Zhen%Luo%xref no email%0,      Mingxiao%Liu%xref no email%0,      Pingan%Zhang%xref no email%0,      Jian%Gu%xref no email%0,      Menglin%Liu%xref no email%0,      Dan%Li%xref no email%0,      Jianfang%Liu%xref no email%0,      Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,             Paolo%Maggi%NULL%2,             Paolo%Maggi%NULL%0,             Vincenzo%Messina%NULL%1,             Pasquale%Iuliano%NULL%2,             Pasquale%Iuliano%NULL%0,             Antonio%Sardu%NULL%1,             Vincenzo%Iovinella%NULL%1,             Giuseppe%Paolisso%NULL%1,             Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,            Li%J%coreGivesNoEmail%1,            Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,             Rasimcan%Meral%NULL%1,             Alpay%Medetalibeyoğlu%NULL%1,             Hilal%Konyaoğlu%NULL%1,             Murat%Köse%NULL%1,             Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,      Jeongkuk%Seo%xref no email%1,      Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,             Dewei%Zhang%NULL%1,             Shengming%Wang%NULL%1,             Yanhua%Jin%NULL%1,             Jianbo%Huan%NULL%1,             Yue%Wu%NULL%0,             Cheng%Xia%NULL%1,             Zhe%Li%NULL%1,             Xingshun%Qi%NULL%1,             Duanzhen%Zhang%NULL%1,             Xiumin%Han%NULL%1,             Xianyang%Zhu%NULL%1,             Ying%Qu%NULL%1,             Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,             Songmei%Wang%NULL%1,             Lorenz%von Seidlein%NULL%1,             Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,      Zihu%Tan%xref no email%0,      Ling%Zhou%xref no email%0,      Min%Yang%xref no email%0,      Lang%Peng%xref no email%0,      Jinjin%Liu%xref no email%0,      Jingling%Cai%xref no email%0,      Ru%Yang%xref no email%0,      Junyan%Han%xref no email%0,      Yafei%Huang%xref no email%0,      Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,             Dan%Liu%NULL%0,             Shaoqing%Zeng%NULL%1,             Siyuan%Wang%NULL%1,             Sen%Xu%NULL%0,             Ya%Wang%NULL%0,             Ruidi%Yu%NULL%1,             Yue%Gao%NULL%0,             Huayi%Li%NULL%1,             Xinxia%Feng%NULL%1,             Ning%Zhou%NULL%0,             Chunxia%Zhao%NULL%1,             Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,             Lihua%Zhu%NULL%0,             Jingjing%Cai%NULL%0,             Fang%Lei%NULL%0,             Juan-Juan%Qin%NULL%0,             Jing%Xie%NULL%2,             Ye-Mao%Liu%NULL%0,             Yan-Ci%Zhao%NULL%1,             Xuewei%Huang%NULL%0,             Lijin%Lin%NULL%0,             Meng%Xia%NULL%0,             Ming-Ming%Chen%NULL%0,             Xu%Cheng%NULL%1,             Xiao%Zhang%NULL%0,             Deliang%Guo%NULL%1,             Yuanyuan%Peng%NULL%1,             Yan-Xiao%Ji%NULL%0,             Jing%Chen%NULL%0,             Zhi-Gang%She%NULL%0,             Yibin%Wang%NULL%0,             Qingbo%Xu%NULL%0,             Renfu%Tan%NULL%1,             Haitao%Wang%NULL%1,             Jun%Lin%NULL%2,             Pengcheng%Luo%NULL%1,             Shouzhi%Fu%NULL%0,             Hongbin%Cai%NULL%1,             Ping%Ye%NULL%0,             Bing%Xiao%NULL%1,             Weiming%Mao%NULL%0,             Liming%Liu%NULL%1,             Youqin%Yan%NULL%2,             Mingyu%Liu%NULL%1,             Manhua%Chen%NULL%1,             Xiao-Jing%Zhang%NULL%0,             Xinghuan%Wang%NULL%0,             Rhian M.%Touyz%NULL%1,             Jiahong%Xia%NULL%0,             Bing-Hong%Zhang%NULL%0,             Xiaodong%Huang%NULL%0,             Yufeng%Yuan%NULL%0,             Rohit%Loomba%NULL%1,             Peter P.%Liu%NULL%1,             Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,             Jingkang%Zhu%NULL%1,             Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1668,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1583,7 +1697,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1612,7 +1726,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1641,7 +1755,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1670,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1699,7 +1813,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1728,7 +1842,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1757,7 +1871,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1786,7 +1900,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1815,7 +1929,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1844,7 +1958,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1873,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1902,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1931,7 +2045,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1960,7 +2074,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1989,7 +2103,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2018,7 +2132,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2047,7 +2161,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2076,7 +2190,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2105,7 +2219,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2134,7 +2248,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="386">
   <si>
     <t>Doi</t>
   </si>
@@ -1335,6 +1335,69 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,             Jingkang%Zhu%NULL%1,             Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,     F.%Santilli%null%1,     M. T.%Guagnano%null%1,     M.%Bucci%null%1,     F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,              Feng%Wang%NULL%0,              Peng%Chen%NULL%1,              Jiangang%Jiang%NULL%0,              Guanglin%Cui%NULL%1,              Ning%Zhou%NULL%0,              Francesco%Moroni%NULL%1,              Javid J.%Moslehi%NULL%0,              Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,              Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,              Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,              Maria Livia%Burzo%NULL%2,              Maria Livia%Burzo%NULL%0,              Michele%Santoro%NULL%1,              Mariella%Fuorlo%NULL%1,              Luca%Sabia%NULL%1,              Claudio%Sandroni%NULL%1,              Antonio%Gasbarrini%NULL%0,              Francesco%Franceschi%NULL%1,              Giovanni%Gambassi%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,              C%Nardin%NULL%1,              G L%Di Tanna%NULL%1,              U%Grossi%NULL%1,              E%Bernardi%NULL%1,              L%Scaldaferri%NULL%1,              M%Romagnoli%NULL%1,              L%Tonon%NULL%1,              P%Cavasin%NULL%1,              S%Novello%NULL%1,              R%Scarpa%NULL%1,              A%Farnia%NULL%1,              E%De Menis%NULL%1,              R%Rigoli%NULL%1,              F%Cinetto%NULL%1,              P%Pauletto%NULL%1,              C%Agostini%NULL%1,              M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,              Jiatian%Cao%NULL%1,              Yumeng%Yao%NULL%1,              Xuejuan%Jin%NULL%1,              Zhe%Luo%NULL%1,              Yuan%Xue%NULL%1,              Chouwen%Zhu%NULL%1,              Yanan%Song%NULL%1,              Ying%Wang%NULL%0,              Yunzeng%Zou%NULL%1,              Juying%Qian%NULL%1,              Kaihuan%Yu%NULL%1,              Hui%Gong%NULL%1,              Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,              Kenneth W%Chow%NULL%1,              Jonathan%Vo%NULL%1,              Wei%Hou%NULL%0,              Haifang%Li%NULL%0,              Paul S%Richman%NULL%1,              Sandeep K%Mallipattu%NULL%1,              Hal A%Skopicki%NULL%1,              Adam J%Singer%NULL%1,              Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,              Yi%Liu%NULL%0,              Keliang%Chen%NULL%1,              Suying%Yan%NULL%1,              Xiangrong%Bai%NULL%1,              Juan%Li%947281063@qq.com%0,              Dong%Liu%ld2069@outlook.com%0,              Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,     Hisao%Ogawa%null%0,     Kazuo%Kimura%null%0,     Masaaki%Konishi%null%0,     Jin%Kirigaya%null%0,     Kazuki%Fukui%null%0,     Kengo%Tsukahara%null%0,     Hiroyuki%Shimizu%null%0,     Keisuke%Iwabuchi%null%0,     Yu%Yamada%null%0,     Kenichiro%Saka%null%0,     Ichiro%Takeuchi%null%0,     Toshio%Hirano%null%0,     Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,              Guohui%Xiao%NULL%1,              Juanjuan%Zhang%NULL%1,              Xing%He%NULL%1,              Min%Ou%NULL%1,              Jing%Bi%NULL%1,              Rongqing%Yang%NULL%1,              Wencheng%Di%NULL%1,              Zhaoqin%Wang%NULL%1,              Zigang%Li%NULL%1,              Hong%Gao%NULL%0,              Lei%Liu%NULL%0,              Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,     Yanchen%Guo%null%1,     Zhengrong%Lin%null%1,     Zhe%Shi%null%1,     Tianyuan%Bian%null%1,     Lin%Qi%null%1,     Long%Meng%null%1,     Anthony A.%Grace%null%1,     Hairong%Zheng%null%1,     Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,       Jishou%Zhang%xref no email%0,       Menglong%Wang%xref no email%0,       Jing%Ye%xref no email%0,       Yao%Xu%xref no email%0,       Bo%Shen%xref no email%0,       Hua%He%xref no email%0,       Zhen%Wang%xref no email%0,       Di%Ye%xref no email%0,       Mengmeng%Zhao%xref no email%0,       Zhen%Luo%xref no email%0,       Mingxiao%Liu%xref no email%0,       Pingan%Zhang%xref no email%0,       Jian%Gu%xref no email%0,       Menglin%Liu%xref no email%0,       Dan%Li%xref no email%0,       Jianfang%Liu%xref no email%0,       Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,              Paolo%Maggi%NULL%2,              Paolo%Maggi%NULL%0,              Vincenzo%Messina%NULL%1,              Pasquale%Iuliano%NULL%2,              Pasquale%Iuliano%NULL%0,              Antonio%Sardu%NULL%1,              Vincenzo%Iovinella%NULL%1,              Giuseppe%Paolisso%NULL%1,              Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,             Li%J%coreGivesNoEmail%1,             Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,              Rasimcan%Meral%NULL%1,              Alpay%Medetalibeyoğlu%NULL%1,              Hilal%Konyaoğlu%NULL%1,              Murat%Köse%NULL%1,              Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,       Jeongkuk%Seo%xref no email%1,       Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,              Dewei%Zhang%NULL%1,              Shengming%Wang%NULL%1,              Yanhua%Jin%NULL%1,              Jianbo%Huan%NULL%1,              Yue%Wu%NULL%0,              Cheng%Xia%NULL%1,              Zhe%Li%NULL%1,              Xingshun%Qi%NULL%1,              Duanzhen%Zhang%NULL%1,              Xiumin%Han%NULL%1,              Xianyang%Zhu%NULL%1,              Ying%Qu%NULL%1,              Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,              Songmei%Wang%NULL%1,              Lorenz%von Seidlein%NULL%1,              Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,       Zihu%Tan%xref no email%0,       Ling%Zhou%xref no email%0,       Min%Yang%xref no email%0,       Lang%Peng%xref no email%0,       Jinjin%Liu%xref no email%0,       Jingling%Cai%xref no email%0,       Ru%Yang%xref no email%0,       Junyan%Han%xref no email%0,       Yafei%Huang%xref no email%0,       Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,              Dan%Liu%NULL%0,              Shaoqing%Zeng%NULL%1,              Siyuan%Wang%NULL%1,              Sen%Xu%NULL%0,              Ya%Wang%NULL%0,              Ruidi%Yu%NULL%1,              Yue%Gao%NULL%0,              Huayi%Li%NULL%1,              Xinxia%Feng%NULL%1,              Ning%Zhou%NULL%0,              Chunxia%Zhao%NULL%1,              Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,              Lihua%Zhu%NULL%0,              Jingjing%Cai%NULL%0,              Fang%Lei%NULL%0,              Juan-Juan%Qin%NULL%0,              Jing%Xie%NULL%2,              Ye-Mao%Liu%NULL%0,              Yan-Ci%Zhao%NULL%1,              Xuewei%Huang%NULL%0,              Lijin%Lin%NULL%0,              Meng%Xia%NULL%0,              Ming-Ming%Chen%NULL%0,              Xu%Cheng%NULL%1,              Xiao%Zhang%NULL%0,              Deliang%Guo%NULL%1,              Yuanyuan%Peng%NULL%1,              Yan-Xiao%Ji%NULL%0,              Jing%Chen%NULL%0,              Zhi-Gang%She%NULL%0,              Yibin%Wang%NULL%0,              Qingbo%Xu%NULL%0,              Renfu%Tan%NULL%1,              Haitao%Wang%NULL%1,              Jun%Lin%NULL%2,              Pengcheng%Luo%NULL%1,              Shouzhi%Fu%NULL%0,              Hongbin%Cai%NULL%1,              Ping%Ye%NULL%0,              Bing%Xiao%NULL%1,              Weiming%Mao%NULL%0,              Liming%Liu%NULL%1,              Youqin%Yan%NULL%2,              Mingyu%Liu%NULL%1,              Manhua%Chen%NULL%1,              Xiao-Jing%Zhang%NULL%0,              Xinghuan%Wang%NULL%0,              Rhian M.%Touyz%NULL%1,              Jiahong%Xia%NULL%0,              Bing-Hong%Zhang%NULL%0,              Xiaodong%Huang%NULL%0,              Yufeng%Yuan%NULL%0,              Rohit%Loomba%NULL%1,              Peter P.%Liu%NULL%1,              Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,              Jingkang%Zhu%NULL%1,              Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1731,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1697,7 +1760,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1726,7 +1789,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1755,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1784,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1813,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1842,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1871,7 +1934,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1900,7 +1963,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1929,7 +1992,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1958,7 +2021,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1987,7 +2050,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2016,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2045,7 +2108,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2074,7 +2137,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2103,7 +2166,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2132,7 +2195,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2161,7 +2224,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2190,7 +2253,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2219,7 +2282,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2248,7 +2311,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1398,6 +1398,69 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,              Jingkang%Zhu%NULL%1,              Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,      F.%Santilli%null%1,      M. T.%Guagnano%null%1,      M.%Bucci%null%1,      F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,               Feng%Wang%NULL%0,               Peng%Chen%NULL%1,               Jiangang%Jiang%NULL%0,               Guanglin%Cui%NULL%1,               Ning%Zhou%NULL%0,               Francesco%Moroni%NULL%1,               Javid J.%Moslehi%NULL%0,               Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,               Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,               Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,               Maria Livia%Burzo%NULL%2,               Maria Livia%Burzo%NULL%0,               Michele%Santoro%NULL%1,               Mariella%Fuorlo%NULL%1,               Luca%Sabia%NULL%1,               Claudio%Sandroni%NULL%1,               Antonio%Gasbarrini%NULL%0,               Francesco%Franceschi%NULL%1,               Giovanni%Gambassi%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,               C%Nardin%NULL%1,               G L%Di Tanna%NULL%1,               U%Grossi%NULL%1,               E%Bernardi%NULL%1,               L%Scaldaferri%NULL%1,               M%Romagnoli%NULL%1,               L%Tonon%NULL%1,               P%Cavasin%NULL%1,               S%Novello%NULL%1,               R%Scarpa%NULL%1,               A%Farnia%NULL%1,               E%De Menis%NULL%1,               R%Rigoli%NULL%1,               F%Cinetto%NULL%1,               P%Pauletto%NULL%1,               C%Agostini%NULL%1,               M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,               Jiatian%Cao%NULL%1,               Yumeng%Yao%NULL%1,               Xuejuan%Jin%NULL%1,               Zhe%Luo%NULL%1,               Yuan%Xue%NULL%1,               Chouwen%Zhu%NULL%1,               Yanan%Song%NULL%1,               Ying%Wang%NULL%0,               Yunzeng%Zou%NULL%1,               Juying%Qian%NULL%1,               Kaihuan%Yu%NULL%1,               Hui%Gong%NULL%1,               Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,               Kenneth W%Chow%NULL%1,               Jonathan%Vo%NULL%1,               Wei%Hou%NULL%0,               Haifang%Li%NULL%0,               Paul S%Richman%NULL%1,               Sandeep K%Mallipattu%NULL%1,               Hal A%Skopicki%NULL%1,               Adam J%Singer%NULL%1,               Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,               Yi%Liu%NULL%0,               Keliang%Chen%NULL%1,               Suying%Yan%NULL%1,               Xiangrong%Bai%NULL%1,               Juan%Li%947281063@qq.com%0,               Dong%Liu%ld2069@outlook.com%0,               Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,      Hisao%Ogawa%null%0,      Kazuo%Kimura%null%0,      Masaaki%Konishi%null%0,      Jin%Kirigaya%null%0,      Kazuki%Fukui%null%0,      Kengo%Tsukahara%null%0,      Hiroyuki%Shimizu%null%0,      Keisuke%Iwabuchi%null%0,      Yu%Yamada%null%0,      Kenichiro%Saka%null%0,      Ichiro%Takeuchi%null%0,      Toshio%Hirano%null%0,      Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,               Guohui%Xiao%NULL%1,               Juanjuan%Zhang%NULL%1,               Xing%He%NULL%1,               Min%Ou%NULL%1,               Jing%Bi%NULL%1,               Rongqing%Yang%NULL%1,               Wencheng%Di%NULL%1,               Zhaoqin%Wang%NULL%1,               Zigang%Li%NULL%1,               Hong%Gao%NULL%0,               Lei%Liu%NULL%0,               Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,      Yanchen%Guo%null%1,      Zhengrong%Lin%null%1,      Zhe%Shi%null%1,      Tianyuan%Bian%null%1,      Lin%Qi%null%1,      Long%Meng%null%1,      Anthony A.%Grace%null%1,      Hairong%Zheng%null%1,      Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,        Jishou%Zhang%xref no email%0,        Menglong%Wang%xref no email%0,        Jing%Ye%xref no email%0,        Yao%Xu%xref no email%0,        Bo%Shen%xref no email%0,        Hua%He%xref no email%0,        Zhen%Wang%xref no email%0,        Di%Ye%xref no email%0,        Mengmeng%Zhao%xref no email%0,        Zhen%Luo%xref no email%0,        Mingxiao%Liu%xref no email%0,        Pingan%Zhang%xref no email%0,        Jian%Gu%xref no email%0,        Menglin%Liu%xref no email%0,        Dan%Li%xref no email%0,        Jianfang%Liu%xref no email%0,        Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,               Paolo%Maggi%NULL%2,               Paolo%Maggi%NULL%0,               Vincenzo%Messina%NULL%1,               Pasquale%Iuliano%NULL%2,               Pasquale%Iuliano%NULL%0,               Antonio%Sardu%NULL%1,               Vincenzo%Iovinella%NULL%1,               Giuseppe%Paolisso%NULL%1,               Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,              Li%J%coreGivesNoEmail%1,              Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,               Rasimcan%Meral%NULL%1,               Alpay%Medetalibeyoğlu%NULL%1,               Hilal%Konyaoğlu%NULL%1,               Murat%Köse%NULL%1,               Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,        Jeongkuk%Seo%xref no email%1,        Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,               Dewei%Zhang%NULL%1,               Shengming%Wang%NULL%1,               Yanhua%Jin%NULL%1,               Jianbo%Huan%NULL%1,               Yue%Wu%NULL%0,               Cheng%Xia%NULL%1,               Zhe%Li%NULL%1,               Xingshun%Qi%NULL%1,               Duanzhen%Zhang%NULL%1,               Xiumin%Han%NULL%1,               Xianyang%Zhu%NULL%1,               Ying%Qu%NULL%1,               Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,               Songmei%Wang%NULL%1,               Lorenz%von Seidlein%NULL%1,               Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,        Zihu%Tan%xref no email%0,        Ling%Zhou%xref no email%0,        Min%Yang%xref no email%0,        Lang%Peng%xref no email%0,        Jinjin%Liu%xref no email%0,        Jingling%Cai%xref no email%0,        Ru%Yang%xref no email%0,        Junyan%Han%xref no email%0,        Yafei%Huang%xref no email%0,        Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,               Dan%Liu%NULL%0,               Shaoqing%Zeng%NULL%1,               Siyuan%Wang%NULL%1,               Sen%Xu%NULL%0,               Ya%Wang%NULL%0,               Ruidi%Yu%NULL%1,               Yue%Gao%NULL%0,               Huayi%Li%NULL%1,               Xinxia%Feng%NULL%1,               Ning%Zhou%NULL%0,               Chunxia%Zhao%NULL%1,               Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,               Lihua%Zhu%NULL%0,               Jingjing%Cai%NULL%0,               Fang%Lei%NULL%0,               Juan-Juan%Qin%NULL%0,               Jing%Xie%NULL%2,               Ye-Mao%Liu%NULL%0,               Yan-Ci%Zhao%NULL%1,               Xuewei%Huang%NULL%0,               Lijin%Lin%NULL%0,               Meng%Xia%NULL%0,               Ming-Ming%Chen%NULL%0,               Xu%Cheng%NULL%1,               Xiao%Zhang%NULL%0,               Deliang%Guo%NULL%1,               Yuanyuan%Peng%NULL%1,               Yan-Xiao%Ji%NULL%0,               Jing%Chen%NULL%0,               Zhi-Gang%She%NULL%0,               Yibin%Wang%NULL%0,               Qingbo%Xu%NULL%0,               Renfu%Tan%NULL%1,               Haitao%Wang%NULL%1,               Jun%Lin%NULL%2,               Pengcheng%Luo%NULL%1,               Shouzhi%Fu%NULL%0,               Hongbin%Cai%NULL%1,               Ping%Ye%NULL%0,               Bing%Xiao%NULL%1,               Weiming%Mao%NULL%0,               Liming%Liu%NULL%1,               Youqin%Yan%NULL%2,               Mingyu%Liu%NULL%1,               Manhua%Chen%NULL%1,               Xiao-Jing%Zhang%NULL%0,               Xinghuan%Wang%NULL%0,               Rhian M.%Touyz%NULL%1,               Jiahong%Xia%NULL%0,               Bing-Hong%Zhang%NULL%0,               Xiaodong%Huang%NULL%0,               Yufeng%Yuan%NULL%0,               Rohit%Loomba%NULL%1,               Peter P.%Liu%NULL%1,               Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,               Jingkang%Zhu%NULL%1,               Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1794,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1760,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1789,7 +1852,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1818,7 +1881,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1847,7 +1910,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1876,7 +1939,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1905,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1934,7 +1997,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1963,7 +2026,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1992,7 +2055,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2021,7 +2084,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2050,7 +2113,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2079,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2108,7 +2171,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2137,7 +2200,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2166,7 +2229,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2195,7 +2258,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2224,7 +2287,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2253,7 +2316,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2282,7 +2345,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2311,7 +2374,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="449">
   <si>
     <t>Doi</t>
   </si>
@@ -1461,6 +1461,132 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,               Jingkang%Zhu%NULL%1,               Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,       F.%Santilli%null%1,       M. T.%Guagnano%null%1,       M.%Bucci%null%1,       F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                Feng%Wang%NULL%0,                Peng%Chen%NULL%1,                Jiangang%Jiang%NULL%0,                Guanglin%Cui%NULL%1,                Ning%Zhou%NULL%0,                Francesco%Moroni%NULL%1,                Javid J.%Moslehi%NULL%0,                Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                Maria Livia%Burzo%NULL%2,                Maria Livia%Burzo%NULL%0,                Michele%Santoro%NULL%1,                Mariella%Fuorlo%NULL%1,                Luca%Sabia%NULL%1,                Claudio%Sandroni%NULL%1,                Antonio%Gasbarrini%NULL%0,                Francesco%Franceschi%NULL%1,                Giovanni%Gambassi%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                C%Nardin%NULL%1,                G L%Di Tanna%NULL%1,                U%Grossi%NULL%1,                E%Bernardi%NULL%1,                L%Scaldaferri%NULL%1,                M%Romagnoli%NULL%1,                L%Tonon%NULL%1,                P%Cavasin%NULL%1,                S%Novello%NULL%1,                R%Scarpa%NULL%1,                A%Farnia%NULL%1,                E%De Menis%NULL%1,                R%Rigoli%NULL%1,                F%Cinetto%NULL%1,                P%Pauletto%NULL%1,                C%Agostini%NULL%1,                M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                Jiatian%Cao%NULL%1,                Yumeng%Yao%NULL%1,                Xuejuan%Jin%NULL%1,                Zhe%Luo%NULL%1,                Yuan%Xue%NULL%1,                Chouwen%Zhu%NULL%1,                Yanan%Song%NULL%1,                Ying%Wang%NULL%0,                Yunzeng%Zou%NULL%1,                Juying%Qian%NULL%1,                Kaihuan%Yu%NULL%1,                Hui%Gong%NULL%1,                Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                Kenneth W%Chow%NULL%1,                Jonathan%Vo%NULL%1,                Wei%Hou%NULL%0,                Haifang%Li%NULL%0,                Paul S%Richman%NULL%1,                Sandeep K%Mallipattu%NULL%1,                Hal A%Skopicki%NULL%1,                Adam J%Singer%NULL%1,                Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                Yi%Liu%NULL%0,                Keliang%Chen%NULL%1,                Suying%Yan%NULL%1,                Xiangrong%Bai%NULL%1,                Juan%Li%947281063@qq.com%0,                Dong%Liu%ld2069@outlook.com%0,                Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,       Hisao%Ogawa%null%0,       Kazuo%Kimura%null%0,       Masaaki%Konishi%null%0,       Jin%Kirigaya%null%0,       Kazuki%Fukui%null%0,       Kengo%Tsukahara%null%0,       Hiroyuki%Shimizu%null%0,       Keisuke%Iwabuchi%null%0,       Yu%Yamada%null%0,       Kenichiro%Saka%null%0,       Ichiro%Takeuchi%null%0,       Toshio%Hirano%null%0,       Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                Guohui%Xiao%NULL%1,                Juanjuan%Zhang%NULL%1,                Xing%He%NULL%1,                Min%Ou%NULL%1,                Jing%Bi%NULL%1,                Rongqing%Yang%NULL%1,                Wencheng%Di%NULL%1,                Zhaoqin%Wang%NULL%1,                Zigang%Li%NULL%1,                Hong%Gao%NULL%0,                Lei%Liu%NULL%0,                Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,       Yanchen%Guo%null%1,       Zhengrong%Lin%null%1,       Zhe%Shi%null%1,       Tianyuan%Bian%null%1,       Lin%Qi%null%1,       Long%Meng%null%1,       Anthony A.%Grace%null%1,       Hairong%Zheng%null%1,       Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,         Jishou%Zhang%xref no email%0,         Menglong%Wang%xref no email%0,         Jing%Ye%xref no email%0,         Yao%Xu%xref no email%0,         Bo%Shen%xref no email%0,         Hua%He%xref no email%0,         Zhen%Wang%xref no email%0,         Di%Ye%xref no email%0,         Mengmeng%Zhao%xref no email%0,         Zhen%Luo%xref no email%0,         Mingxiao%Liu%xref no email%0,         Pingan%Zhang%xref no email%0,         Jian%Gu%xref no email%0,         Menglin%Liu%xref no email%0,         Dan%Li%xref no email%0,         Jianfang%Liu%xref no email%0,         Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                Paolo%Maggi%NULL%2,                Paolo%Maggi%NULL%0,                Vincenzo%Messina%NULL%1,                Pasquale%Iuliano%NULL%2,                Pasquale%Iuliano%NULL%0,                Antonio%Sardu%NULL%1,                Vincenzo%Iovinella%NULL%1,                Giuseppe%Paolisso%NULL%1,                Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,               Li%J%coreGivesNoEmail%1,               Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                Rasimcan%Meral%NULL%1,                Alpay%Medetalibeyoğlu%NULL%1,                Hilal%Konyaoğlu%NULL%1,                Murat%Köse%NULL%1,                Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,         Jeongkuk%Seo%xref no email%1,         Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                Dewei%Zhang%NULL%1,                Shengming%Wang%NULL%1,                Yanhua%Jin%NULL%1,                Jianbo%Huan%NULL%1,                Yue%Wu%NULL%0,                Cheng%Xia%NULL%1,                Zhe%Li%NULL%1,                Xingshun%Qi%NULL%1,                Duanzhen%Zhang%NULL%1,                Xiumin%Han%NULL%1,                Xianyang%Zhu%NULL%1,                Ying%Qu%NULL%1,                Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                Songmei%Wang%NULL%1,                Lorenz%von Seidlein%NULL%1,                Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,         Zihu%Tan%xref no email%0,         Ling%Zhou%xref no email%0,         Min%Yang%xref no email%0,         Lang%Peng%xref no email%0,         Jinjin%Liu%xref no email%0,         Jingling%Cai%xref no email%0,         Ru%Yang%xref no email%0,         Junyan%Han%xref no email%0,         Yafei%Huang%xref no email%0,         Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                Dan%Liu%NULL%0,                Shaoqing%Zeng%NULL%1,                Siyuan%Wang%NULL%1,                Sen%Xu%NULL%0,                Ya%Wang%NULL%0,                Ruidi%Yu%NULL%1,                Yue%Gao%NULL%0,                Huayi%Li%NULL%1,                Xinxia%Feng%NULL%1,                Ning%Zhou%NULL%0,                Chunxia%Zhao%NULL%1,                Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                Lihua%Zhu%NULL%0,                Jingjing%Cai%NULL%0,                Fang%Lei%NULL%0,                Juan-Juan%Qin%NULL%0,                Jing%Xie%NULL%2,                Ye-Mao%Liu%NULL%0,                Yan-Ci%Zhao%NULL%1,                Xuewei%Huang%NULL%0,                Lijin%Lin%NULL%0,                Meng%Xia%NULL%0,                Ming-Ming%Chen%NULL%0,                Xu%Cheng%NULL%1,                Xiao%Zhang%NULL%0,                Deliang%Guo%NULL%1,                Yuanyuan%Peng%NULL%1,                Yan-Xiao%Ji%NULL%0,                Jing%Chen%NULL%0,                Zhi-Gang%She%NULL%0,                Yibin%Wang%NULL%0,                Qingbo%Xu%NULL%0,                Renfu%Tan%NULL%1,                Haitao%Wang%NULL%1,                Jun%Lin%NULL%2,                Pengcheng%Luo%NULL%1,                Shouzhi%Fu%NULL%0,                Hongbin%Cai%NULL%1,                Ping%Ye%NULL%0,                Bing%Xiao%NULL%1,                Weiming%Mao%NULL%0,                Liming%Liu%NULL%1,                Youqin%Yan%NULL%2,                Mingyu%Liu%NULL%1,                Manhua%Chen%NULL%1,                Xiao-Jing%Zhang%NULL%0,                Xinghuan%Wang%NULL%0,                Rhian M.%Touyz%NULL%1,                Jiahong%Xia%NULL%0,                Bing-Hong%Zhang%NULL%0,                Xiaodong%Huang%NULL%0,                Yufeng%Yuan%NULL%0,                Rohit%Loomba%NULL%1,                Peter P.%Liu%NULL%1,                Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                Jingkang%Zhu%NULL%1,                Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,        F.%Santilli%null%1,        M. T.%Guagnano%null%1,        M.%Bucci%null%1,        F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                 Feng%Wang%NULL%0,                 Peng%Chen%NULL%1,                 Jiangang%Jiang%NULL%0,                 Guanglin%Cui%NULL%1,                 Ning%Zhou%NULL%0,                 Francesco%Moroni%NULL%1,                 Javid J.%Moslehi%NULL%0,                 Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                 Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                 Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                 Maria Livia%Burzo%NULL%2,                 Maria Livia%Burzo%NULL%0,                 Michele%Santoro%NULL%1,                 Mariella%Fuorlo%NULL%1,                 Luca%Sabia%NULL%1,                 Claudio%Sandroni%NULL%1,                 Antonio%Gasbarrini%NULL%0,                 Francesco%Franceschi%NULL%1,                 Giovanni%Gambassi%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                 C%Nardin%NULL%1,                 G L%Di Tanna%NULL%1,                 U%Grossi%NULL%1,                 E%Bernardi%NULL%1,                 L%Scaldaferri%NULL%1,                 M%Romagnoli%NULL%1,                 L%Tonon%NULL%1,                 P%Cavasin%NULL%1,                 S%Novello%NULL%1,                 R%Scarpa%NULL%1,                 A%Farnia%NULL%1,                 E%De Menis%NULL%1,                 R%Rigoli%NULL%1,                 F%Cinetto%NULL%1,                 P%Pauletto%NULL%1,                 C%Agostini%NULL%1,                 M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                 Jiatian%Cao%NULL%1,                 Yumeng%Yao%NULL%1,                 Xuejuan%Jin%NULL%1,                 Zhe%Luo%NULL%1,                 Yuan%Xue%NULL%1,                 Chouwen%Zhu%NULL%1,                 Yanan%Song%NULL%1,                 Ying%Wang%NULL%0,                 Yunzeng%Zou%NULL%1,                 Juying%Qian%NULL%1,                 Kaihuan%Yu%NULL%1,                 Hui%Gong%NULL%1,                 Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                 Kenneth W%Chow%NULL%1,                 Jonathan%Vo%NULL%1,                 Wei%Hou%NULL%0,                 Haifang%Li%NULL%0,                 Paul S%Richman%NULL%1,                 Sandeep K%Mallipattu%NULL%1,                 Hal A%Skopicki%NULL%1,                 Adam J%Singer%NULL%1,                 Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                 Yi%Liu%NULL%0,                 Keliang%Chen%NULL%1,                 Suying%Yan%NULL%1,                 Xiangrong%Bai%NULL%1,                 Juan%Li%947281063@qq.com%0,                 Dong%Liu%ld2069@outlook.com%0,                 Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,        Hisao%Ogawa%null%0,        Kazuo%Kimura%null%0,        Masaaki%Konishi%null%0,        Jin%Kirigaya%null%0,        Kazuki%Fukui%null%0,        Kengo%Tsukahara%null%0,        Hiroyuki%Shimizu%null%0,        Keisuke%Iwabuchi%null%0,        Yu%Yamada%null%0,        Kenichiro%Saka%null%0,        Ichiro%Takeuchi%null%0,        Toshio%Hirano%null%0,        Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                 Guohui%Xiao%NULL%1,                 Juanjuan%Zhang%NULL%1,                 Xing%He%NULL%1,                 Min%Ou%NULL%1,                 Jing%Bi%NULL%1,                 Rongqing%Yang%NULL%1,                 Wencheng%Di%NULL%1,                 Zhaoqin%Wang%NULL%1,                 Zigang%Li%NULL%1,                 Hong%Gao%NULL%0,                 Lei%Liu%NULL%0,                 Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,        Yanchen%Guo%null%1,        Zhengrong%Lin%null%1,        Zhe%Shi%null%1,        Tianyuan%Bian%null%1,        Lin%Qi%null%1,        Long%Meng%null%1,        Anthony A.%Grace%null%1,        Hairong%Zheng%null%1,        Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,          Jishou%Zhang%xref no email%0,          Menglong%Wang%xref no email%0,          Jing%Ye%xref no email%0,          Yao%Xu%xref no email%0,          Bo%Shen%xref no email%0,          Hua%He%xref no email%0,          Zhen%Wang%xref no email%0,          Di%Ye%xref no email%0,          Mengmeng%Zhao%xref no email%0,          Zhen%Luo%xref no email%0,          Mingxiao%Liu%xref no email%0,          Pingan%Zhang%xref no email%0,          Jian%Gu%xref no email%0,          Menglin%Liu%xref no email%0,          Dan%Li%xref no email%0,          Jianfang%Liu%xref no email%0,          Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                 Paolo%Maggi%NULL%2,                 Paolo%Maggi%NULL%0,                 Vincenzo%Messina%NULL%1,                 Pasquale%Iuliano%NULL%2,                 Pasquale%Iuliano%NULL%0,                 Antonio%Sardu%NULL%1,                 Vincenzo%Iovinella%NULL%1,                 Giuseppe%Paolisso%NULL%1,                 Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                Li%J%coreGivesNoEmail%1,                Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                 Rasimcan%Meral%NULL%1,                 Alpay%Medetalibeyoğlu%NULL%1,                 Hilal%Konyaoğlu%NULL%1,                 Murat%Köse%NULL%1,                 Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,          Jeongkuk%Seo%xref no email%1,          Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                 Dewei%Zhang%NULL%1,                 Shengming%Wang%NULL%1,                 Yanhua%Jin%NULL%1,                 Jianbo%Huan%NULL%1,                 Yue%Wu%NULL%0,                 Cheng%Xia%NULL%1,                 Zhe%Li%NULL%1,                 Xingshun%Qi%NULL%1,                 Duanzhen%Zhang%NULL%1,                 Xiumin%Han%NULL%1,                 Xianyang%Zhu%NULL%1,                 Ying%Qu%NULL%1,                 Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                 Songmei%Wang%NULL%1,                 Lorenz%von Seidlein%NULL%1,                 Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,          Zihu%Tan%xref no email%0,          Ling%Zhou%xref no email%0,          Min%Yang%xref no email%0,          Lang%Peng%xref no email%0,          Jinjin%Liu%xref no email%0,          Jingling%Cai%xref no email%0,          Ru%Yang%xref no email%0,          Junyan%Han%xref no email%0,          Yafei%Huang%xref no email%0,          Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                 Dan%Liu%NULL%0,                 Shaoqing%Zeng%NULL%1,                 Siyuan%Wang%NULL%1,                 Sen%Xu%NULL%0,                 Ya%Wang%NULL%0,                 Ruidi%Yu%NULL%1,                 Yue%Gao%NULL%0,                 Huayi%Li%NULL%1,                 Xinxia%Feng%NULL%1,                 Ning%Zhou%NULL%0,                 Chunxia%Zhao%NULL%1,                 Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                 Lihua%Zhu%NULL%0,                 Jingjing%Cai%NULL%0,                 Fang%Lei%NULL%0,                 Juan-Juan%Qin%NULL%0,                 Jing%Xie%NULL%2,                 Ye-Mao%Liu%NULL%0,                 Yan-Ci%Zhao%NULL%1,                 Xuewei%Huang%NULL%0,                 Lijin%Lin%NULL%0,                 Meng%Xia%NULL%0,                 Ming-Ming%Chen%NULL%0,                 Xu%Cheng%NULL%1,                 Xiao%Zhang%NULL%0,                 Deliang%Guo%NULL%1,                 Yuanyuan%Peng%NULL%1,                 Yan-Xiao%Ji%NULL%0,                 Jing%Chen%NULL%0,                 Zhi-Gang%She%NULL%0,                 Yibin%Wang%NULL%0,                 Qingbo%Xu%NULL%0,                 Renfu%Tan%NULL%1,                 Haitao%Wang%NULL%1,                 Jun%Lin%NULL%2,                 Pengcheng%Luo%NULL%1,                 Shouzhi%Fu%NULL%0,                 Hongbin%Cai%NULL%1,                 Ping%Ye%NULL%0,                 Bing%Xiao%NULL%1,                 Weiming%Mao%NULL%0,                 Liming%Liu%NULL%1,                 Youqin%Yan%NULL%2,                 Mingyu%Liu%NULL%1,                 Manhua%Chen%NULL%1,                 Xiao-Jing%Zhang%NULL%0,                 Xinghuan%Wang%NULL%0,                 Rhian M.%Touyz%NULL%1,                 Jiahong%Xia%NULL%0,                 Bing-Hong%Zhang%NULL%0,                 Xiaodong%Huang%NULL%0,                 Yufeng%Yuan%NULL%0,                 Rohit%Loomba%NULL%1,                 Peter P.%Liu%NULL%1,                 Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                 Jingkang%Zhu%NULL%1,                 Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1920,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1823,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1852,7 +1978,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1881,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1910,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1939,7 +2065,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1968,7 +2094,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1997,7 +2123,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2026,7 +2152,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2055,7 +2181,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2084,7 +2210,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2113,7 +2239,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2142,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2171,7 +2297,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2200,7 +2326,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2229,7 +2355,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2258,7 +2384,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2287,7 +2413,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2316,7 +2442,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2345,7 +2471,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2374,7 +2500,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="470">
   <si>
     <t>Doi</t>
   </si>
@@ -1587,6 +1587,69 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                 Jingkang%Zhu%NULL%1,                 Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,         F.%Santilli%null%1,         M. T.%Guagnano%null%1,         M.%Bucci%null%1,         F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                  Feng%Wang%NULL%0,                  Peng%Chen%NULL%1,                  Jiangang%Jiang%NULL%0,                  Guanglin%Cui%NULL%1,                  Ning%Zhou%NULL%0,                  Francesco%Moroni%NULL%1,                  Javid J.%Moslehi%NULL%0,                  Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                  Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                  Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                  Maria Livia%Burzo%NULL%2,                  Maria Livia%Burzo%NULL%0,                  Michele%Santoro%NULL%1,                  Mariella%Fuorlo%NULL%1,                  Luca%Sabia%NULL%1,                  Claudio%Sandroni%NULL%1,                  Antonio%Gasbarrini%NULL%0,                  Francesco%Franceschi%NULL%1,                  Giovanni%Gambassi%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                  C%Nardin%NULL%1,                  G L%Di Tanna%NULL%1,                  U%Grossi%NULL%1,                  E%Bernardi%NULL%1,                  L%Scaldaferri%NULL%1,                  M%Romagnoli%NULL%1,                  L%Tonon%NULL%1,                  P%Cavasin%NULL%1,                  S%Novello%NULL%1,                  R%Scarpa%NULL%1,                  A%Farnia%NULL%1,                  E%De Menis%NULL%1,                  R%Rigoli%NULL%1,                  F%Cinetto%NULL%1,                  P%Pauletto%NULL%1,                  C%Agostini%NULL%1,                  M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                  Jiatian%Cao%NULL%1,                  Yumeng%Yao%NULL%1,                  Xuejuan%Jin%NULL%1,                  Zhe%Luo%NULL%1,                  Yuan%Xue%NULL%1,                  Chouwen%Zhu%NULL%1,                  Yanan%Song%NULL%1,                  Ying%Wang%NULL%0,                  Yunzeng%Zou%NULL%1,                  Juying%Qian%NULL%1,                  Kaihuan%Yu%NULL%1,                  Hui%Gong%NULL%1,                  Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                  Kenneth W%Chow%NULL%1,                  Jonathan%Vo%NULL%1,                  Wei%Hou%NULL%0,                  Haifang%Li%NULL%0,                  Paul S%Richman%NULL%1,                  Sandeep K%Mallipattu%NULL%1,                  Hal A%Skopicki%NULL%1,                  Adam J%Singer%NULL%1,                  Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                  Yi%Liu%NULL%0,                  Keliang%Chen%NULL%1,                  Suying%Yan%NULL%1,                  Xiangrong%Bai%NULL%1,                  Juan%Li%947281063@qq.com%0,                  Dong%Liu%ld2069@outlook.com%0,                  Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,         Hisao%Ogawa%null%0,         Kazuo%Kimura%null%0,         Masaaki%Konishi%null%0,         Jin%Kirigaya%null%0,         Kazuki%Fukui%null%0,         Kengo%Tsukahara%null%0,         Hiroyuki%Shimizu%null%0,         Keisuke%Iwabuchi%null%0,         Yu%Yamada%null%0,         Kenichiro%Saka%null%0,         Ichiro%Takeuchi%null%0,         Toshio%Hirano%null%0,         Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                  Guohui%Xiao%NULL%1,                  Juanjuan%Zhang%NULL%1,                  Xing%He%NULL%1,                  Min%Ou%NULL%1,                  Jing%Bi%NULL%1,                  Rongqing%Yang%NULL%1,                  Wencheng%Di%NULL%1,                  Zhaoqin%Wang%NULL%1,                  Zigang%Li%NULL%1,                  Hong%Gao%NULL%0,                  Lei%Liu%NULL%0,                  Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,         Yanchen%Guo%null%1,         Zhengrong%Lin%null%1,         Zhe%Shi%null%1,         Tianyuan%Bian%null%1,         Lin%Qi%null%1,         Long%Meng%null%1,         Anthony A.%Grace%null%1,         Hairong%Zheng%null%1,         Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,           Jishou%Zhang%xref no email%0,           Menglong%Wang%xref no email%0,           Jing%Ye%xref no email%0,           Yao%Xu%xref no email%0,           Bo%Shen%xref no email%0,           Hua%He%xref no email%0,           Zhen%Wang%xref no email%0,           Di%Ye%xref no email%0,           Mengmeng%Zhao%xref no email%0,           Zhen%Luo%xref no email%0,           Mingxiao%Liu%xref no email%0,           Pingan%Zhang%xref no email%0,           Jian%Gu%xref no email%0,           Menglin%Liu%xref no email%0,           Dan%Li%xref no email%0,           Jianfang%Liu%xref no email%0,           Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                  Paolo%Maggi%NULL%2,                  Paolo%Maggi%NULL%0,                  Vincenzo%Messina%NULL%1,                  Pasquale%Iuliano%NULL%2,                  Pasquale%Iuliano%NULL%0,                  Antonio%Sardu%NULL%1,                  Vincenzo%Iovinella%NULL%1,                  Giuseppe%Paolisso%NULL%1,                  Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                 Li%J%coreGivesNoEmail%1,                 Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                  Rasimcan%Meral%NULL%1,                  Alpay%Medetalibeyoğlu%NULL%1,                  Hilal%Konyaoğlu%NULL%1,                  Murat%Köse%NULL%1,                  Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,           Jeongkuk%Seo%xref no email%1,           Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                  Dewei%Zhang%NULL%1,                  Shengming%Wang%NULL%1,                  Yanhua%Jin%NULL%1,                  Jianbo%Huan%NULL%1,                  Yue%Wu%NULL%0,                  Cheng%Xia%NULL%1,                  Zhe%Li%NULL%1,                  Xingshun%Qi%NULL%1,                  Duanzhen%Zhang%NULL%1,                  Xiumin%Han%NULL%1,                  Xianyang%Zhu%NULL%1,                  Ying%Qu%NULL%1,                  Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                  Songmei%Wang%NULL%1,                  Lorenz%von Seidlein%NULL%1,                  Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,           Zihu%Tan%xref no email%0,           Ling%Zhou%xref no email%0,           Min%Yang%xref no email%0,           Lang%Peng%xref no email%0,           Jinjin%Liu%xref no email%0,           Jingling%Cai%xref no email%0,           Ru%Yang%xref no email%0,           Junyan%Han%xref no email%0,           Yafei%Huang%xref no email%0,           Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                  Dan%Liu%NULL%0,                  Shaoqing%Zeng%NULL%1,                  Siyuan%Wang%NULL%1,                  Sen%Xu%NULL%0,                  Ya%Wang%NULL%0,                  Ruidi%Yu%NULL%1,                  Yue%Gao%NULL%0,                  Huayi%Li%NULL%1,                  Xinxia%Feng%NULL%1,                  Ning%Zhou%NULL%0,                  Chunxia%Zhao%NULL%1,                  Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                  Lihua%Zhu%NULL%0,                  Jingjing%Cai%NULL%0,                  Fang%Lei%NULL%0,                  Juan-Juan%Qin%NULL%0,                  Jing%Xie%NULL%2,                  Ye-Mao%Liu%NULL%0,                  Yan-Ci%Zhao%NULL%1,                  Xuewei%Huang%NULL%0,                  Lijin%Lin%NULL%0,                  Meng%Xia%NULL%0,                  Ming-Ming%Chen%NULL%0,                  Xu%Cheng%NULL%1,                  Xiao%Zhang%NULL%0,                  Deliang%Guo%NULL%1,                  Yuanyuan%Peng%NULL%1,                  Yan-Xiao%Ji%NULL%0,                  Jing%Chen%NULL%0,                  Zhi-Gang%She%NULL%0,                  Yibin%Wang%NULL%0,                  Qingbo%Xu%NULL%0,                  Renfu%Tan%NULL%1,                  Haitao%Wang%NULL%1,                  Jun%Lin%NULL%2,                  Pengcheng%Luo%NULL%1,                  Shouzhi%Fu%NULL%0,                  Hongbin%Cai%NULL%1,                  Ping%Ye%NULL%0,                  Bing%Xiao%NULL%1,                  Weiming%Mao%NULL%0,                  Liming%Liu%NULL%1,                  Youqin%Yan%NULL%2,                  Mingyu%Liu%NULL%1,                  Manhua%Chen%NULL%1,                  Xiao-Jing%Zhang%NULL%0,                  Xinghuan%Wang%NULL%0,                  Rhian M.%Touyz%NULL%1,                  Jiahong%Xia%NULL%0,                  Bing-Hong%Zhang%NULL%0,                  Xiaodong%Huang%NULL%0,                  Yufeng%Yuan%NULL%0,                  Rohit%Loomba%NULL%1,                  Peter P.%Liu%NULL%1,                  Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                  Jingkang%Zhu%NULL%1,                  Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1983,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1949,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1978,7 +2041,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2007,7 +2070,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2036,7 +2099,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2065,7 +2128,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2094,7 +2157,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2123,7 +2186,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2152,7 +2215,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2181,7 +2244,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2210,7 +2273,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2239,7 +2302,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2268,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2297,7 +2360,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2326,7 +2389,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2355,7 +2418,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2384,7 +2447,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2413,7 +2476,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2442,7 +2505,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2471,7 +2534,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2500,7 +2563,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="495">
   <si>
     <t>Doi</t>
   </si>
@@ -1650,6 +1650,81 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                  Jingkang%Zhu%NULL%1,                  Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,          F.%Santilli%null%1,          M. T.%Guagnano%null%1,          M.%Bucci%null%1,          F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                   Feng%Wang%NULL%0,                   Peng%Chen%NULL%1,                   Jiangang%Jiang%NULL%0,                   Guanglin%Cui%NULL%1,                   Ning%Zhou%NULL%0,                   Francesco%Moroni%NULL%1,                   Javid J.%Moslehi%NULL%0,                   Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                   Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                   Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                   Maria Livia%Burzo%NULL%2,                   Maria Livia%Burzo%NULL%0,                   Michele%Santoro%NULL%1,                   Mariella%Fuorlo%NULL%1,                   Luca%Sabia%NULL%1,                   Claudio%Sandroni%NULL%1,                   Antonio%Gasbarrini%NULL%0,                   Francesco%Franceschi%NULL%1,                   Giovanni%Gambassi%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                   C%Nardin%NULL%1,                   G L%Di Tanna%NULL%1,                   U%Grossi%NULL%1,                   E%Bernardi%NULL%1,                   L%Scaldaferri%NULL%1,                   M%Romagnoli%NULL%1,                   L%Tonon%NULL%1,                   P%Cavasin%NULL%1,                   S%Novello%NULL%1,                   R%Scarpa%NULL%1,                   A%Farnia%NULL%1,                   E%De Menis%NULL%1,                   R%Rigoli%NULL%1,                   F%Cinetto%NULL%1,                   P%Pauletto%NULL%1,                   C%Agostini%NULL%1,                   M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                   Jiatian%Cao%NULL%1,                   Yumeng%Yao%NULL%1,                   Xuejuan%Jin%NULL%1,                   Zhe%Luo%NULL%1,                   Yuan%Xue%NULL%1,                   Chouwen%Zhu%NULL%1,                   Yanan%Song%NULL%1,                   Ying%Wang%NULL%0,                   Yunzeng%Zou%NULL%1,                   Juying%Qian%NULL%1,                   Kaihuan%Yu%NULL%1,                   Hui%Gong%NULL%1,                   Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                   Kenneth W%Chow%NULL%1,                   Jonathan%Vo%NULL%1,                   Wei%Hou%NULL%0,                   Haifang%Li%NULL%0,                   Paul S%Richman%NULL%1,                   Sandeep K%Mallipattu%NULL%1,                   Hal A%Skopicki%NULL%1,                   Adam J%Singer%NULL%1,                   Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                   Yi%Liu%NULL%0,                   Keliang%Chen%NULL%1,                   Suying%Yan%NULL%1,                   Xiangrong%Bai%NULL%1,                   Juan%Li%947281063@qq.com%0,                   Dong%Liu%ld2069@outlook.com%0,                   Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,          Hisao%Ogawa%null%0,          Kazuo%Kimura%null%0,          Masaaki%Konishi%null%0,          Jin%Kirigaya%null%0,          Kazuki%Fukui%null%0,          Kengo%Tsukahara%null%0,          Hiroyuki%Shimizu%null%0,          Keisuke%Iwabuchi%null%0,          Yu%Yamada%null%0,          Kenichiro%Saka%null%0,          Ichiro%Takeuchi%null%0,          Toshio%Hirano%null%0,          Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                   Guohui%Xiao%NULL%1,                   Juanjuan%Zhang%NULL%1,                   Xing%He%NULL%1,                   Min%Ou%NULL%1,                   Jing%Bi%NULL%1,                   Rongqing%Yang%NULL%1,                   Wencheng%Di%NULL%1,                   Zhaoqin%Wang%NULL%1,                   Zigang%Li%NULL%1,                   Hong%Gao%NULL%0,                   Lei%Liu%NULL%0,                   Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,          Yanchen%Guo%null%1,          Zhengrong%Lin%null%1,          Zhe%Shi%null%1,          Tianyuan%Bian%null%1,          Lin%Qi%null%1,          Long%Meng%null%1,          Anthony A.%Grace%null%1,          Hairong%Zheng%null%1,          Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,            Jishou%Zhang%xref no email%0,            Menglong%Wang%xref no email%0,            Jing%Ye%xref no email%0,            Yao%Xu%xref no email%0,            Bo%Shen%xref no email%0,            Hua%He%xref no email%0,            Zhen%Wang%xref no email%0,            Di%Ye%xref no email%0,            Mengmeng%Zhao%xref no email%0,            Zhen%Luo%xref no email%0,            Mingxiao%Liu%xref no email%0,            Pingan%Zhang%xref no email%0,            Jian%Gu%xref no email%0,            Menglin%Liu%xref no email%0,            Dan%Li%xref no email%0,            Jianfang%Liu%xref no email%0,            Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                   Paolo%Maggi%NULL%2,                   Paolo%Maggi%NULL%0,                   Vincenzo%Messina%NULL%1,                   Pasquale%Iuliano%NULL%2,                   Pasquale%Iuliano%NULL%0,                   Antonio%Sardu%NULL%1,                   Vincenzo%Iovinella%NULL%1,                   Giuseppe%Paolisso%NULL%1,                   Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                  Li%J%coreGivesNoEmail%1,                  Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                   Rasimcan%Meral%NULL%1,                   Alpay%Medetalibeyoğlu%NULL%1,                   Hilal%Konyaoğlu%NULL%1,                   Murat%Köse%NULL%1,                   Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,            Jeongkuk%Seo%xref no email%1,            Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                   Dewei%Zhang%NULL%1,                   Shengming%Wang%NULL%1,                   Yanhua%Jin%NULL%1,                   Jianbo%Huan%NULL%1,                   Yue%Wu%NULL%0,                   Cheng%Xia%NULL%1,                   Zhe%Li%NULL%1,                   Xingshun%Qi%NULL%1,                   Duanzhen%Zhang%NULL%1,                   Xiumin%Han%NULL%1,                   Xianyang%Zhu%NULL%1,                   Ying%Qu%NULL%1,                   Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                   Songmei%Wang%NULL%1,                   Lorenz%von Seidlein%NULL%1,                   Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,            Zihu%Tan%xref no email%0,            Ling%Zhou%xref no email%0,            Min%Yang%xref no email%0,            Lang%Peng%xref no email%0,            Jinjin%Liu%xref no email%0,            Jingling%Cai%xref no email%0,            Ru%Yang%xref no email%0,            Junyan%Han%xref no email%0,            Yafei%Huang%xref no email%0,            Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                   Dan%Liu%NULL%0,                   Shaoqing%Zeng%NULL%1,                   Siyuan%Wang%NULL%1,                   Sen%Xu%NULL%0,                   Ya%Wang%NULL%0,                   Ruidi%Yu%NULL%1,                   Yue%Gao%NULL%0,                   Huayi%Li%NULL%1,                   Xinxia%Feng%NULL%1,                   Ning%Zhou%NULL%0,                   Chunxia%Zhao%NULL%1,                   Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                   Lihua%Zhu%NULL%0,                   Jingjing%Cai%NULL%0,                   Fang%Lei%NULL%0,                   Juan-Juan%Qin%NULL%0,                   Jing%Xie%NULL%2,                   Ye-Mao%Liu%NULL%0,                   Yan-Ci%Zhao%NULL%1,                   Xuewei%Huang%NULL%0,                   Lijin%Lin%NULL%0,                   Meng%Xia%NULL%0,                   Ming-Ming%Chen%NULL%0,                   Xu%Cheng%NULL%1,                   Xiao%Zhang%NULL%0,                   Deliang%Guo%NULL%1,                   Yuanyuan%Peng%NULL%1,                   Yan-Xiao%Ji%NULL%0,                   Jing%Chen%NULL%0,                   Zhi-Gang%She%NULL%0,                   Yibin%Wang%NULL%0,                   Qingbo%Xu%NULL%0,                   Renfu%Tan%NULL%1,                   Haitao%Wang%NULL%1,                   Jun%Lin%NULL%2,                   Pengcheng%Luo%NULL%1,                   Shouzhi%Fu%NULL%0,                   Hongbin%Cai%NULL%1,                   Ping%Ye%NULL%0,                   Bing%Xiao%NULL%1,                   Weiming%Mao%NULL%0,                   Liming%Liu%NULL%1,                   Youqin%Yan%NULL%2,                   Mingyu%Liu%NULL%1,                   Manhua%Chen%NULL%1,                   Xiao-Jing%Zhang%NULL%0,                   Xinghuan%Wang%NULL%0,                   Rhian M.%Touyz%NULL%1,                   Jiahong%Xia%NULL%0,                   Bing-Hong%Zhang%NULL%0,                   Xiaodong%Huang%NULL%0,                   Yufeng%Yuan%NULL%0,                   Rohit%Loomba%NULL%1,                   Peter P.%Liu%NULL%1,                   Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                   Jingkang%Zhu%NULL%1,                   Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2058,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1995,7 +2070,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
@@ -2012,7 +2087,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2024,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4">
@@ -2041,7 +2116,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2053,7 +2128,7 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
@@ -2070,7 +2145,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2082,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
@@ -2099,7 +2174,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2111,7 +2186,7 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
@@ -2128,7 +2203,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2140,7 +2215,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
@@ -2157,7 +2232,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2169,7 +2244,7 @@
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9">
@@ -2186,7 +2261,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2198,7 +2273,7 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10">
@@ -2215,7 +2290,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2227,7 +2302,7 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
@@ -2244,7 +2319,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2256,7 +2331,7 @@
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12">
@@ -2273,7 +2348,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2285,7 +2360,7 @@
         <v>245</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13">
@@ -2302,7 +2377,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2314,7 +2389,7 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -2331,7 +2406,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2343,7 +2418,7 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15">
@@ -2360,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2372,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16">
@@ -2389,7 +2464,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2401,7 +2476,7 @@
         <v>252</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17">
@@ -2418,7 +2493,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2430,7 +2505,7 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18">
@@ -2447,7 +2522,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2459,7 +2534,7 @@
         <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19">
@@ -2476,7 +2551,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2488,7 +2563,7 @@
         <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20">
@@ -2505,7 +2580,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2517,7 +2592,7 @@
         <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21">
@@ -2534,7 +2609,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2546,7 +2621,7 @@
         <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22">
@@ -2563,7 +2638,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -2575,7 +2650,7 @@
         <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="516">
   <si>
     <t>Doi</t>
   </si>
@@ -1725,6 +1725,69 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                   Jingkang%Zhu%NULL%1,                   Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,           F.%Santilli%null%1,           M. T.%Guagnano%null%1,           M.%Bucci%null%1,           F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                    Feng%Wang%NULL%0,                    Peng%Chen%NULL%1,                    Jiangang%Jiang%NULL%0,                    Guanglin%Cui%NULL%1,                    Ning%Zhou%NULL%0,                    Francesco%Moroni%NULL%1,                    Javid J.%Moslehi%NULL%0,                    Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                    Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                    Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                    Maria Livia%Burzo%NULL%2,                    Maria Livia%Burzo%NULL%0,                    Michele%Santoro%NULL%1,                    Mariella%Fuorlo%NULL%1,                    Luca%Sabia%NULL%1,                    Claudio%Sandroni%NULL%1,                    Antonio%Gasbarrini%NULL%0,                    Francesco%Franceschi%NULL%1,                    Giovanni%Gambassi%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                    C%Nardin%NULL%1,                    G L%Di Tanna%NULL%1,                    U%Grossi%NULL%1,                    E%Bernardi%NULL%1,                    L%Scaldaferri%NULL%1,                    M%Romagnoli%NULL%1,                    L%Tonon%NULL%1,                    P%Cavasin%NULL%1,                    S%Novello%NULL%1,                    R%Scarpa%NULL%1,                    A%Farnia%NULL%1,                    E%De Menis%NULL%1,                    R%Rigoli%NULL%1,                    F%Cinetto%NULL%1,                    P%Pauletto%NULL%1,                    C%Agostini%NULL%1,                    M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                    Jiatian%Cao%NULL%1,                    Yumeng%Yao%NULL%1,                    Xuejuan%Jin%NULL%1,                    Zhe%Luo%NULL%1,                    Yuan%Xue%NULL%1,                    Chouwen%Zhu%NULL%1,                    Yanan%Song%NULL%1,                    Ying%Wang%NULL%0,                    Yunzeng%Zou%NULL%1,                    Juying%Qian%NULL%1,                    Kaihuan%Yu%NULL%1,                    Hui%Gong%NULL%1,                    Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                    Kenneth W%Chow%NULL%1,                    Jonathan%Vo%NULL%1,                    Wei%Hou%NULL%0,                    Haifang%Li%NULL%0,                    Paul S%Richman%NULL%1,                    Sandeep K%Mallipattu%NULL%1,                    Hal A%Skopicki%NULL%1,                    Adam J%Singer%NULL%1,                    Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                    Yi%Liu%NULL%0,                    Keliang%Chen%NULL%1,                    Suying%Yan%NULL%1,                    Xiangrong%Bai%NULL%1,                    Juan%Li%947281063@qq.com%0,                    Dong%Liu%ld2069@outlook.com%0,                    Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,           Hisao%Ogawa%null%0,           Kazuo%Kimura%null%0,           Masaaki%Konishi%null%0,           Jin%Kirigaya%null%0,           Kazuki%Fukui%null%0,           Kengo%Tsukahara%null%0,           Hiroyuki%Shimizu%null%0,           Keisuke%Iwabuchi%null%0,           Yu%Yamada%null%0,           Kenichiro%Saka%null%0,           Ichiro%Takeuchi%null%0,           Toshio%Hirano%null%0,           Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                    Guohui%Xiao%NULL%1,                    Juanjuan%Zhang%NULL%1,                    Xing%He%NULL%1,                    Min%Ou%NULL%1,                    Jing%Bi%NULL%1,                    Rongqing%Yang%NULL%1,                    Wencheng%Di%NULL%1,                    Zhaoqin%Wang%NULL%1,                    Zigang%Li%NULL%1,                    Hong%Gao%NULL%0,                    Lei%Liu%NULL%0,                    Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,           Yanchen%Guo%null%1,           Zhengrong%Lin%null%1,           Zhe%Shi%null%1,           Tianyuan%Bian%null%1,           Lin%Qi%null%1,           Long%Meng%null%1,           Anthony A.%Grace%null%1,           Hairong%Zheng%null%1,           Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0,             Jishou%Zhang%xref no email%0,             Menglong%Wang%xref no email%0,             Jing%Ye%xref no email%0,             Yao%Xu%xref no email%0,             Bo%Shen%xref no email%0,             Hua%He%xref no email%0,             Zhen%Wang%xref no email%0,             Di%Ye%xref no email%0,             Mengmeng%Zhao%xref no email%0,             Zhen%Luo%xref no email%0,             Mingxiao%Liu%xref no email%0,             Pingan%Zhang%xref no email%0,             Jian%Gu%xref no email%0,             Menglin%Liu%xref no email%0,             Dan%Li%xref no email%0,             Jianfang%Liu%xref no email%0,             Jun%Wan%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                    Paolo%Maggi%NULL%2,                    Paolo%Maggi%NULL%0,                    Vincenzo%Messina%NULL%1,                    Pasquale%Iuliano%NULL%2,                    Pasquale%Iuliano%NULL%0,                    Antonio%Sardu%NULL%1,                    Vincenzo%Iovinella%NULL%1,                    Giuseppe%Paolisso%NULL%1,                    Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                   Li%J%coreGivesNoEmail%1,                   Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                    Rasimcan%Meral%NULL%1,                    Alpay%Medetalibeyoğlu%NULL%1,                    Hilal%Konyaoğlu%NULL%1,                    Murat%Köse%NULL%1,                    Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%1,             Jeongkuk%Seo%xref no email%1,             Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                    Dewei%Zhang%NULL%1,                    Shengming%Wang%NULL%1,                    Yanhua%Jin%NULL%1,                    Jianbo%Huan%NULL%1,                    Yue%Wu%NULL%0,                    Cheng%Xia%NULL%1,                    Zhe%Li%NULL%1,                    Xingshun%Qi%NULL%1,                    Duanzhen%Zhang%NULL%1,                    Xiumin%Han%NULL%1,                    Xianyang%Zhu%NULL%1,                    Ying%Qu%NULL%1,                    Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                    Songmei%Wang%NULL%1,                    Lorenz%von Seidlein%NULL%1,                    Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,             Zihu%Tan%xref no email%0,             Ling%Zhou%xref no email%0,             Min%Yang%xref no email%0,             Lang%Peng%xref no email%0,             Jinjin%Liu%xref no email%0,             Jingling%Cai%xref no email%0,             Ru%Yang%xref no email%0,             Junyan%Han%xref no email%0,             Yafei%Huang%xref no email%0,             Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                    Dan%Liu%NULL%0,                    Shaoqing%Zeng%NULL%1,                    Siyuan%Wang%NULL%1,                    Sen%Xu%NULL%0,                    Ya%Wang%NULL%0,                    Ruidi%Yu%NULL%1,                    Yue%Gao%NULL%0,                    Huayi%Li%NULL%1,                    Xinxia%Feng%NULL%1,                    Ning%Zhou%NULL%0,                    Chunxia%Zhao%NULL%1,                    Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                    Lihua%Zhu%NULL%0,                    Jingjing%Cai%NULL%0,                    Fang%Lei%NULL%0,                    Juan-Juan%Qin%NULL%0,                    Jing%Xie%NULL%2,                    Ye-Mao%Liu%NULL%0,                    Yan-Ci%Zhao%NULL%1,                    Xuewei%Huang%NULL%0,                    Lijin%Lin%NULL%0,                    Meng%Xia%NULL%0,                    Ming-Ming%Chen%NULL%0,                    Xu%Cheng%NULL%1,                    Xiao%Zhang%NULL%0,                    Deliang%Guo%NULL%1,                    Yuanyuan%Peng%NULL%1,                    Yan-Xiao%Ji%NULL%0,                    Jing%Chen%NULL%0,                    Zhi-Gang%She%NULL%0,                    Yibin%Wang%NULL%0,                    Qingbo%Xu%NULL%0,                    Renfu%Tan%NULL%1,                    Haitao%Wang%NULL%1,                    Jun%Lin%NULL%2,                    Pengcheng%Luo%NULL%1,                    Shouzhi%Fu%NULL%0,                    Hongbin%Cai%NULL%1,                    Ping%Ye%NULL%0,                    Bing%Xiao%NULL%1,                    Weiming%Mao%NULL%0,                    Liming%Liu%NULL%1,                    Youqin%Yan%NULL%2,                    Mingyu%Liu%NULL%1,                    Manhua%Chen%NULL%1,                    Xiao-Jing%Zhang%NULL%0,                    Xinghuan%Wang%NULL%0,                    Rhian M.%Touyz%NULL%1,                    Jiahong%Xia%NULL%0,                    Bing-Hong%Zhang%NULL%0,                    Xiaodong%Huang%NULL%0,                    Yufeng%Yuan%NULL%0,                    Rohit%Loomba%NULL%1,                    Peter P.%Liu%NULL%1,                    Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                    Jingkang%Zhu%NULL%1,                    Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2121,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2087,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2116,7 +2179,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2145,7 +2208,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2174,7 +2237,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2203,7 +2266,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2232,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2261,7 +2324,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2290,7 +2353,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2319,7 +2382,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2348,7 +2411,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2377,7 +2440,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2406,7 +2469,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2435,7 +2498,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2464,7 +2527,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2493,7 +2556,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2522,7 +2585,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2551,7 +2614,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2580,7 +2643,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2609,7 +2672,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2638,7 +2701,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="611">
   <si>
     <t>Doi</t>
   </si>
@@ -1788,6 +1788,291 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                    Jingkang%Zhu%NULL%1,                    Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,            F.%Santilli%null%1,            M. T.%Guagnano%null%1,            M.%Bucci%null%1,            F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                     Feng%Wang%NULL%0,                     Peng%Chen%NULL%1,                     Jiangang%Jiang%NULL%0,                     Guanglin%Cui%NULL%1,                     Ning%Zhou%NULL%0,                     Francesco%Moroni%NULL%1,                     Javid J.%Moslehi%NULL%0,                     Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                     Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                     Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                     Maria Livia%Burzo%NULL%2,                     Maria Livia%Burzo%NULL%0,                     Michele%Santoro%NULL%1,                     Mariella%Fuorlo%NULL%1,                     Luca%Sabia%NULL%1,                     Claudio%Sandroni%NULL%1,                     Antonio%Gasbarrini%NULL%0,                     Francesco%Franceschi%NULL%1,                     Giovanni%Gambassi%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                     C%Nardin%NULL%1,                     G L%Di Tanna%NULL%1,                     U%Grossi%NULL%1,                     E%Bernardi%NULL%1,                     L%Scaldaferri%NULL%1,                     M%Romagnoli%NULL%1,                     L%Tonon%NULL%1,                     P%Cavasin%NULL%1,                     S%Novello%NULL%1,                     R%Scarpa%NULL%1,                     A%Farnia%NULL%1,                     E%De Menis%NULL%1,                     R%Rigoli%NULL%1,                     F%Cinetto%NULL%1,                     P%Pauletto%NULL%1,                     C%Agostini%NULL%1,                     M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                     Jiatian%Cao%NULL%1,                     Yumeng%Yao%NULL%1,                     Xuejuan%Jin%NULL%1,                     Zhe%Luo%NULL%1,                     Yuan%Xue%NULL%1,                     Chouwen%Zhu%NULL%1,                     Yanan%Song%NULL%1,                     Ying%Wang%NULL%0,                     Yunzeng%Zou%NULL%1,                     Juying%Qian%NULL%1,                     Kaihuan%Yu%NULL%1,                     Hui%Gong%NULL%1,                     Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                     Kenneth W%Chow%NULL%1,                     Jonathan%Vo%NULL%1,                     Wei%Hou%NULL%0,                     Haifang%Li%NULL%0,                     Paul S%Richman%NULL%1,                     Sandeep K%Mallipattu%NULL%1,                     Hal A%Skopicki%NULL%1,                     Adam J%Singer%NULL%1,                     Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                     Yi%Liu%NULL%0,                     Keliang%Chen%NULL%1,                     Suying%Yan%NULL%1,                     Xiangrong%Bai%NULL%1,                     Juan%Li%947281063@qq.com%0,                     Dong%Liu%ld2069@outlook.com%0,                     Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,            Hisao%Ogawa%null%0,            Kazuo%Kimura%null%0,            Masaaki%Konishi%null%0,            Jin%Kirigaya%null%0,            Kazuki%Fukui%null%0,            Kengo%Tsukahara%null%0,            Hiroyuki%Shimizu%null%0,            Keisuke%Iwabuchi%null%0,            Yu%Yamada%null%0,            Kenichiro%Saka%null%0,            Ichiro%Takeuchi%null%0,            Toshio%Hirano%null%0,            Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                     Guohui%Xiao%NULL%1,                     Juanjuan%Zhang%NULL%1,                     Xing%He%NULL%1,                     Min%Ou%NULL%1,                     Jing%Bi%NULL%1,                     Rongqing%Yang%NULL%1,                     Wencheng%Di%NULL%1,                     Zhaoqin%Wang%NULL%1,                     Zigang%Li%NULL%1,                     Hong%Gao%NULL%0,                     Lei%Liu%NULL%0,                     Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,            Yanchen%Guo%null%1,            Zhengrong%Lin%null%1,            Zhe%Shi%null%1,            Tianyuan%Bian%null%1,            Lin%Qi%null%1,            Long%Meng%null%1,            Anthony A.%Grace%null%1,            Hairong%Zheng%null%1,            Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                     Paolo%Maggi%NULL%2,                     Paolo%Maggi%NULL%0,                     Vincenzo%Messina%NULL%1,                     Pasquale%Iuliano%NULL%2,                     Pasquale%Iuliano%NULL%0,                     Antonio%Sardu%NULL%1,                     Vincenzo%Iovinella%NULL%1,                     Giuseppe%Paolisso%NULL%1,                     Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                    Li%J%coreGivesNoEmail%1,                    Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                     Rasimcan%Meral%NULL%1,                     Alpay%Medetalibeyoğlu%NULL%1,                     Hilal%Konyaoğlu%NULL%1,                     Murat%Köse%NULL%1,                     Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minkook%Son%xref no email%0, Jeongkuk%Seo%xref no email%1, Sung%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                     Dewei%Zhang%NULL%1,                     Shengming%Wang%NULL%1,                     Yanhua%Jin%NULL%1,                     Jianbo%Huan%NULL%1,                     Yue%Wu%NULL%0,                     Cheng%Xia%NULL%1,                     Zhe%Li%NULL%1,                     Xingshun%Qi%NULL%1,                     Duanzhen%Zhang%NULL%1,                     Xiumin%Han%NULL%1,                     Xianyang%Zhu%NULL%1,                     Ying%Qu%NULL%1,                     Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                     Songmei%Wang%NULL%1,                     Lorenz%von Seidlein%NULL%1,                     Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                     Dan%Liu%NULL%0,                     Shaoqing%Zeng%NULL%1,                     Siyuan%Wang%NULL%1,                     Sen%Xu%NULL%0,                     Ya%Wang%NULL%0,                     Ruidi%Yu%NULL%1,                     Yue%Gao%NULL%0,                     Huayi%Li%NULL%1,                     Xinxia%Feng%NULL%1,                     Ning%Zhou%NULL%0,                     Chunxia%Zhao%NULL%1,                     Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                     Lihua%Zhu%NULL%0,                     Jingjing%Cai%NULL%0,                     Fang%Lei%NULL%0,                     Juan-Juan%Qin%NULL%0,                     Jing%Xie%NULL%2,                     Ye-Mao%Liu%NULL%0,                     Yan-Ci%Zhao%NULL%1,                     Xuewei%Huang%NULL%0,                     Lijin%Lin%NULL%0,                     Meng%Xia%NULL%0,                     Ming-Ming%Chen%NULL%0,                     Xu%Cheng%NULL%1,                     Xiao%Zhang%NULL%0,                     Deliang%Guo%NULL%1,                     Yuanyuan%Peng%NULL%1,                     Yan-Xiao%Ji%NULL%0,                     Jing%Chen%NULL%0,                     Zhi-Gang%She%NULL%0,                     Yibin%Wang%NULL%0,                     Qingbo%Xu%NULL%0,                     Renfu%Tan%NULL%1,                     Haitao%Wang%NULL%1,                     Jun%Lin%NULL%2,                     Pengcheng%Luo%NULL%1,                     Shouzhi%Fu%NULL%0,                     Hongbin%Cai%NULL%1,                     Ping%Ye%NULL%0,                     Bing%Xiao%NULL%1,                     Weiming%Mao%NULL%0,                     Liming%Liu%NULL%1,                     Youqin%Yan%NULL%2,                     Mingyu%Liu%NULL%1,                     Manhua%Chen%NULL%1,                     Xiao-Jing%Zhang%NULL%0,                     Xinghuan%Wang%NULL%0,                     Rhian M.%Touyz%NULL%1,                     Jiahong%Xia%NULL%0,                     Bing-Hong%Zhang%NULL%0,                     Xiaodong%Huang%NULL%0,                     Yufeng%Yuan%NULL%0,                     Rohit%Loomba%NULL%1,                     Peter P.%Liu%NULL%1,                     Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                     Jingkang%Zhu%NULL%1,                     Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,             F.%Santilli%null%1,             M. T.%Guagnano%null%1,             M.%Bucci%null%1,             F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                      Feng%Wang%NULL%0,                      Peng%Chen%NULL%1,                      Jiangang%Jiang%NULL%0,                      Guanglin%Cui%NULL%1,                      Ning%Zhou%NULL%0,                      Francesco%Moroni%NULL%1,                      Javid J.%Moslehi%NULL%0,                      Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                      Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                      Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                      Maria Livia%Burzo%NULL%2,                      Maria Livia%Burzo%NULL%0,                      Michele%Santoro%NULL%1,                      Mariella%Fuorlo%NULL%1,                      Luca%Sabia%NULL%1,                      Claudio%Sandroni%NULL%1,                      Antonio%Gasbarrini%NULL%0,                      Francesco%Franceschi%NULL%1,                      Giovanni%Gambassi%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                      C%Nardin%NULL%1,                      G L%Di Tanna%NULL%1,                      U%Grossi%NULL%1,                      E%Bernardi%NULL%1,                      L%Scaldaferri%NULL%1,                      M%Romagnoli%NULL%1,                      L%Tonon%NULL%1,                      P%Cavasin%NULL%1,                      S%Novello%NULL%1,                      R%Scarpa%NULL%1,                      A%Farnia%NULL%1,                      E%De Menis%NULL%1,                      R%Rigoli%NULL%1,                      F%Cinetto%NULL%1,                      P%Pauletto%NULL%1,                      C%Agostini%NULL%1,                      M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                      Jiatian%Cao%NULL%1,                      Yumeng%Yao%NULL%1,                      Xuejuan%Jin%NULL%1,                      Zhe%Luo%NULL%1,                      Yuan%Xue%NULL%1,                      Chouwen%Zhu%NULL%1,                      Yanan%Song%NULL%1,                      Ying%Wang%NULL%0,                      Yunzeng%Zou%NULL%1,                      Juying%Qian%NULL%1,                      Kaihuan%Yu%NULL%1,                      Hui%Gong%NULL%1,                      Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                      Kenneth W%Chow%NULL%1,                      Jonathan%Vo%NULL%1,                      Wei%Hou%NULL%0,                      Haifang%Li%NULL%0,                      Paul S%Richman%NULL%1,                      Sandeep K%Mallipattu%NULL%1,                      Hal A%Skopicki%NULL%1,                      Adam J%Singer%NULL%1,                      Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                      Yi%Liu%NULL%0,                      Keliang%Chen%NULL%1,                      Suying%Yan%NULL%1,                      Xiangrong%Bai%NULL%1,                      Juan%Li%947281063@qq.com%0,                      Dong%Liu%ld2069@outlook.com%0,                      Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,             Hisao%Ogawa%null%0,             Kazuo%Kimura%null%0,             Masaaki%Konishi%null%0,             Jin%Kirigaya%null%0,             Kazuki%Fukui%null%0,             Kengo%Tsukahara%null%0,             Hiroyuki%Shimizu%null%0,             Keisuke%Iwabuchi%null%0,             Yu%Yamada%null%0,             Kenichiro%Saka%null%0,             Ichiro%Takeuchi%null%0,             Toshio%Hirano%null%0,             Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                      Guohui%Xiao%NULL%1,                      Juanjuan%Zhang%NULL%1,                      Xing%He%NULL%1,                      Min%Ou%NULL%1,                      Jing%Bi%NULL%1,                      Rongqing%Yang%NULL%1,                      Wencheng%Di%NULL%1,                      Zhaoqin%Wang%NULL%1,                      Zigang%Li%NULL%1,                      Hong%Gao%NULL%0,                      Lei%Liu%NULL%0,                      Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,             Yanchen%Guo%null%1,             Zhengrong%Lin%null%1,             Zhe%Shi%null%1,             Tianyuan%Bian%null%1,             Lin%Qi%null%1,             Long%Meng%null%1,             Anthony A.%Grace%null%1,             Hairong%Zheng%null%1,             Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                      Paolo%Maggi%NULL%2,                      Paolo%Maggi%NULL%0,                      Vincenzo%Messina%NULL%1,                      Pasquale%Iuliano%NULL%2,                      Pasquale%Iuliano%NULL%0,                      Antonio%Sardu%NULL%1,                      Vincenzo%Iovinella%NULL%1,                      Giuseppe%Paolisso%NULL%1,                      Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                     Li%J%coreGivesNoEmail%1,                     Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                      Rasimcan%Meral%NULL%1,                      Alpay%Medetalibeyoğlu%NULL%1,                      Hilal%Konyaoğlu%NULL%1,                      Murat%Köse%NULL%1,                      Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                      Dewei%Zhang%NULL%1,                      Shengming%Wang%NULL%1,                      Yanhua%Jin%NULL%1,                      Jianbo%Huan%NULL%1,                      Yue%Wu%NULL%0,                      Cheng%Xia%NULL%1,                      Zhe%Li%NULL%1,                      Xingshun%Qi%NULL%1,                      Duanzhen%Zhang%NULL%1,                      Xiumin%Han%NULL%1,                      Xianyang%Zhu%NULL%1,                      Ying%Qu%NULL%1,                      Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                      Songmei%Wang%NULL%1,                      Lorenz%von Seidlein%NULL%1,                      Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                      Dan%Liu%NULL%0,                      Shaoqing%Zeng%NULL%1,                      Siyuan%Wang%NULL%1,                      Sen%Xu%NULL%0,                      Ya%Wang%NULL%0,                      Ruidi%Yu%NULL%1,                      Yue%Gao%NULL%0,                      Huayi%Li%NULL%1,                      Xinxia%Feng%NULL%1,                      Ning%Zhou%NULL%0,                      Chunxia%Zhao%NULL%1,                      Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                      Lihua%Zhu%NULL%0,                      Jingjing%Cai%NULL%0,                      Fang%Lei%NULL%0,                      Juan-Juan%Qin%NULL%0,                      Jing%Xie%NULL%2,                      Ye-Mao%Liu%NULL%0,                      Yan-Ci%Zhao%NULL%1,                      Xuewei%Huang%NULL%0,                      Lijin%Lin%NULL%0,                      Meng%Xia%NULL%0,                      Ming-Ming%Chen%NULL%0,                      Xu%Cheng%NULL%1,                      Xiao%Zhang%NULL%0,                      Deliang%Guo%NULL%1,                      Yuanyuan%Peng%NULL%1,                      Yan-Xiao%Ji%NULL%0,                      Jing%Chen%NULL%0,                      Zhi-Gang%She%NULL%0,                      Yibin%Wang%NULL%0,                      Qingbo%Xu%NULL%0,                      Renfu%Tan%NULL%1,                      Haitao%Wang%NULL%1,                      Jun%Lin%NULL%2,                      Pengcheng%Luo%NULL%1,                      Shouzhi%Fu%NULL%0,                      Hongbin%Cai%NULL%1,                      Ping%Ye%NULL%0,                      Bing%Xiao%NULL%1,                      Weiming%Mao%NULL%0,                      Liming%Liu%NULL%1,                      Youqin%Yan%NULL%2,                      Mingyu%Liu%NULL%1,                      Manhua%Chen%NULL%1,                      Xiao-Jing%Zhang%NULL%0,                      Xinghuan%Wang%NULL%0,                      Rhian M.%Touyz%NULL%1,                      Jiahong%Xia%NULL%0,                      Bing-Hong%Zhang%NULL%0,                      Xiaodong%Huang%NULL%0,                      Yufeng%Yuan%NULL%0,                      Rohit%Loomba%NULL%1,                      Peter P.%Liu%NULL%1,                      Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                      Jingkang%Zhu%NULL%1,                      Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,              F.%Santilli%null%1,              M. T.%Guagnano%null%1,              M.%Bucci%null%1,              F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                       Feng%Wang%NULL%0,                       Peng%Chen%NULL%1,                       Jiangang%Jiang%NULL%0,                       Guanglin%Cui%NULL%1,                       Ning%Zhou%NULL%0,                       Francesco%Moroni%NULL%1,                       Javid J.%Moslehi%NULL%0,                       Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                       Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                       Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                       Maria Livia%Burzo%NULL%2,                       Maria Livia%Burzo%NULL%0,                       Michele%Santoro%NULL%1,                       Mariella%Fuorlo%NULL%1,                       Luca%Sabia%NULL%1,                       Claudio%Sandroni%NULL%1,                       Antonio%Gasbarrini%NULL%0,                       Francesco%Franceschi%NULL%1,                       Giovanni%Gambassi%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                       C%Nardin%NULL%1,                       G L%Di Tanna%NULL%1,                       U%Grossi%NULL%1,                       E%Bernardi%NULL%1,                       L%Scaldaferri%NULL%1,                       M%Romagnoli%NULL%1,                       L%Tonon%NULL%1,                       P%Cavasin%NULL%1,                       S%Novello%NULL%1,                       R%Scarpa%NULL%1,                       A%Farnia%NULL%1,                       E%De Menis%NULL%1,                       R%Rigoli%NULL%1,                       F%Cinetto%NULL%1,                       P%Pauletto%NULL%1,                       C%Agostini%NULL%1,                       M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                       Jiatian%Cao%NULL%1,                       Yumeng%Yao%NULL%1,                       Xuejuan%Jin%NULL%1,                       Zhe%Luo%NULL%1,                       Yuan%Xue%NULL%1,                       Chouwen%Zhu%NULL%1,                       Yanan%Song%NULL%1,                       Ying%Wang%NULL%0,                       Yunzeng%Zou%NULL%1,                       Juying%Qian%NULL%1,                       Kaihuan%Yu%NULL%1,                       Hui%Gong%NULL%1,                       Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                       Kenneth W%Chow%NULL%1,                       Jonathan%Vo%NULL%1,                       Wei%Hou%NULL%0,                       Haifang%Li%NULL%0,                       Paul S%Richman%NULL%1,                       Sandeep K%Mallipattu%NULL%1,                       Hal A%Skopicki%NULL%1,                       Adam J%Singer%NULL%1,                       Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                       Yi%Liu%NULL%0,                       Keliang%Chen%NULL%1,                       Suying%Yan%NULL%1,                       Xiangrong%Bai%NULL%1,                       Juan%Li%947281063@qq.com%0,                       Dong%Liu%ld2069@outlook.com%0,                       Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,              Hisao%Ogawa%null%0,              Kazuo%Kimura%null%0,              Masaaki%Konishi%null%0,              Jin%Kirigaya%null%0,              Kazuki%Fukui%null%0,              Kengo%Tsukahara%null%0,              Hiroyuki%Shimizu%null%0,              Keisuke%Iwabuchi%null%0,              Yu%Yamada%null%0,              Kenichiro%Saka%null%0,              Ichiro%Takeuchi%null%0,              Toshio%Hirano%null%0,              Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                       Guohui%Xiao%NULL%1,                       Juanjuan%Zhang%NULL%1,                       Xing%He%NULL%1,                       Min%Ou%NULL%1,                       Jing%Bi%NULL%1,                       Rongqing%Yang%NULL%1,                       Wencheng%Di%NULL%1,                       Zhaoqin%Wang%NULL%1,                       Zigang%Li%NULL%1,                       Hong%Gao%NULL%0,                       Lei%Liu%NULL%0,                       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,              Yanchen%Guo%null%1,              Zhengrong%Lin%null%1,              Zhe%Shi%null%1,              Tianyuan%Bian%null%1,              Lin%Qi%null%1,              Long%Meng%null%1,              Anthony A.%Grace%null%1,              Hairong%Zheng%null%1,              Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                       Paolo%Maggi%NULL%2,                       Paolo%Maggi%NULL%0,                       Vincenzo%Messina%NULL%1,                       Pasquale%Iuliano%NULL%2,                       Pasquale%Iuliano%NULL%0,                       Antonio%Sardu%NULL%1,                       Vincenzo%Iovinella%NULL%1,                       Giuseppe%Paolisso%NULL%1,                       Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                      Li%J%coreGivesNoEmail%1,                      Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                       Rasimcan%Meral%NULL%1,                       Alpay%Medetalibeyoğlu%NULL%1,                       Hilal%Konyaoğlu%NULL%1,                       Murat%Köse%NULL%1,                       Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                       Dewei%Zhang%NULL%1,                       Shengming%Wang%NULL%1,                       Yanhua%Jin%NULL%1,                       Jianbo%Huan%NULL%1,                       Yue%Wu%NULL%0,                       Cheng%Xia%NULL%1,                       Zhe%Li%NULL%1,                       Xingshun%Qi%NULL%1,                       Duanzhen%Zhang%NULL%1,                       Xiumin%Han%NULL%1,                       Xianyang%Zhu%NULL%1,                       Ying%Qu%NULL%1,                       Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                       Songmei%Wang%NULL%1,                       Lorenz%von Seidlein%NULL%1,                       Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                       Dan%Liu%NULL%0,                       Shaoqing%Zeng%NULL%1,                       Siyuan%Wang%NULL%1,                       Sen%Xu%NULL%0,                       Ya%Wang%NULL%0,                       Ruidi%Yu%NULL%1,                       Yue%Gao%NULL%0,                       Huayi%Li%NULL%1,                       Xinxia%Feng%NULL%1,                       Ning%Zhou%NULL%0,                       Chunxia%Zhao%NULL%1,                       Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                       Lihua%Zhu%NULL%0,                       Jingjing%Cai%NULL%0,                       Fang%Lei%NULL%0,                       Juan-Juan%Qin%NULL%0,                       Jing%Xie%NULL%2,                       Ye-Mao%Liu%NULL%0,                       Yan-Ci%Zhao%NULL%1,                       Xuewei%Huang%NULL%0,                       Lijin%Lin%NULL%0,                       Meng%Xia%NULL%0,                       Ming-Ming%Chen%NULL%0,                       Xu%Cheng%NULL%1,                       Xiao%Zhang%NULL%0,                       Deliang%Guo%NULL%1,                       Yuanyuan%Peng%NULL%1,                       Yan-Xiao%Ji%NULL%0,                       Jing%Chen%NULL%0,                       Zhi-Gang%She%NULL%0,                       Yibin%Wang%NULL%0,                       Qingbo%Xu%NULL%0,                       Renfu%Tan%NULL%1,                       Haitao%Wang%NULL%1,                       Jun%Lin%NULL%2,                       Pengcheng%Luo%NULL%1,                       Shouzhi%Fu%NULL%0,                       Hongbin%Cai%NULL%1,                       Ping%Ye%NULL%0,                       Bing%Xiao%NULL%1,                       Weiming%Mao%NULL%0,                       Liming%Liu%NULL%1,                       Youqin%Yan%NULL%2,                       Mingyu%Liu%NULL%1,                       Manhua%Chen%NULL%1,                       Xiao-Jing%Zhang%NULL%0,                       Xinghuan%Wang%NULL%0,                       Rhian M.%Touyz%NULL%1,                       Jiahong%Xia%NULL%0,                       Bing-Hong%Zhang%NULL%0,                       Xiaodong%Huang%NULL%0,                       Yufeng%Yuan%NULL%0,                       Rohit%Loomba%NULL%1,                       Peter P.%Liu%NULL%1,                       Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                       Jingkang%Zhu%NULL%1,                       Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,               F.%Santilli%null%1,               M. T.%Guagnano%null%1,               M.%Bucci%null%1,               F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                        Feng%Wang%NULL%0,                        Peng%Chen%NULL%1,                        Jiangang%Jiang%NULL%0,                        Guanglin%Cui%NULL%1,                        Ning%Zhou%NULL%0,                        Francesco%Moroni%NULL%1,                        Javid J.%Moslehi%NULL%0,                        Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                        Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                        Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                        Maria Livia%Burzo%NULL%2,                        Maria Livia%Burzo%NULL%0,                        Michele%Santoro%NULL%1,                        Mariella%Fuorlo%NULL%1,                        Luca%Sabia%NULL%1,                        Claudio%Sandroni%NULL%1,                        Antonio%Gasbarrini%NULL%0,                        Francesco%Franceschi%NULL%1,                        Giovanni%Gambassi%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                        C%Nardin%NULL%1,                        G L%Di Tanna%NULL%1,                        U%Grossi%NULL%1,                        E%Bernardi%NULL%1,                        L%Scaldaferri%NULL%1,                        M%Romagnoli%NULL%1,                        L%Tonon%NULL%1,                        P%Cavasin%NULL%1,                        S%Novello%NULL%1,                        R%Scarpa%NULL%1,                        A%Farnia%NULL%1,                        E%De Menis%NULL%1,                        R%Rigoli%NULL%1,                        F%Cinetto%NULL%1,                        P%Pauletto%NULL%1,                        C%Agostini%NULL%1,                        M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                        Jiatian%Cao%NULL%1,                        Yumeng%Yao%NULL%1,                        Xuejuan%Jin%NULL%1,                        Zhe%Luo%NULL%1,                        Yuan%Xue%NULL%1,                        Chouwen%Zhu%NULL%1,                        Yanan%Song%NULL%1,                        Ying%Wang%NULL%0,                        Yunzeng%Zou%NULL%1,                        Juying%Qian%NULL%1,                        Kaihuan%Yu%NULL%1,                        Hui%Gong%NULL%1,                        Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                        Kenneth W%Chow%NULL%1,                        Jonathan%Vo%NULL%1,                        Wei%Hou%NULL%0,                        Haifang%Li%NULL%0,                        Paul S%Richman%NULL%1,                        Sandeep K%Mallipattu%NULL%1,                        Hal A%Skopicki%NULL%1,                        Adam J%Singer%NULL%1,                        Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                        Yi%Liu%NULL%0,                        Keliang%Chen%NULL%1,                        Suying%Yan%NULL%1,                        Xiangrong%Bai%NULL%1,                        Juan%Li%947281063@qq.com%0,                        Dong%Liu%ld2069@outlook.com%0,                        Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,               Hisao%Ogawa%null%0,               Kazuo%Kimura%null%0,               Masaaki%Konishi%null%0,               Jin%Kirigaya%null%0,               Kazuki%Fukui%null%0,               Kengo%Tsukahara%null%0,               Hiroyuki%Shimizu%null%0,               Keisuke%Iwabuchi%null%0,               Yu%Yamada%null%0,               Kenichiro%Saka%null%0,               Ichiro%Takeuchi%null%0,               Toshio%Hirano%null%0,               Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                        Guohui%Xiao%NULL%1,                        Juanjuan%Zhang%NULL%1,                        Xing%He%NULL%1,                        Min%Ou%NULL%1,                        Jing%Bi%NULL%1,                        Rongqing%Yang%NULL%1,                        Wencheng%Di%NULL%1,                        Zhaoqin%Wang%NULL%1,                        Zigang%Li%NULL%1,                        Hong%Gao%NULL%0,                        Lei%Liu%NULL%0,                        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,               Yanchen%Guo%null%1,               Zhengrong%Lin%null%1,               Zhe%Shi%null%1,               Tianyuan%Bian%null%1,               Lin%Qi%null%1,               Long%Meng%null%1,               Anthony A.%Grace%null%1,               Hairong%Zheng%null%1,               Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                        Paolo%Maggi%NULL%2,                        Paolo%Maggi%NULL%0,                        Vincenzo%Messina%NULL%1,                        Pasquale%Iuliano%NULL%2,                        Pasquale%Iuliano%NULL%0,                        Antonio%Sardu%NULL%1,                        Vincenzo%Iovinella%NULL%1,                        Giuseppe%Paolisso%NULL%1,                        Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                       Li%J%coreGivesNoEmail%1,                       Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                        Rasimcan%Meral%NULL%1,                        Alpay%Medetalibeyoğlu%NULL%1,                        Hilal%Konyaoğlu%NULL%1,                        Murat%Köse%NULL%1,                        Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                        Dewei%Zhang%NULL%1,                        Shengming%Wang%NULL%1,                        Yanhua%Jin%NULL%1,                        Jianbo%Huan%NULL%1,                        Yue%Wu%NULL%0,                        Cheng%Xia%NULL%1,                        Zhe%Li%NULL%1,                        Xingshun%Qi%NULL%1,                        Duanzhen%Zhang%NULL%1,                        Xiumin%Han%NULL%1,                        Xianyang%Zhu%NULL%1,                        Ying%Qu%NULL%1,                        Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                        Songmei%Wang%NULL%1,                        Lorenz%von Seidlein%NULL%1,                        Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                        Dan%Liu%NULL%0,                        Shaoqing%Zeng%NULL%1,                        Siyuan%Wang%NULL%1,                        Sen%Xu%NULL%0,                        Ya%Wang%NULL%0,                        Ruidi%Yu%NULL%1,                        Yue%Gao%NULL%0,                        Huayi%Li%NULL%1,                        Xinxia%Feng%NULL%1,                        Ning%Zhou%NULL%0,                        Chunxia%Zhao%NULL%1,                        Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                        Lihua%Zhu%NULL%0,                        Jingjing%Cai%NULL%0,                        Fang%Lei%NULL%0,                        Juan-Juan%Qin%NULL%0,                        Jing%Xie%NULL%2,                        Ye-Mao%Liu%NULL%0,                        Yan-Ci%Zhao%NULL%1,                        Xuewei%Huang%NULL%0,                        Lijin%Lin%NULL%0,                        Meng%Xia%NULL%0,                        Ming-Ming%Chen%NULL%0,                        Xu%Cheng%NULL%1,                        Xiao%Zhang%NULL%0,                        Deliang%Guo%NULL%1,                        Yuanyuan%Peng%NULL%1,                        Yan-Xiao%Ji%NULL%0,                        Jing%Chen%NULL%0,                        Zhi-Gang%She%NULL%0,                        Yibin%Wang%NULL%0,                        Qingbo%Xu%NULL%0,                        Renfu%Tan%NULL%1,                        Haitao%Wang%NULL%1,                        Jun%Lin%NULL%2,                        Pengcheng%Luo%NULL%1,                        Shouzhi%Fu%NULL%0,                        Hongbin%Cai%NULL%1,                        Ping%Ye%NULL%0,                        Bing%Xiao%NULL%1,                        Weiming%Mao%NULL%0,                        Liming%Liu%NULL%1,                        Youqin%Yan%NULL%2,                        Mingyu%Liu%NULL%1,                        Manhua%Chen%NULL%1,                        Xiao-Jing%Zhang%NULL%0,                        Xinghuan%Wang%NULL%0,                        Rhian M.%Touyz%NULL%1,                        Jiahong%Xia%NULL%0,                        Bing-Hong%Zhang%NULL%0,                        Xiaodong%Huang%NULL%0,                        Yufeng%Yuan%NULL%0,                        Rohit%Loomba%NULL%1,                        Peter P.%Liu%NULL%1,                        Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                        Jingkang%Zhu%NULL%1,                        Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,                F.%Santilli%null%1,                M. T.%Guagnano%null%1,                M.%Bucci%null%1,                F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                         Feng%Wang%NULL%0,                         Peng%Chen%NULL%1,                         Jiangang%Jiang%NULL%0,                         Guanglin%Cui%NULL%1,                         Ning%Zhou%NULL%0,                         Francesco%Moroni%NULL%1,                         Javid J.%Moslehi%NULL%0,                         Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                         Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                         Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                         Maria Livia%Burzo%NULL%2,                         Maria Livia%Burzo%NULL%0,                         Michele%Santoro%NULL%1,                         Mariella%Fuorlo%NULL%1,                         Luca%Sabia%NULL%1,                         Claudio%Sandroni%NULL%1,                         Antonio%Gasbarrini%NULL%0,                         Francesco%Franceschi%NULL%1,                         Giovanni%Gambassi%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                         C%Nardin%NULL%1,                         G L%Di Tanna%NULL%1,                         U%Grossi%NULL%1,                         E%Bernardi%NULL%1,                         L%Scaldaferri%NULL%1,                         M%Romagnoli%NULL%1,                         L%Tonon%NULL%1,                         P%Cavasin%NULL%1,                         S%Novello%NULL%1,                         R%Scarpa%NULL%1,                         A%Farnia%NULL%1,                         E%De Menis%NULL%1,                         R%Rigoli%NULL%1,                         F%Cinetto%NULL%1,                         P%Pauletto%NULL%1,                         C%Agostini%NULL%1,                         M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                         Jiatian%Cao%NULL%1,                         Yumeng%Yao%NULL%1,                         Xuejuan%Jin%NULL%1,                         Zhe%Luo%NULL%1,                         Yuan%Xue%NULL%1,                         Chouwen%Zhu%NULL%1,                         Yanan%Song%NULL%1,                         Ying%Wang%NULL%0,                         Yunzeng%Zou%NULL%1,                         Juying%Qian%NULL%1,                         Kaihuan%Yu%NULL%1,                         Hui%Gong%NULL%1,                         Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                         Kenneth W%Chow%NULL%1,                         Jonathan%Vo%NULL%1,                         Wei%Hou%NULL%0,                         Haifang%Li%NULL%0,                         Paul S%Richman%NULL%1,                         Sandeep K%Mallipattu%NULL%1,                         Hal A%Skopicki%NULL%1,                         Adam J%Singer%NULL%1,                         Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                         Yi%Liu%NULL%0,                         Keliang%Chen%NULL%1,                         Suying%Yan%NULL%1,                         Xiangrong%Bai%NULL%1,                         Juan%Li%947281063@qq.com%0,                         Dong%Liu%ld2069@outlook.com%0,                         Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,                Hisao%Ogawa%null%0,                Kazuo%Kimura%null%0,                Masaaki%Konishi%null%0,                Jin%Kirigaya%null%0,                Kazuki%Fukui%null%0,                Kengo%Tsukahara%null%0,                Hiroyuki%Shimizu%null%0,                Keisuke%Iwabuchi%null%0,                Yu%Yamada%null%0,                Kenichiro%Saka%null%0,                Ichiro%Takeuchi%null%0,                Toshio%Hirano%null%0,                Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                         Guohui%Xiao%NULL%1,                         Juanjuan%Zhang%NULL%1,                         Xing%He%NULL%1,                         Min%Ou%NULL%1,                         Jing%Bi%NULL%1,                         Rongqing%Yang%NULL%1,                         Wencheng%Di%NULL%1,                         Zhaoqin%Wang%NULL%1,                         Zigang%Li%NULL%1,                         Hong%Gao%NULL%0,                         Lei%Liu%NULL%0,                         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,                Yanchen%Guo%null%1,                Zhengrong%Lin%null%1,                Zhe%Shi%null%1,                Tianyuan%Bian%null%1,                Lin%Qi%null%1,                Long%Meng%null%1,                Anthony A.%Grace%null%1,                Hairong%Zheng%null%1,                Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                         Paolo%Maggi%NULL%2,                         Paolo%Maggi%NULL%0,                         Vincenzo%Messina%NULL%1,                         Pasquale%Iuliano%NULL%2,                         Pasquale%Iuliano%NULL%0,                         Antonio%Sardu%NULL%1,                         Vincenzo%Iovinella%NULL%1,                         Giuseppe%Paolisso%NULL%1,                         Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                        Li%J%coreGivesNoEmail%1,                        Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                         Rasimcan%Meral%NULL%1,                         Alpay%Medetalibeyoğlu%NULL%1,                         Hilal%Konyaoğlu%NULL%1,                         Murat%Köse%NULL%1,                         Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                         Dewei%Zhang%NULL%1,                         Shengming%Wang%NULL%1,                         Yanhua%Jin%NULL%1,                         Jianbo%Huan%NULL%1,                         Yue%Wu%NULL%0,                         Cheng%Xia%NULL%1,                         Zhe%Li%NULL%1,                         Xingshun%Qi%NULL%1,                         Duanzhen%Zhang%NULL%1,                         Xiumin%Han%NULL%1,                         Xianyang%Zhu%NULL%1,                         Ying%Qu%NULL%1,                         Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                         Songmei%Wang%NULL%1,                         Lorenz%von Seidlein%NULL%1,                         Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                         Dan%Liu%NULL%0,                         Shaoqing%Zeng%NULL%1,                         Siyuan%Wang%NULL%1,                         Sen%Xu%NULL%0,                         Ya%Wang%NULL%0,                         Ruidi%Yu%NULL%1,                         Yue%Gao%NULL%0,                         Huayi%Li%NULL%1,                         Xinxia%Feng%NULL%1,                         Ning%Zhou%NULL%0,                         Chunxia%Zhao%NULL%1,                         Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                         Lihua%Zhu%NULL%0,                         Jingjing%Cai%NULL%0,                         Fang%Lei%NULL%0,                         Juan-Juan%Qin%NULL%0,                         Jing%Xie%NULL%2,                         Ye-Mao%Liu%NULL%0,                         Yan-Ci%Zhao%NULL%1,                         Xuewei%Huang%NULL%0,                         Lijin%Lin%NULL%0,                         Meng%Xia%NULL%0,                         Ming-Ming%Chen%NULL%0,                         Xu%Cheng%NULL%1,                         Xiao%Zhang%NULL%0,                         Deliang%Guo%NULL%1,                         Yuanyuan%Peng%NULL%1,                         Yan-Xiao%Ji%NULL%0,                         Jing%Chen%NULL%0,                         Zhi-Gang%She%NULL%0,                         Yibin%Wang%NULL%0,                         Qingbo%Xu%NULL%0,                         Renfu%Tan%NULL%1,                         Haitao%Wang%NULL%1,                         Jun%Lin%NULL%2,                         Pengcheng%Luo%NULL%1,                         Shouzhi%Fu%NULL%0,                         Hongbin%Cai%NULL%1,                         Ping%Ye%NULL%0,                         Bing%Xiao%NULL%1,                         Weiming%Mao%NULL%0,                         Liming%Liu%NULL%1,                         Youqin%Yan%NULL%2,                         Mingyu%Liu%NULL%1,                         Manhua%Chen%NULL%1,                         Xiao-Jing%Zhang%NULL%0,                         Xinghuan%Wang%NULL%0,                         Rhian M.%Touyz%NULL%1,                         Jiahong%Xia%NULL%0,                         Bing-Hong%Zhang%NULL%0,                         Xiaodong%Huang%NULL%0,                         Yufeng%Yuan%NULL%0,                         Rohit%Loomba%NULL%1,                         Peter P.%Liu%NULL%1,                         Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                         Jingkang%Zhu%NULL%1,                         Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2106,6 +2391,9 @@
       <c r="I1" t="s">
         <v>155</v>
       </c>
+      <c r="J1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2121,7 +2409,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2134,6 +2422,9 @@
       </c>
       <c r="I2" t="s">
         <v>471</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -2150,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2163,6 +2454,9 @@
       </c>
       <c r="I3" t="s">
         <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -2179,7 +2473,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2192,6 +2486,9 @@
       </c>
       <c r="I4" t="s">
         <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -2208,7 +2505,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2221,6 +2518,9 @@
       </c>
       <c r="I5" t="s">
         <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -2237,7 +2537,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2250,6 +2550,9 @@
       </c>
       <c r="I6" t="s">
         <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -2266,7 +2569,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2279,6 +2582,9 @@
       </c>
       <c r="I7" t="s">
         <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -2295,7 +2601,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2308,6 +2614,9 @@
       </c>
       <c r="I8" t="s">
         <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -2324,7 +2633,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2337,6 +2646,9 @@
       </c>
       <c r="I9" t="s">
         <v>471</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -2353,7 +2665,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2366,6 +2678,9 @@
       </c>
       <c r="I10" t="s">
         <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2382,7 +2697,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>504</v>
+        <v>602</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2395,6 +2710,9 @@
       </c>
       <c r="I11" t="s">
         <v>471</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -2411,7 +2729,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2420,10 +2738,13 @@
         <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>527</v>
       </c>
       <c r="I12" t="s">
-        <v>471</v>
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13">
@@ -2440,7 +2761,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2453,6 +2774,9 @@
       </c>
       <c r="I13" t="s">
         <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -2469,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>507</v>
+        <v>604</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2482,6 +2806,9 @@
       </c>
       <c r="I14" t="s">
         <v>471</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2498,7 +2825,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>508</v>
+        <v>605</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2511,6 +2838,9 @@
       </c>
       <c r="I15" t="s">
         <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -2527,7 +2857,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2539,7 +2869,10 @@
         <v>252</v>
       </c>
       <c r="I16" t="s">
-        <v>471</v>
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="17">
@@ -2556,7 +2889,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2569,6 +2902,9 @@
       </c>
       <c r="I17" t="s">
         <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -2585,7 +2921,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2598,6 +2934,9 @@
       </c>
       <c r="I18" t="s">
         <v>489</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -2614,7 +2953,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>512</v>
+        <v>342</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2623,10 +2962,13 @@
         <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>535</v>
       </c>
       <c r="I19" t="s">
-        <v>471</v>
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="20">
@@ -2643,7 +2985,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>513</v>
+        <v>608</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2656,6 +2998,9 @@
       </c>
       <c r="I20" t="s">
         <v>492</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2672,7 +3017,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>514</v>
+        <v>609</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -2685,6 +3030,9 @@
       </c>
       <c r="I21" t="s">
         <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -2701,7 +3049,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -2714,6 +3062,9 @@
       </c>
       <c r="I22" t="s">
         <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/93.xlsx
+++ b/Covid_19_Dataset_and_References/References/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="647">
   <si>
     <t>Doi</t>
   </si>
@@ -2073,6 +2073,114 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                         Jingkang%Zhu%NULL%1,                         Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,                 F.%Santilli%null%1,                 M. T.%Guagnano%null%1,                 M.%Bucci%null%1,                 F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                          Feng%Wang%NULL%0,                          Peng%Chen%NULL%1,                          Jiangang%Jiang%NULL%0,                          Guanglin%Cui%NULL%1,                          Ning%Zhou%NULL%0,                          Francesco%Moroni%NULL%1,                          Javid J.%Moslehi%NULL%0,                          Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                          Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                          Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                          Maria Livia%Burzo%NULL%2,                          Maria Livia%Burzo%NULL%0,                          Michele%Santoro%NULL%1,                          Mariella%Fuorlo%NULL%1,                          Luca%Sabia%NULL%1,                          Claudio%Sandroni%NULL%1,                          Antonio%Gasbarrini%NULL%0,                          Francesco%Franceschi%NULL%1,                          Giovanni%Gambassi%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                          C%Nardin%NULL%1,                          G L%Di Tanna%NULL%1,                          U%Grossi%NULL%1,                          E%Bernardi%NULL%1,                          L%Scaldaferri%NULL%1,                          M%Romagnoli%NULL%1,                          L%Tonon%NULL%1,                          P%Cavasin%NULL%1,                          S%Novello%NULL%1,                          R%Scarpa%NULL%1,                          A%Farnia%NULL%1,                          E%De Menis%NULL%1,                          R%Rigoli%NULL%1,                          F%Cinetto%NULL%1,                          P%Pauletto%NULL%1,                          C%Agostini%NULL%1,                          M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                          Jiatian%Cao%NULL%1,                          Yumeng%Yao%NULL%1,                          Xuejuan%Jin%NULL%1,                          Zhe%Luo%NULL%1,                          Yuan%Xue%NULL%1,                          Chouwen%Zhu%NULL%1,                          Yanan%Song%NULL%1,                          Ying%Wang%NULL%0,                          Yunzeng%Zou%NULL%1,                          Juying%Qian%NULL%1,                          Kaihuan%Yu%NULL%1,                          Hui%Gong%NULL%1,                          Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                          Kenneth W%Chow%NULL%1,                          Jonathan%Vo%NULL%1,                          Wei%Hou%NULL%0,                          Haifang%Li%NULL%0,                          Paul S%Richman%NULL%1,                          Sandeep K%Mallipattu%NULL%1,                          Hal A%Skopicki%NULL%1,                          Adam J%Singer%NULL%1,                          Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                          Yi%Liu%NULL%0,                          Keliang%Chen%NULL%1,                          Suying%Yan%NULL%1,                          Xiangrong%Bai%NULL%1,                          Juan%Li%947281063@qq.com%0,                          Dong%Liu%ld2069@outlook.com%0,                          Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,                 Hisao%Ogawa%null%0,                 Kazuo%Kimura%null%0,                 Masaaki%Konishi%null%0,                 Jin%Kirigaya%null%0,                 Kazuki%Fukui%null%0,                 Kengo%Tsukahara%null%0,                 Hiroyuki%Shimizu%null%0,                 Keisuke%Iwabuchi%null%0,                 Yu%Yamada%null%0,                 Kenichiro%Saka%null%0,                 Ichiro%Takeuchi%null%0,                 Toshio%Hirano%null%0,                 Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                          Guohui%Xiao%NULL%1,                          Juanjuan%Zhang%NULL%1,                          Xing%He%NULL%1,                          Min%Ou%NULL%1,                          Jing%Bi%NULL%1,                          Rongqing%Yang%NULL%1,                          Wencheng%Di%NULL%1,                          Zhaoqin%Wang%NULL%1,                          Zigang%Li%NULL%1,                          Hong%Gao%NULL%0,                          Lei%Liu%NULL%0,                          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,                 Yanchen%Guo%null%1,                 Zhengrong%Lin%null%1,                 Zhe%Shi%null%1,                 Tianyuan%Bian%null%1,                 Lin%Qi%null%1,                 Long%Meng%null%1,                 Anthony A.%Grace%null%1,                 Hairong%Zheng%null%1,                 Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                          Paolo%Maggi%NULL%2,                          Paolo%Maggi%NULL%0,                          Vincenzo%Messina%NULL%1,                          Pasquale%Iuliano%NULL%2,                          Pasquale%Iuliano%NULL%0,                          Antonio%Sardu%NULL%1,                          Vincenzo%Iovinella%NULL%1,                          Giuseppe%Paolisso%NULL%1,                          Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                         Li%J%coreGivesNoEmail%1,                         Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                          Rasimcan%Meral%NULL%1,                          Alpay%Medetalibeyoğlu%NULL%1,                          Hilal%Konyaoğlu%NULL%1,                          Murat%Köse%NULL%1,                          Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                          Dewei%Zhang%NULL%1,                          Shengming%Wang%NULL%1,                          Yanhua%Jin%NULL%1,                          Jianbo%Huan%NULL%1,                          Yue%Wu%NULL%0,                          Cheng%Xia%NULL%1,                          Zhe%Li%NULL%1,                          Xingshun%Qi%NULL%1,                          Duanzhen%Zhang%NULL%1,                          Xiumin%Han%NULL%1,                          Xianyang%Zhu%NULL%1,                          Ying%Qu%NULL%1,                          Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                          Songmei%Wang%NULL%1,                          Lorenz%von Seidlein%NULL%1,                          Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                          Dan%Liu%NULL%0,                          Shaoqing%Zeng%NULL%1,                          Siyuan%Wang%NULL%1,                          Sen%Xu%NULL%0,                          Ya%Wang%NULL%0,                          Ruidi%Yu%NULL%1,                          Yue%Gao%NULL%0,                          Huayi%Li%NULL%1,                          Xinxia%Feng%NULL%1,                          Ning%Zhou%NULL%0,                          Chunxia%Zhao%NULL%1,                          Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                          Lihua%Zhu%NULL%0,                          Jingjing%Cai%NULL%0,                          Fang%Lei%NULL%0,                          Juan-Juan%Qin%NULL%0,                          Jing%Xie%NULL%2,                          Ye-Mao%Liu%NULL%0,                          Yan-Ci%Zhao%NULL%1,                          Xuewei%Huang%NULL%0,                          Lijin%Lin%NULL%0,                          Meng%Xia%NULL%0,                          Ming-Ming%Chen%NULL%0,                          Xu%Cheng%NULL%1,                          Xiao%Zhang%NULL%0,                          Deliang%Guo%NULL%1,                          Yuanyuan%Peng%NULL%1,                          Yan-Xiao%Ji%NULL%0,                          Jing%Chen%NULL%0,                          Zhi-Gang%She%NULL%0,                          Yibin%Wang%NULL%0,                          Qingbo%Xu%NULL%0,                          Renfu%Tan%NULL%1,                          Haitao%Wang%NULL%1,                          Jun%Lin%NULL%2,                          Pengcheng%Luo%NULL%1,                          Shouzhi%Fu%NULL%0,                          Hongbin%Cai%NULL%1,                          Ping%Ye%NULL%0,                          Bing%Xiao%NULL%1,                          Weiming%Mao%NULL%0,                          Liming%Liu%NULL%1,                          Youqin%Yan%NULL%2,                          Mingyu%Liu%NULL%1,                          Manhua%Chen%NULL%1,                          Xiao-Jing%Zhang%NULL%0,                          Xinghuan%Wang%NULL%0,                          Rhian M.%Touyz%NULL%1,                          Jiahong%Xia%NULL%0,                          Bing-Hong%Zhang%NULL%0,                          Xiaodong%Huang%NULL%0,                          Yufeng%Yuan%NULL%0,                          Rohit%Loomba%NULL%1,                          Peter P.%Liu%NULL%1,                          Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                          Jingkang%Zhu%NULL%1,                          Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%D’Ardes%null%1,                  F.%Santilli%null%1,                  M. T.%Guagnano%null%1,                  M.%Bucci%null%1,                  F.%Cipollone%null%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                           Feng%Wang%NULL%0,                           Peng%Chen%NULL%1,                           Jiangang%Jiang%NULL%0,                           Guanglin%Cui%NULL%1,                           Ning%Zhou%NULL%0,                           Francesco%Moroni%NULL%1,                           Javid J.%Moslehi%NULL%0,                           Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                           Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                           Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                           Maria Livia%Burzo%NULL%2,                           Maria Livia%Burzo%NULL%0,                           Michele%Santoro%NULL%1,                           Mariella%Fuorlo%NULL%1,                           Luca%Sabia%NULL%1,                           Claudio%Sandroni%NULL%1,                           Antonio%Gasbarrini%NULL%0,                           Francesco%Franceschi%NULL%1,                           Giovanni%Gambassi%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                           C%Nardin%NULL%1,                           G L%Di Tanna%NULL%1,                           U%Grossi%NULL%1,                           E%Bernardi%NULL%1,                           L%Scaldaferri%NULL%1,                           M%Romagnoli%NULL%1,                           L%Tonon%NULL%1,                           P%Cavasin%NULL%1,                           S%Novello%NULL%1,                           R%Scarpa%NULL%1,                           A%Farnia%NULL%1,                           E%De Menis%NULL%1,                           R%Rigoli%NULL%1,                           F%Cinetto%NULL%1,                           P%Pauletto%NULL%1,                           C%Agostini%NULL%1,                           M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                           Jiatian%Cao%NULL%1,                           Yumeng%Yao%NULL%1,                           Xuejuan%Jin%NULL%1,                           Zhe%Luo%NULL%1,                           Yuan%Xue%NULL%1,                           Chouwen%Zhu%NULL%1,                           Yanan%Song%NULL%1,                           Ying%Wang%NULL%0,                           Yunzeng%Zou%NULL%1,                           Juying%Qian%NULL%1,                           Kaihuan%Yu%NULL%1,                           Hui%Gong%NULL%1,                           Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                           Kenneth W%Chow%NULL%1,                           Jonathan%Vo%NULL%1,                           Wei%Hou%NULL%0,                           Haifang%Li%NULL%0,                           Paul S%Richman%NULL%1,                           Sandeep K%Mallipattu%NULL%1,                           Hal A%Skopicki%NULL%1,                           Adam J%Singer%NULL%1,                           Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                           Yi%Liu%NULL%0,                           Keliang%Chen%NULL%1,                           Suying%Yan%NULL%1,                           Xiangrong%Bai%NULL%1,                           Juan%Li%947281063@qq.com%0,                           Dong%Liu%ld2069@outlook.com%0,                           Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,                  Hisao%Ogawa%null%0,                  Kazuo%Kimura%null%0,                  Masaaki%Konishi%null%0,                  Jin%Kirigaya%null%0,                  Kazuki%Fukui%null%0,                  Kengo%Tsukahara%null%0,                  Hiroyuki%Shimizu%null%0,                  Keisuke%Iwabuchi%null%0,                  Yu%Yamada%null%0,                  Kenichiro%Saka%null%0,                  Ichiro%Takeuchi%null%0,                  Toshio%Hirano%null%0,                  Kouichi%Tamura%null%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                           Guohui%Xiao%NULL%1,                           Juanjuan%Zhang%NULL%1,                           Xing%He%NULL%1,                           Min%Ou%NULL%1,                           Jing%Bi%NULL%1,                           Rongqing%Yang%NULL%1,                           Wencheng%Di%NULL%1,                           Zhaoqin%Wang%NULL%1,                           Zigang%Li%NULL%1,                           Hong%Gao%NULL%0,                           Lei%Liu%NULL%0,                           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Lili%Niu%null%1,                  Yanchen%Guo%null%1,                  Zhengrong%Lin%null%1,                  Zhe%Shi%null%1,                  Tianyuan%Bian%null%1,                  Lin%Qi%null%1,                  Long%Meng%null%1,                  Anthony A.%Grace%null%1,                  Hairong%Zheng%null%1,                  Ti-Fei%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                           Paolo%Maggi%NULL%2,                           Paolo%Maggi%NULL%0,                           Vincenzo%Messina%NULL%1,                           Pasquale%Iuliano%NULL%2,                           Pasquale%Iuliano%NULL%0,                           Antonio%Sardu%NULL%1,                           Vincenzo%Iovinella%NULL%1,                           Giuseppe%Paolisso%NULL%1,                           Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[International%Society of Hypertension%coreGivesNoEmail%1,                          Li%J%coreGivesNoEmail%1,                          Zhang%P%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                           Rasimcan%Meral%NULL%1,                           Alpay%Medetalibeyoğlu%NULL%1,                           Hilal%Konyaoğlu%NULL%1,                           Murat%Köse%NULL%1,                           Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                           Dewei%Zhang%NULL%1,                           Shengming%Wang%NULL%1,                           Yanhua%Jin%NULL%1,                           Jianbo%Huan%NULL%1,                           Yue%Wu%NULL%0,                           Cheng%Xia%NULL%1,                           Zhe%Li%NULL%1,                           Xingshun%Qi%NULL%1,                           Duanzhen%Zhang%NULL%1,                           Xiumin%Han%NULL%1,                           Xianyang%Zhu%NULL%1,                           Ying%Qu%NULL%1,                           Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                           Songmei%Wang%NULL%1,                           Lorenz%von Seidlein%NULL%1,                           Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                           Dan%Liu%NULL%0,                           Shaoqing%Zeng%NULL%1,                           Siyuan%Wang%NULL%1,                           Sen%Xu%NULL%0,                           Ya%Wang%NULL%0,                           Ruidi%Yu%NULL%1,                           Yue%Gao%NULL%0,                           Huayi%Li%NULL%1,                           Xinxia%Feng%NULL%1,                           Ning%Zhou%NULL%0,                           Chunxia%Zhao%NULL%1,                           Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                           Lihua%Zhu%NULL%0,                           Jingjing%Cai%NULL%0,                           Fang%Lei%NULL%0,                           Juan-Juan%Qin%NULL%0,                           Jing%Xie%NULL%2,                           Ye-Mao%Liu%NULL%0,                           Yan-Ci%Zhao%NULL%1,                           Xuewei%Huang%NULL%0,                           Lijin%Lin%NULL%0,                           Meng%Xia%NULL%0,                           Ming-Ming%Chen%NULL%0,                           Xu%Cheng%NULL%1,                           Xiao%Zhang%NULL%0,                           Deliang%Guo%NULL%1,                           Yuanyuan%Peng%NULL%1,                           Yan-Xiao%Ji%NULL%0,                           Jing%Chen%NULL%0,                           Zhi-Gang%She%NULL%0,                           Yibin%Wang%NULL%0,                           Qingbo%Xu%NULL%0,                           Renfu%Tan%NULL%1,                           Haitao%Wang%NULL%1,                           Jun%Lin%NULL%2,                           Pengcheng%Luo%NULL%1,                           Shouzhi%Fu%NULL%0,                           Hongbin%Cai%NULL%1,                           Ping%Ye%NULL%0,                           Bing%Xiao%NULL%1,                           Weiming%Mao%NULL%0,                           Liming%Liu%NULL%1,                           Youqin%Yan%NULL%2,                           Mingyu%Liu%NULL%1,                           Manhua%Chen%NULL%1,                           Xiao-Jing%Zhang%NULL%0,                           Xinghuan%Wang%NULL%0,                           Rhian M.%Touyz%NULL%1,                           Jiahong%Xia%NULL%0,                           Bing-Hong%Zhang%NULL%0,                           Xiaodong%Huang%NULL%0,                           Yufeng%Yuan%NULL%0,                           Rohit%Loomba%NULL%1,                           Peter P.%Liu%NULL%1,                           Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                           Jingkang%Zhu%NULL%1,                           Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2517,7 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2441,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2473,7 +2581,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2505,7 +2613,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2537,7 +2645,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2569,7 +2677,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2601,7 +2709,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2633,7 +2741,7 @@
         <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2665,7 +2773,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2697,7 +2805,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2729,7 +2837,7 @@
         <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2761,7 +2869,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2793,7 +2901,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2825,7 +2933,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2857,7 +2965,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2889,7 +2997,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2921,7 +3029,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2953,7 +3061,7 @@
         <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2985,7 +3093,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -3017,7 +3125,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -3049,7 +3157,7 @@
         <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
